--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="431">
   <si>
     <t xml:space="preserve">TERMOS</t>
   </si>
@@ -2574,10 +2574,14 @@
   </si>
   <si>
     <t xml:space="preserve">- Podemos usar Spring Secuirity ou OAuth Server
-- OAuth Server está sendo depreciado e será migrado para Spring Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password Credentials Grant</t>
+- OAuth Server está sendo depreciado e será migrado para Spring Security
+- Para que nossa aplicação passe a funcionar como um Resource Server é necessário uma dependência no pom.xml
+spring-boot-starter-oauth2-resource-server
+- Necessário customizar as configurações em ResourceServerConfig e especificar URI de checagem de token em application.properties
+- Após essa configuração é necessário passar no cabeçalho Authorization: Bearer + token (Bearer significa Titular)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo: Password Credentials Grant</t>
   </si>
   <si>
     <t xml:space="preserve">- Garante um token a partir de um usuário e senha, também conhecido como Password Credentials
@@ -2585,6 +2589,116 @@
 - Token em formato Json possui chave de acesso, tipo do token, tempo de expiração e escopo
 - Client não deve armazenar usuário e senha
 OBS: Fluxo não aconselhado para ser usado, a não ser que não tenha outra solução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Server Configurer Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Classe de Configuração Herdada responsável por auxilia na customização de Acesso:
+- Permissão de Cliente: mobile, web ou desktop
+- Authentication Manager: validados de usuário e senha
+- Authorization Server produz o token para o Client e também valida o token quando o Resource Server o recebe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisição de Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Requisição para /oauth/token
+- Authentication: Basic Client Credentials
+- Body: x-www-form com username, password e grant_type
+- Recebemos um token opaco: que é um token onde não sabemos as informações dele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAuth2 Introspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Define o que deve ser passado na consulta e recebimento do Token do Authorization Server
+- A checkagem de token acontece na rota /oauth/check_token
+- Configuração é definida por AuthorizationServerSecurityConfigurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Atualiza o token quando uma credencial é expirada
+- É um token secundário que serve para fazer requisições para obter novos token
+- Possui um tempo de vida maior que o Access Token
+- É mais perigoso que o Acess Token se for vazado pois pode gerar diversos tokens de acesso.
+- Para funcionar é necessário espeficiar o grant type .authorizedGrantTypes("password", "refresh_token")
+- Também precisamos do Bean UserDetailService
+- Podemos invalidar um refresh token assim que usarmos uma vez com  .reuseRefreshTokens(false);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo: Client Credentials Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Quando uma aplicação gera token em nome dele própria e não em nome de algum usuário
+- Permite gerar um access token apenas com as credenciais do client
+- Usa no gant type: client_credentials
+- Não permite usar refresh_token
+- Para configura-lo basta criar um novo client em AuthorizationServerConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo: Authorization Code Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fluxo Básico
+- Client Solicita redirecionamento para o Autorization Server que complementa URL com informações como code, client_id, state e redirect_uri criando esse link de login:
+http://auth.algafood.local:8081/oauth/authorize?response_type=code&amp;client_id=foodanalytics&amp;state=abc&amp;redirect_uri=http://aplicacao-cliente
+- O link direcionará para tela de login para autenticar com usuário e senha do Resource Owner -  jose 123
+- State é validado no cliente e no resource server
+- Resource Owner recebe notificação para aprovar ou negar redirecionamento
+- Para chamar a API é necessário informar no cabeçalho o code recebido, o grant_type como authorization_code e redirect_uri sendo a url definida http://aplicacao-cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo: Implicit Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Semelhante ao Authorization Code porém simplificado (LEGADO: Esse fluxo não deve ser usado)
+- Ao invés de retornar um código já retorna o token na URL
+http://auth.algafood.local:8081/oauth/authorize?response_type=token&amp;client_id=webadmin&amp;state=abc&amp;redirect_uri=http://aplicacao-cliente
+- Implicit não emite refresh token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Code + PKCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Proof Key for Code Exchange (Chave de Prova para Troca de Código)
+- Resolve fluxo de clientes públicos, onde não é possível manter a confidencialidade das credenciais (client_id e client_secret de fácil acesso)
+- Token só será fornecido após validação do Code Challenge em SHA-256 e Bae64 Url
+1° - Client gera Verifier e Code Challange, então Autorization Server mantém o código para validação futura
+2° - Solicita a aprovação passando o code_challange e vefifier
+- No momento de solicitar o acesso token é passado o code, grant_type e redirect_uri passando o verifyer para validação do code_challenge
+Para implementá-lo usamos o método tokenGranter
+- O tokenGranter instancia o Authorization Code com PKCE
+Exemplo de Url de Authenticação:
+http://auth.algafood.local:8081/oauth/authorize?response_type=code&amp;client_id=foodanalytics&amp;state=abc&amp;redirect_uri=http://aplicacao-cliente&amp;code_challenge=teste123&amp;code_challenge_method=plain
+3° - Depois de Autenticado e aprovado, faremos uma nova requisição porém agora passando o code_challenge no cabeçalho do code_verifier e então recebemos um token
+4º – Seguimos com a chamada à aplicação
+Evita ataques de força bruta pois tem somente uma chance para acertar o code_challenge, caso errar o code_cerifier será invalidado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clientes Público x Confidencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Público é aquele que tem o client_id exposto, mesmo que compilado como no caso dos mobile, é possível fazer uma engenharia reversa e resgatar esse código
+- Confidencial: Comunicação com o Authorization é feita no Servidor e não no Browser como usuário final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clientes Confiáveis x Não Confiáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Confiável: Cliente desenvolvido pela sua empresa, você tem o controle sobre a aplicação
+- Não Confiável: Aplicações terceiras que você não detém o controle do que ela vai fazer, se vai ou não armazenar aquela chave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual Fluxo Usar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAuth2: 
+Se Público então Authorization Code com PKCE.
+Não Público e Sem usuários Finais então um backend com Client Credentials Flow
+Se tiver usuário finais e não outra alternativa então Password Flow senão Authorization Code</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -2609,7 +2723,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2731,11 +2845,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2779,7 +2888,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2814,10 +2923,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2901,10 +3006,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B206"/>
+  <dimension ref="A2:B217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B205" activeCellId="0" sqref="B205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B214" activeCellId="0" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4528,7 +4633,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>400</v>
       </c>
@@ -4537,11 +4642,99 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4573,10 +4766,10 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5"/>
@@ -4586,10 +4779,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4597,10 +4790,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="467">
   <si>
     <t xml:space="preserve">TERMOS</t>
   </si>
@@ -2699,6 +2699,224 @@
 Se Público então Authorization Code com PKCE.
 Não Público e Sem usuários Finais então um backend com Client Credentials Flow
 Se tiver usuário finais e não outra alternativa então Password Flow senão Authorization Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Local onde armazenaremos nosso token
+- Ideal para aplicações que compartilham um load balancer
+- Pode ser armazenado em Memória, Banco de Dados ou Redis
+- Configurado a partir do AuthorizationServerEndpointsConfigure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statefull vs Stateless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StateFull: com estado
+Stateless: sem estado
+- Para ser um REST precisa ser Stateless segundo Roy Fielding, cada comunicação deve ter todas as informações necessárias para entendê-la
+ e não precisar armazenar informações no servidor. (Referindo-se ao estado da Aplicação e não dos Recursos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application State vs Resource State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Estado da Aplicação e Estado dos Recursos
+- Estado dos Recursos são relacionados aos domínios do negócio (Cozinhas, Restaurantes e Etc)
+- Estado da aplicação é o mesmo que o estado da Sessão do Usuário, (Cliente é força a fazer várias requisições)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statefull Authentication vs Stateless Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Statefull Auth.:
+* Utiliza Opach Token, armazenando em memoria ou em servidor
+* É usado para acessar o Resource Server para acessar recursos protegidos
+- Statelee Auth.:
+* Ultiliza Transparent Token, tem informações do usuário contidas no token
+* Resolve as desvantagens do Statefull
+* Sessão do Usuário armazenada no lado do cliente
+* Servidor não sabe qauis tokens emitiu, apenas consegue validá-los
+* Token só revoga após a expiração do tempo definido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trasparent Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- É um token composto por Header, payload e assinatura
+- Possui o formato de uma string Encodada em base 64
+- Para decodificar o token podemos usar o site:
+http://jwt.io
+- O Header é um objeto json que possui informações como tipo do token e tipos de criptografia usada
+- O Payload possui informações (CLAIM) de autorização e autenticação com o Servidor
+- Assinatura: informações de criptografia
+- O tamanho da senha precisa ser 32 bit.
+- Para visualizar problemas com Token habilite o log level DEBUG:
+logging.level.org.springframework=DEBUG
+- NÃO PRECISA ARMAZENAR AS INFORMAÇÕES EM SERVIDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criptografia Simétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Usa uma chave compartilhada por que emite e receber uma mensagem (SHMA).
+- Authorization Server compartilha cave com Resource Server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criptografia Assimétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Utiliza um par de chaves, sendo uma privada e a outra pública (RS256)
+- Emissor possui a chave privada, Autorization deve possui uma chave e não compartilhá-la com ninguém
+- Chave privada é que assina o JWT.
+- Receptor usa chave pública, Resource Server só valida a assinatura, é aberta, se interceptar não tem problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyTool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Ferramenta que é utilizada para gerar um par de chaves
+- Já está contida no JDK
+- Cria e Gerencia arquivos JKS (Repositório para Armazenar um Conjunto de Chaves Criptograficas em Formato Binário)
+Criando Chaves:
+keytool -genkeypair -alias algafood -keyalg RSA -keypass 123456 -keystore algafood.jks -storepass 123456
+Keypass: senha do par de chaves
+Storepass: Senha do Arquivo JKS
+Keyalg: Algoritmo usado
+Listar Entradas:
+keytool -list -keystore algafood.jks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificado .pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrair certificado:
+keytool -export -rfc -alias algafood -keystore algafood.jks -file algafood-cert.pem
+.PEM: Privacy Enhanced Mail: 
+Formato de arquivo de certificado usado para transportar chaves e certificados criptográficos, homologado pela RFC1421
+Comando SSL para Extrair a Chave Pública:
+openssl x509 -pubkey -noout -in algafood-cert.pem &gt; algafood-pkey.pem
+Esse Arquivo PEM conterá a chave pública que será utilizada para validar a assinatura do JWT.
+Podemos validar no site: http://jwt.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndPoint Token Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Uma outra forma de solicitar a Chave Publica é através do Endpoint Token Key
+- Disponibilizamos esse endpoint no Authorization Server em:
+configure(AuthorizationServerSecurityConfigurer security)
+Adicionamos a permissão: 
+.tokenKeyAccess("permiteAll()")
+- Depois iremos fazer uma requisição GET no Endpoint /oauth/token_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chave Publica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os Resources Servers deve conter as Chaves Públicas
+Resource Server deve conter no application.properties
+spring.security.oauth2.resourceserver.jwt.public-key-location=classpath:keys/algafood-pkey.pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprovação Granular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Com as alterações a aprovação de acesso no login da nossa aplicação passa a ser mais encapsulada e generalizada
+- Caso queira um aprovação Granular de certos recursos utilize um TokenApprovalStore no Authorization Server Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserDetailsService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Serviço para exposição de Usuários do Banco com o propósito de usá-los para autenticação do Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claim JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Claim são os tributos do json JWT
+- Podemos adicionar novos cliams no nosso token
+- Para isso criamos uma classe JwtCustomClaimsTokenEnhance
+- Podemos trafegar informações do Usuário, Nome Completo, e-mail, id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permissoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para acrescentar as permissões dos usuários usaremos a classe AuthUser com a seguinte definição:
+Collection&lt;? extends GrantedAuthority&gt; autorities
+- E em JpaUserDetailService usaremos SimpleGrantedAuthority para definir as permissões.
+- É necessário extrair as permissões do token JWT usando jwtAuthenticationConverter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- É possível restringir o acesso nos próprios métodos dos controladores usando uma Anotação
+- Para que isso seja possível primeiro precisamos anotar o ResourceServerConfig com a anotação:
+@EnableGlobalMethodSecurity(prePostEnabled = true)
+- E nos métodos a anotação:
+@PreAuthorize("hasAuthority('EDITAR_COZINHAS')") ou @PreAuthorize("isAuthenticated()")
+- Para simplificar as anotações e evitar codigo duplicado podemos usar MetaAnotações, centralizando as Anotações e uma única anotação, exemplo:
+@CheckSecurity.Cozinhas.PodeEditar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - No AuthorizatoinServer Podemos definir um .scope(), que servirá para definir em qual escopo aquele token pode ser utilizado.
+- Com isso no Resource Server podemos criar condições para realizar essas limitações a nível de aplicação e não somente a nivel de permissão de usuário. (.withClient("foodanalytics"))
+- Para limitar a autorização podemos adicionar na MetaAnotação a seguinte condição:
+@PreAuthorize("hasAuthority('SCOPE_WRITE') and hasAuthority('EDITAR_COZINHAS')")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@PostAuthorize</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Realiza uma verificação após o método ser chamado
+- Deve ser usado para casos onde não gere efeitos colaterais
+- Podemos usar variaveis implicitas pois o método já foi executado e retornou alguma informação
+- Um exemplo de variavel implicita é o returnObject que é o retorno do methodo
+@PostAuthorize</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"hasAuthority('CONSULTAR_PEDIDOS') or @algaSecurity.getUsuarioId() == returnObject.cliente.id"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -2888,7 +3106,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2923,6 +3141,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3006,10 +3228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B217"/>
+  <dimension ref="A2:B235"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B214" activeCellId="0" sqref="B214"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B235" activeCellId="0" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4735,6 +4957,150 @@
       </c>
       <c r="B217" s="1" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="180.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -4766,10 +5132,10 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5"/>
@@ -4779,10 +5145,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,10 +5156,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="471">
   <si>
     <t xml:space="preserve">TERMOS</t>
   </si>
@@ -2917,6 +2917,31 @@
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Autenticação por Banco de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Talvez seja necessário a criação de uma tablea para armazenar as aplicações que farão a solicitação de Token
+- Para isso setamos a configuração do Authorization Server para buscar os dados de acesso
+- Em ClientDetailsServiceConfigurer configuraremos os clients como jdbc
+- Para debugar possíveis erros utilizar:
+logging.level.org.springframework=DEBUG
+- Também é necessário a criação da tabela oauth_client_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela OAUTH_CLIENT_DETAILS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_id: id da aplicação
+client_secret: password encoded
+scope: READ,WRITE
+authorized_grant_types: password ou authorizathion_code
+web_server_redirect_uri: Endereço de redirecionamento ou null
+access_token_validity: 60 * 60 * 6 (validade de 6 horas)
+refresh_token_validity: 60 * 24 * 60 * 60 (2 meses)
+autoaprove: se ‘true’ aprova automaticamente as permissões
+Authorities: define authorities padrão para o toke ‘EDITAR_COZINHAS,EDITAR_RESTAURANTES’ </t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -3228,10 +3253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B235"/>
+  <dimension ref="A2:B237"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B235" activeCellId="0" sqref="B235"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A233" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F235" activeCellId="0" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5101,6 +5126,22 @@
       </c>
       <c r="B235" s="1" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5133,7 +5174,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -5145,10 +5186,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,10 +5197,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="481">
   <si>
     <t xml:space="preserve">TERMOS</t>
   </si>
@@ -1449,7 +1449,8 @@
 - Swagger Editor: Edição de Arquivos Yml ou Json dentro do Navegador
 - Spring Fox: Escaneia o Código gera definições em json e documentação swagger ui
 - Swagger UI: Documentação em HTML gerado dinamicamente por definições em Json
-- Swagger Codegen: Gera código de cliente da API em diversas linguagens.</t>
+- Swagger Codegen: Gera código de cliente da API em diversas linguagens.
+Acesso: http://api.algafood.local:9000/swagger-ui/index.html</t>
   </si>
   <si>
     <t xml:space="preserve">Spring Fox</t>
@@ -2942,6 +2943,58 @@
 refresh_token_validity: 60 * 24 * 60 * 60 (2 meses)
 autoaprove: se ‘true’ aprova automaticamente as permissões
 Authorities: define authorities padrão para o toke ‘EDITAR_COZINHAS,EDITAR_RESTAURANTES’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecurityScheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para que seja opossível executar testes em nossa API através da documentação é necessário o securityScheme
+- Configurado no SpringFoxConfig ele tem como objetivo especificar o metodo de segurança usado na API
+- Ao configura-lo um botão de Authorize será exibido na documentação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customização de Tela de Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Podemos Customizar a tela de Login usada para autenticação da nossa API:
+http://api.algafood.local:9000/login
+- Precisamos adicionar a dependecia do Thymeleaf
+_x0001_&lt;dependency&gt;
+&lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+&lt;artifactId&gt;spring-boot-starter-thymeleaf&lt;/artifactId&gt;
+&lt;/dependency&gt;
+- ThymeLeaf é uma templete Engine do Java para criar páginas dinâmicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteção de Arquivos de Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para Securança da nossa aplicação tempos chaves de Acesso JKS e o Certificado PEM
+- Caso queira subir para produção essa chaves não devem ser expostas por motivos de Segurança
+- Para isso devemos substituir por JWKS (Json Web Key Set)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Json Web Key Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Conjunto de Chaves contendo as chaves públicas usadas para verificar os JWTs emitidos pelo Authorization Server e Assinados pelo SHA256
+- Criaremos um endpoint que irá gerar um conjunto de chaves para acesso públicas para usarmos
+- Para isso no AuthorizationServerConfig criaremos um método que para resgatar a chave pública JWKSet e expomos com @Bean
+- O Endpoint precisará tem como URI o valor “.well-known/jwks.json”
+- Para expor o Endpoint criaremos um controlador JwKSetController expondo a URI citada e também acrescentar no application properties:
+spring.security.oauth2.resourceserver.jwt.jwk-set-uri=http://localhost:9000/.well-known/jwks.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externalizar o JKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Implementar um Protocolo para carregar o Resource em Base 64 no application.properties
+- comando para retornar o jks em base64
+cat algafood.jks | base64 (No Linux) ou por algum site que converta em base64
+- Ao converter o arquivo para base¨4 e salvar no aplication.properties precisamos de uma classe que resolva essa codificação
+- Criaremos a classe Base64ProtocolResolver para ler o arquivo.
+- Precisamos instanciar um listener para subir com o contexto do Spring implementando tambem ApplicationListener
+- E por fim adicionamos antes de iniciar a aplicação no ApplicationSpring.</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -3131,7 +3184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3170,6 +3223,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3253,10 +3310,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B237"/>
+  <dimension ref="A2:B244"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A233" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F235" activeCellId="0" sqref="F235"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B242" activeCellId="0" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4239,7 +4296,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>241</v>
       </c>
@@ -4351,7 +4408,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>269</v>
       </c>
@@ -5143,6 +5200,49 @@
       <c r="B237" s="1" t="s">
         <v>465</v>
       </c>
+    </row>
+    <row r="238" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5173,10 +5273,10 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5"/>
@@ -5186,10 +5286,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,10 +5297,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="505">
   <si>
     <t xml:space="preserve">TERMOS</t>
   </si>
@@ -2997,6 +2997,269 @@
 - E por fim adicionamos antes de iniciar a aplicação no ApplicationSpring.</t>
   </si>
   <si>
+    <t xml:space="preserve">MySql Docker</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Parar o Serviço MySql no Windows
+- Rodamos o comando:
+docker container run -d -p 3306:3306  -e MYSQL_ALLOW_EMPTY_PASSWORD=yes --name algafood-mysql mysql:8.0
+Ou 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">docker container run -d -p 3306:3306  -e MYSQL_ROOT_PASSWORD=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12345678 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">--name algafood-mysql mysql:8.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Com isso podemos abrir o Workbeanch que já está apontado para a porta 3306
+- Conteiner com Rede
+docker container run -d -p 3306:3306  -e MYSQL_ROOT_PASSWORD=12345678 --network algafood-network --name algafood-mysql mysql:8.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Conteinizando a Aplicação</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Fazer o Package do projeto
+mvn clean package
+- Criar Dockerfile na raiz:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openjdk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:11-jre-slim  (imagem base)
+WORKDIR /app (diretorio do container)
+COPY target/*.jar /app/api.jar (copiando nosso jar para o container)
+EXPOSE 9000 (expondo a aplicação na porta 9000)
+CMD ["java", "-jar", "api.jar] (comando com argumentos para rodar nosso jar)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Criando a imagem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Criando a imagem:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">docker image build -t algafood-api .
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Rodando o container:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">container run --rm -p 9000:9000 algafood-api</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Criando uma Rede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para comunicar com outros container precisamos criar uma rede entre eles:
+docker network create --driver bridge algafood-network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removendo Container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker container rm algafood-mysql –force --volumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodando a aplicação 
+Com parametros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker container run --rm -p 9000:9000 -e DB_HOST=host.docker.internal --network algafood-network algafood-api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagem Docker com Maven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Através de um plugin é possível geram uma imagem docker toda vez que fizermos o build
+- Criar um profile no pom.xml e passar como argumento no maven:
+mvn package -Pdocker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait-for-it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Script SH que faz com que um container só conecte ao banco após o banco ser contruido
+- Precisa ser incluido dentro da image
+- Também é necessário incluir no docker-compose
+  command: ["/wait-for-it.sh", "algafood-mysql:3306", "-t", "30", "--", "java", "-jar", "api.jar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalando Aplicações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para escalarmos em duas aplicações devemos rodar o seguinte comando:
+docker-compose up –scale algafood-api=2
+- OBS: Atentar-se a aplicação que estiver subindo e não definir porta
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Por padrão o docker Engine implementa o Poor Man’s Load Balance dentro da Rede
+-  Mas precisa ser configurado de fora para externalizar o balance
+- Criaremos então um Proxy Reverso NGINX
+container com servidor HTTP que encaminhará as requisições para o servidor Host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Com o Load Balancer temos um problema de sessão do usuário que pode estar salva em um servidor ou no outro
+- Para solucionar esse problema precisaremos salvar a sessão do usuário no Redis
+- Inicaremos um container Redis e guardaremos as informações de sessão do usuário nele
+- Assim que subirmos os Redis podemos verificar os dados contidos nele:
+redis-cli -h algafood-redis -p 6379
+- Para analisarmos as chaves podemos usar o comando:
+keys * 
+- Para setar uma chave:
+set nome jose
+- Para recuperar o valor
+get nome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Para deletar o valor
+del nome</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartilhar Sessões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Precisamos definir no AtuthorizationServerConfig o authorizationCodeServices:
+		endpoints
+.authenticationManager(authenticationManager)
+.userDetailsService(userDetailsService)
+.authorizationCodeServices(new JdbcAuthorizationCodeServices(this.dataSource))
+- Também é necessário a criação da tabela oauth_code
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERRO</t>
   </si>
   <si>
@@ -3019,7 +3282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3141,6 +3404,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3184,7 +3460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3225,8 +3501,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3310,10 +3594,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B244"/>
+  <dimension ref="A2:B254"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B242" activeCellId="0" sqref="B242"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A244" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B254" activeCellId="0" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5241,8 +5525,101 @@
         <v>475</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="10"/>
+    <row r="243" customFormat="false" ht="127.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="142.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="236.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5273,10 +5650,10 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5"/>
@@ -5286,10 +5663,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,10 +5674,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jppereiraa\MyWorkspace\algafood-api-master\src\main\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9E6450-278C-4D05-A2AE-11BB015439A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC369F57-4147-459C-BFBD-B86D15A68071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Termos" sheetId="1" r:id="rId1"/>
     <sheet name="Erros" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="587">
   <si>
     <t>Especialista Spring Rest</t>
   </si>
@@ -250,9 +261,6 @@
   </si>
   <si>
     <t>Model (Domain)</t>
-  </si>
-  <si>
-    <t>Temos as Entidades mapeadas igualmente a Tabela, com os campos representados e validados</t>
   </si>
   <si>
     <t>Repository</t>
@@ -287,20 +295,6 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Recebe Anotação @Service
-Onde se concentram-se as regras de negócio 
-Instancia-se o Repository com @Autowired para fazer comunicações com o Banco
-Exemplo de Regra de Negócio, quando salvar, não podemos ter um cliente com mesmo e-mail.
-Deve existir mesmo se classe api não existir
-Service que deve tratar as exceptions de Controller</t>
-  </si>
-  <si>
-    <t>Camada de API</t>
-  </si>
-  <si>
-    <t>Controller, Model</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
@@ -311,13 +305,6 @@
 Controller deve capturar as exceptions não tratadas em Service e Repassar o código do HTTP Status correto.</t>
   </si>
   <si>
-    <t>Model (API)</t>
-  </si>
-  <si>
-    <t>Temos as Entidades em forma de modelo DTO
-Só com os campos necessários para o retorno da API.</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -368,24 +355,12 @@
 Podemos resolver criando um Representation Model de Input</t>
   </si>
   <si>
-    <t>Domain Model</t>
-  </si>
-  <si>
-    <t>Retorna Exatamente o que está na Entidade, ou seja a tabela</t>
-  </si>
-  <si>
     <t>Representation Model</t>
   </si>
   <si>
     <t>Retorna apenas aquilo que você quer que retorne
 Campos selecionados, pré definidos
 Fácil Manutenção para entrada e saída de dados sem interferir no banco</t>
-  </si>
-  <si>
-    <t>Search Maven</t>
-  </si>
-  <si>
-    <t>search.maven.org é u site que busca por dependências do Maven</t>
   </si>
   <si>
     <t>Core</t>
@@ -584,9 +559,6 @@
     <t>ObjectMapper</t>
   </si>
   <si>
-    <t>- Usado em conjunto com Reflections para setar os campos vindos do patch mantendo sua tipagem</t>
-  </si>
-  <si>
     <t>Nivel de Maturidade de API</t>
   </si>
   <si>
@@ -608,25 +580,12 @@
     <t>QueryMethods JPA</t>
   </si>
   <si>
-    <t>-O JPA Repository possui diversos metodos préconfigurados
-- Basta especificarmos na sua interface findById, findByNomeContaining, findByDayBetween
-- Também podemos usar outros prefixo como findFirstBy que trará apenas o primeiro resultado</t>
-  </si>
-  <si>
     <t>Implementação Customizada</t>
   </si>
   <si>
-    <t>- Anote com @Repository
-- Deixe um Sufixo ‘Impl'
-- Dessa Forma você pode trabalhar seu código Java condicionando as consultas</t>
-  </si>
-  <si>
     <t>CriteriaQuery</t>
   </si>
   <si>
-    <t>- Construtor de Clausulas</t>
-  </si>
-  <si>
     <t>@AllArgsConstructor</t>
   </si>
   <si>
@@ -636,22 +595,7 @@
     <t>Import Static</t>
   </si>
   <si>
-    <t>- Podemos importar um metodo direto sem especificar a classe usando import static
-import static com.algaworks.algafood.infrastructure.repository.spec.RestaurantesSpec.comFreteGratis;
-- usamos então apenas comFreteGratis()</t>
-  </si>
-  <si>
-    <t>@Autowired @Lazy</t>
-  </si>
-  <si>
-    <t>- Quando temos uma dependência circular se anotarmos a classe injetada com @Lazy evitaremos o loop
-- A Classe só será injetada quando estiver em uso</t>
-  </si>
-  <si>
     <t>CustomJpaRepository</t>
-  </si>
-  <si>
-    <t>- Podemos customizar nosso Repository usando Generics</t>
   </si>
   <si>
     <t>@ManyToOne</t>
@@ -735,14 +679,6 @@
   </si>
   <si>
     <t>Problema N + 1</t>
-  </si>
-  <si>
-    <t>'- Onde para cada registro é gerado uma consulta extra
-- É possível resolver com carregamento LAZY ou customizando as queries
-	@Query("from Restaurante r join r.cozinha join fetch r.formasPagamento") 	
-List&lt;Restaurante&gt; findAll();
-- Usamos fetch quanto temos um relacionamento ManyToMany, mas não precismos usar quando temos um ManyToOne
-- Aula 12.20 – Otimização de Queries</t>
   </si>
   <si>
     <t>Lazy Loading</t>
@@ -1166,13 +1102,6 @@
 public AmazonS3 amazonS3() {..}</t>
   </si>
   <si>
-    <t>Selecionando o Tipo de @Service</t>
-  </si>
-  <si>
-    <t>- Podemos criar uma classe de configuração e definirmos um @Bean que retorna a implementação de um dos @Service
-- Satisfazendo uma condição do properties podemos definir quem devemos chamar no momento da execução.</t>
-  </si>
-  <si>
     <t>Serviços de E-mail SMTP</t>
   </si>
   <si>
@@ -2486,6 +2415,181 @@
   </si>
   <si>
     <t>https://github.com/algaworks/curso-especialista-spring-rest.git</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>Recebe Anotação @Service
+Onde se concentram-se as regras de negócio 
+Instancia-se o Repository com @Autowired para fazer comunicações com o Banco
+Exemplo de Regra de Negócio, quando salvar, não podemos ter um cliente com mesmo e-mail.
+Deve existir mesmo se classe api não existir
+Service que deve tratar as exceptions de Controller
+- Podemos criar uma classe de configuração e definirmos um @Bean que retorna a implementação de um dos @Service
+- Satisfazendo uma condição do properties podemos definir quem devemos chamar no momento da execução.</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>Temos as Entidades mapeadas igualmente a Tabela, com os campos representados e validados
+Retorna Exatamente o que está na Entidade, ou seja a tabela
+Domain(API)
+- Temos as Entidades em forma de modelo DTO
+- Só com os campos necessários para o retorno da API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Onde para cada registro é gerado uma consulta extra
+- É possível resolver com carregamento LAZY ou customizando as queries
+	@Query("from Restaurante r join r.cozinha join fetch r.formasPagamento") 	
+List&lt;Restaurante&gt; findAll();B76
+- Usamos fetch quanto temos um relacionamento ManyToMany, mas não precismos usar quando temos um ManyToOne
+- Aula 12.20 – Otimização de Queries</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>Usado em conjunto com Reflections para setar os campos vindos do patch mantendo sua tipagem
+- Api do Jackson responsável por convertet Json em Objetos Java faazendo Serializaçao e desserializaçao
+Map&lt;String, Object&gt; dadosOrigem,
+ObjectMapper mapper = new ObjectMapper();
+mapper.convertValue(dadosOrigem, Restaurante.class),
+- ConvertValue Obtém alem do valor, a tipagem do taributo também</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>3.14
+5.1</t>
+  </si>
+  <si>
+    <t>3.4
+5.2</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>O JPA Repository possui diversos metodos préconfigurados
+- Basta especificarmos na sua interface findById, findByNomeContaining, findByDayBetween(dataInicial, dataFinal)
+- Também podemos usar outros prefixo como findFirstBy que trará apenas o primeiro resultado
+- findTop2ByNomeContaing tras dois primeiros
+- existsByNome retorna um boolean
+- countCozinhaById retorna quantidade</t>
+  </si>
+  <si>
+    <t>@Query</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>Se nao desejamos expor muito nossas querys com QueryMethods podemos customizar-los
+@Query("from Restaurante where nome like %:nome% and cozinha.id = :id")
+List&lt;Restaurante&gt; consultarPorNome(String nome, @Param("id") Long cozinhaId);</t>
+  </si>
+  <si>
+    <t>JPQL em XML</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>Deixa a interface mais limpa e concetra todas as queries em um XML
+- Dentro de src/main/resources/META-INF crie um arquivo orm.xml para mapeamento de entidades
+- Exemplo:
+	&lt;named-query name="Restaurante.consultarPorNome"&gt;
+		&lt;query&gt;
+		from Restaurante
+		where nome like concat('%', :nome, '%')
+		and cozinha.id = :id
+		&lt;/query&gt;
+	&lt;/named-query&gt;
+- E na interface podemos dixar apenas a assinatura do metodo consultarPorNome</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>- Anote com @Repository
+- Deixe um Sufixo ‘Impl'
+- Dessa Forma você pode trabalhar seu código Java condicionando as consultas JPQL
+- Fazer com que o Repository extenda a interface do JPARepository e RestaurantaRepositoryQueries com as novas assinaturas
+- Criar classe com implementacao de RestaurantaRepositoryQueries com sufixo RestauranteRepositoryImpl</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>Construtor de Clausulas SQL
+- Podemos criar uma TypedQuery e especificar os parametros da query em jpql
+- percorre esses parametros e constroi a query conforme as condicoes especificadas</t>
+  </si>
+  <si>
+    <t>CriteriaAPI</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>Uma forma de obter consultas complexas de SQL
+- Sua composicao nao e simples quanto JPA, quando possivel prefira usar JPA
+- Requer um pouco de treino para usar e depois se torna mais pratico</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>Podemos importar um metodo direto sem especificar a classe usando import static
+import static com.algaworks.algafood.infrastructure.repository.spec.RestaurantesSpec.comFreteGratis;</t>
+  </si>
+  <si>
+    <t>Com base no padrao DDD as especification sao classes que representam filtros de pesquisa para SQL
+- Faz a criacao de queries de forma dinamica
+- implementa Spacifications&lt;Restaurante&gt;
+- exemplo: "findComFreteGratis"
+- Interface debe extender JpaSpecificationExecutor&lt;Restaurante&gt;
+- Podemos criar um fabrica com varios metodos estaticos de Specifications</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>Quando temos uma dependência circular se anotarmos a classe injetada com @Lazy evitaremos o loop
+- A Classe só será injetada quando estiver em uso
+	@Autowired @Lazy
+	private RestauranteRepository restauranteRepository;</t>
+  </si>
+  <si>
+    <t>@Autowired @Lazy
+Circular Reference
+(Dependencia Circular)</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>5.16
+5.17</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>- Podemos customizar nosso Repository usando Generics
+- Com isso criaremos uma Repositório para usarmos para entidades que usamos os mesmos metodos</t>
   </si>
 </sst>
 </file>
@@ -2569,11 +2673,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2598,6 +2699,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2796,2538 +2903,2569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="139.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="139.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="149.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="113.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="36.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="93.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="99.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="149.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="103.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="89.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B131" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="113.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="36.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="103.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="89.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109" s="4"/>
-    </row>
-    <row r="110" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C120" s="4"/>
-    </row>
-    <row r="121" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C122" s="4"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" s="4"/>
-    </row>
-    <row r="124" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" s="4"/>
-    </row>
-    <row r="125" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C126" s="4"/>
-    </row>
-    <row r="127" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C127" s="4"/>
-    </row>
-    <row r="128" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+    </row>
+    <row r="138" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="4"/>
-    </row>
-    <row r="129" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B132" s="5" t="s">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="B148" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C139" s="4"/>
-    </row>
-    <row r="140" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C140" s="4"/>
-    </row>
-    <row r="141" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C142" s="4"/>
-    </row>
-    <row r="143" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C143" s="4"/>
-    </row>
-    <row r="144" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C144" s="4"/>
-    </row>
-    <row r="145" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="B156" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C148" s="4"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="B158" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C149" s="4"/>
-    </row>
-    <row r="150" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C150" s="4"/>
-    </row>
-    <row r="151" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="B160" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C151" s="4"/>
-    </row>
-    <row r="152" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C152" s="4"/>
-    </row>
-    <row r="153" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="B162" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C153" s="4"/>
-    </row>
-    <row r="154" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+      <c r="B163" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C154" s="4"/>
-    </row>
-    <row r="155" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B165" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C155" s="4"/>
-    </row>
-    <row r="156" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B166" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C156" s="4"/>
-    </row>
-    <row r="157" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B167" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C157" s="4"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B168" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C158" s="4"/>
-    </row>
-    <row r="159" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B169" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C159" s="4"/>
-    </row>
-    <row r="160" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B170" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C160" s="4"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B171" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C161" s="4"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B172" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C162" s="4"/>
-    </row>
-    <row r="163" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B173" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C163" s="4"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B174" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C164" s="4"/>
-    </row>
-    <row r="165" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5" t="s">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C165" s="4"/>
-    </row>
-    <row r="166" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="B175" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C166" s="4"/>
-    </row>
-    <row r="167" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+      <c r="B176" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C167" s="4"/>
-    </row>
-    <row r="168" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+      <c r="B177" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C168" s="4"/>
-    </row>
-    <row r="169" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+      <c r="B178" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C169" s="4"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+      <c r="B179" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C170" s="4"/>
-    </row>
-    <row r="171" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C171" s="4"/>
-    </row>
-    <row r="172" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C172" s="4"/>
-    </row>
-    <row r="173" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+      <c r="B182" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C173" s="4"/>
-    </row>
-    <row r="174" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C174" s="4"/>
-    </row>
-    <row r="175" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+      <c r="B184" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C175" s="4"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+      <c r="B185" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C176" s="4"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+      <c r="B186" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C177" s="4"/>
-    </row>
-    <row r="178" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C178" s="4"/>
-    </row>
-    <row r="179" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+      <c r="B188" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C179" s="4"/>
-    </row>
-    <row r="180" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C180" s="4"/>
-    </row>
-    <row r="181" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+      <c r="B190" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C181" s="4"/>
-    </row>
-    <row r="182" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C182" s="4"/>
-    </row>
-    <row r="183" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+      <c r="B192" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="4"/>
-    </row>
-    <row r="184" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C184" s="4"/>
-    </row>
-    <row r="185" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+      <c r="B194" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C185" s="4"/>
-    </row>
-    <row r="186" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C186" s="4"/>
-    </row>
-    <row r="187" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="B196" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C187" s="4"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+      <c r="B197" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C188" s="4"/>
-    </row>
-    <row r="189" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+      <c r="B198" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C189" s="4"/>
-    </row>
-    <row r="190" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+      <c r="B199" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C190" s="4"/>
-    </row>
-    <row r="191" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+      <c r="B200" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C191" s="4"/>
-    </row>
-    <row r="192" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+      <c r="B201" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C192" s="4"/>
-    </row>
-    <row r="193" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+      <c r="B202" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C193" s="4"/>
-    </row>
-    <row r="194" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+      <c r="B203" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C194" s="4"/>
-    </row>
-    <row r="195" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+      <c r="B204" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C195" s="4"/>
-    </row>
-    <row r="196" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+      <c r="B205" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C196" s="4"/>
-    </row>
-    <row r="197" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+      <c r="B206" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C197" s="4"/>
-    </row>
-    <row r="198" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C198" s="4"/>
-    </row>
-    <row r="199" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+      <c r="B208" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C199" s="4"/>
-    </row>
-    <row r="200" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
+      <c r="B209" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C200" s="4"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
+      <c r="B210" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C201" s="4"/>
-    </row>
-    <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
+      <c r="B212" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C202" s="4"/>
-    </row>
-    <row r="203" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
+      <c r="B213" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C203" s="4"/>
-    </row>
-    <row r="204" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
+      <c r="B214" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C204" s="4"/>
-    </row>
-    <row r="205" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+      <c r="B215" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C205" s="4"/>
-    </row>
-    <row r="206" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+      <c r="B216" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C206" s="4"/>
-    </row>
-    <row r="207" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+      <c r="B217" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C207" s="4"/>
-    </row>
-    <row r="208" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+      <c r="B218" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C208" s="4"/>
-    </row>
-    <row r="209" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+      <c r="B219" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C209" s="4"/>
-    </row>
-    <row r="210" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+      <c r="B220" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C210" s="4"/>
-    </row>
-    <row r="211" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
+      <c r="B221" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C211" s="4"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="4"/>
-    </row>
-    <row r="213" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+      <c r="B222" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C213" s="4"/>
-    </row>
-    <row r="214" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
+      <c r="B223" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C214" s="4"/>
-    </row>
-    <row r="215" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+      <c r="B224" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C215" s="4"/>
-    </row>
-    <row r="216" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
+      <c r="B225" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C216" s="4"/>
-    </row>
-    <row r="217" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
+      <c r="B226" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C217" s="4"/>
-    </row>
-    <row r="218" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+      <c r="B227" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C218" s="4"/>
-    </row>
-    <row r="219" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+      <c r="B228" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C219" s="4"/>
-    </row>
-    <row r="220" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+      <c r="B229" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3" ht="275" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C220" s="4"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+      <c r="B230" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C221" s="4"/>
-    </row>
-    <row r="222" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
+      <c r="B231" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C222" s="4"/>
-    </row>
-    <row r="223" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+      <c r="B232" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C223" s="4"/>
-    </row>
-    <row r="224" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+      <c r="B233" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C224" s="4"/>
-    </row>
-    <row r="225" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="B234" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C225" s="4"/>
-    </row>
-    <row r="226" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+      <c r="B235" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C226" s="4"/>
-    </row>
-    <row r="227" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+      <c r="B236" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C227" s="4"/>
-    </row>
-    <row r="228" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
+      <c r="B237" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C228" s="4"/>
-    </row>
-    <row r="229" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+      <c r="B238" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C229" s="4"/>
-    </row>
-    <row r="230" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+      <c r="B239" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C230" s="4"/>
-    </row>
-    <row r="231" spans="1:3" ht="275" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
+      <c r="B240" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C231" s="4"/>
-    </row>
-    <row r="232" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+      <c r="B241" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C232" s="4"/>
-    </row>
-    <row r="233" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+      <c r="B242" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C233" s="4"/>
-    </row>
-    <row r="234" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A234" s="5" t="s">
+      <c r="B243" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C234" s="4"/>
-    </row>
-    <row r="235" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
+      <c r="B244" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C235" s="4"/>
-    </row>
-    <row r="236" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
+      <c r="B245" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C236" s="4"/>
-    </row>
-    <row r="237" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
+      <c r="B246" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C237" s="4"/>
-    </row>
-    <row r="238" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
+      <c r="B247" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C238" s="4"/>
-    </row>
-    <row r="239" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
+      <c r="B248" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C239" s="4"/>
-    </row>
-    <row r="240" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A240" s="5" t="s">
+      <c r="B249" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C240" s="4"/>
-    </row>
-    <row r="241" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
+      <c r="B250" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C241" s="4"/>
-    </row>
-    <row r="242" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
+      <c r="B251" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C242" s="4"/>
-    </row>
-    <row r="243" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
+      <c r="B252" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C243" s="4"/>
-    </row>
-    <row r="244" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A244" s="5" t="s">
+      <c r="B253" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C244" s="4"/>
-    </row>
-    <row r="245" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
+      <c r="B254" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C245" s="4"/>
-    </row>
-    <row r="246" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A246" s="5" t="s">
+      <c r="B255" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C246" s="4"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="5" t="s">
+      <c r="B256" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C247" s="4"/>
-    </row>
-    <row r="248" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A248" s="5" t="s">
+      <c r="B257" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C248" s="4"/>
-    </row>
-    <row r="249" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
+      <c r="B258" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C249" s="4"/>
-    </row>
-    <row r="250" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="5" t="s">
+      <c r="B259" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C250" s="4"/>
-    </row>
-    <row r="251" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
+      <c r="B260" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C251" s="4"/>
-    </row>
-    <row r="252" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
+      <c r="B261" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C252" s="4"/>
-    </row>
-    <row r="253" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
+      <c r="B262" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C253" s="4"/>
-    </row>
-    <row r="254" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+      <c r="B263" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C254" s="4"/>
-    </row>
-    <row r="255" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
+      <c r="B264" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C255" s="4"/>
-    </row>
-    <row r="256" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="5" t="s">
+      <c r="B265" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C256" s="4"/>
-    </row>
-    <row r="257" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="5" t="s">
+      <c r="B266" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C257" s="4"/>
-    </row>
-    <row r="258" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A258" s="5" t="s">
+      <c r="B267" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C258" s="4"/>
-    </row>
-    <row r="259" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A259" s="5" t="s">
+      <c r="B268" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="1:3" ht="236.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C259" s="4"/>
-    </row>
-    <row r="260" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A260" s="5" t="s">
+      <c r="B269" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C260" s="4"/>
-    </row>
-    <row r="261" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="5" t="s">
+      <c r="B270" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C261" s="4"/>
-    </row>
-    <row r="262" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="C262" s="4"/>
-    </row>
-    <row r="263" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A263" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C263" s="4"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C264" s="4"/>
-    </row>
-    <row r="265" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="C265" s="4"/>
-    </row>
-    <row r="266" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C266" s="4"/>
-    </row>
-    <row r="267" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A267" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C267" s="4"/>
-    </row>
-    <row r="268" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C268" s="4"/>
-    </row>
-    <row r="269" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A269" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="C269" s="4"/>
-    </row>
-    <row r="270" spans="1:3" ht="236.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C270" s="4"/>
-    </row>
-    <row r="271" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="C271" s="4"/>
+      <c r="C270" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5355,230 +5493,230 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="34.08984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>400</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>565</v>
+      <c r="B3" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>404</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>567</v>
+      <c r="B4" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jppereiraa\MyWorkspace\algafood-api-master\src\main\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC369F57-4147-459C-BFBD-B86D15A68071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC9A1C3-B89B-484A-9BEE-B54DD1275D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="610">
   <si>
     <t>Especialista Spring Rest</t>
   </si>
@@ -298,13 +298,6 @@
     <t>Controller</t>
   </si>
   <si>
-    <t>Não deve ter regras de negócio no controlador 
-Para isso use uma classe para de Service
-Para consultas não tem problema usar o repository
-Deve ter anotação de ResponseEntity
-Controller deve capturar as exceptions não tratadas em Service e Repassar o código do HTTP Status correto.</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -344,15 +337,6 @@
   <si>
     <t>Biblioteca Responsável pela Serialização e Desserialização de Classes em Java para Json
 Podemos usar a anotação @JsonInclude(Include.NON_NULL) para ocultar campos nulos na serialização.</t>
-  </si>
-  <si>
-    <t>ValidationGroup</t>
-  </si>
-  <si>
-    <t>Usa a Anotação @ConvertGroup
-Usado para validar uma instancia quando existe dependências de cascatiamento
-Quando a anotação e usada, será validada apenas o que estiver com aquela anotação.
-Podemos resolver criando um Representation Model de Input</t>
   </si>
   <si>
     <t>Representation Model</t>
@@ -651,18 +635,6 @@
 - É incorporado à Restaurante e Pedidos</t>
   </si>
   <si>
-    <t>@CreationTimestamp</t>
-  </si>
-  <si>
-    <t>Define data de criação na coluna no momento que a entidade for criada pela primeira vez</t>
-  </si>
-  <si>
-    <t>@UpdateTimestamp</t>
-  </si>
-  <si>
-    <t>Define data de criação na coluna no momento que a entidade for atualizada</t>
-  </si>
-  <si>
     <t>utc_timestamp</t>
   </si>
   <si>
@@ -672,34 +644,16 @@
     <t>Eager Loading</t>
   </si>
   <si>
-    <t>- Toda Anotação de Relacionamento que termina com ToOne utiliza a estratégia Eager Loading
--  Na tradução significa “Carregamento Ansioso”
-- Associado à Problema N + 1
-- Não representa que seja um “SELECT” só, mas sim que as entidades carregarão junto.</t>
-  </si>
-  <si>
     <t>Problema N + 1</t>
   </si>
   <si>
     <t>Lazy Loading</t>
   </si>
   <si>
-    <t>Para não disparar vários carregamentos, utilize a propriedade Lazy 
-@ManyToOne(fetch = FetchType.LAZY)</t>
-  </si>
-  <si>
     <t>Pool de Conexões</t>
   </si>
   <si>
-    <t>Hikari CP (Conection Pool) vem no pacote spring data jpa
-Por padrão mantém 10 conexões</t>
-  </si>
-  <si>
     <t>ResponseStatusException</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Por ser mais simples, permite a criacao de uma classe generica que mande vários tipos de HttpStatus:
-throw new ResponseStatusException(HttpStatus.NOT_FOUND, e.getMessage());</t>
   </si>
   <si>
     <t>DomainException 
@@ -782,14 +736,6 @@
   </si>
   <si>
     <t>ValidationGroups</t>
-  </si>
-  <si>
-    <t>- Para cadastrar um Restaurante precisa passar o id da cozinha, para fazer a validação em cascata precisa do @Valid
-- Mas para cadastrar uma cozinha não podemos passar o id, então temos um problema de consistência
-- Para resolvermos isso temos que criar um ValidationGroup
-- Podemos usar @Validated(Groups.CadastroRestaurante.class)no controller para validar apenas as classes anotada com aquela constraint
-- Se não especificar o grupo, o Default.class será utilizado
-- ConvertGroup evita que precisemos especificar cada validação em classes agregadas.</t>
   </si>
   <si>
     <t>Charset</t>
@@ -848,12 +794,6 @@
 @JsonProperty
 @JsonIgoneProperties
 @JsonRootName</t>
-  </si>
-  <si>
-    <t>- Se colocado dentro da Classe que faz a seralização ou desserializaçõa de outra entidade, então só ignorará nessa dependencia.  @JsonIgnoreProperties(value = "nome", allowGetters = true)
-- @JsonIgnore ignora o atributo na serializacao
-- @JsonProperty faz a alteração do nome do atributo
-- @JsonRootName faz alteração do root da classe</t>
   </si>
   <si>
     <t>4.15</t>
@@ -934,10 +874,6 @@
     <t>Controller Many To Many</t>
   </si>
   <si>
-    <t>- Quando tivermos um relacionamento Many to Many se possivel criar um novo controller
-- UsuarioController(/usuarios), GrupoController(/grupos), UsuárioGrupoController(/usuarios/userId/grupos)</t>
-  </si>
-  <si>
     <t>@Enumerated(EnumType.STRING)</t>
   </si>
   <si>
@@ -2420,16 +2356,6 @@
     <t>4.25</t>
   </si>
   <si>
-    <t>Recebe Anotação @Service
-Onde se concentram-se as regras de negócio 
-Instancia-se o Repository com @Autowired para fazer comunicações com o Banco
-Exemplo de Regra de Negócio, quando salvar, não podemos ter um cliente com mesmo e-mail.
-Deve existir mesmo se classe api não existir
-Service que deve tratar as exceptions de Controller
-- Podemos criar uma classe de configuração e definirmos um @Bean que retorna a implementação de um dos @Service
-- Satisfazendo uma condição do properties podemos definir quem devemos chamar no momento da execução.</t>
-  </si>
-  <si>
     <t>4.28</t>
   </si>
   <si>
@@ -2441,14 +2367,6 @@
 Domain(API)
 - Temos as Entidades em forma de modelo DTO
 - Só com os campos necessários para o retorno da API.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Onde para cada registro é gerado uma consulta extra
-- É possível resolver com carregamento LAZY ou customizando as queries
-	@Query("from Restaurante r join r.cozinha join fetch r.formasPagamento") 	
-List&lt;Restaurante&gt; findAll();B76
-- Usamos fetch quanto temos um relacionamento ManyToMany, mas não precismos usar quando temos um ManyToOne
-- Aula 12.20 – Otimização de Queries</t>
   </si>
   <si>
     <t>4.34</t>
@@ -2590,6 +2508,200 @@
   <si>
     <t>- Podemos customizar nosso Repository usando Generics
 - Com isso criaremos uma Repositório para usarmos para entidades que usamos os mesmos metodos</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>@ManyToMany</t>
+  </si>
+  <si>
+    <t>Respresenta o relacionamento de Muitos para muitos
+@JoinTable(name = "restaurante_forma_pagamento",
+			joinColumns = @JoinColumn(name = "restaurante_id"),
+			inverseJoinColumns = @JoinColumn(name = "forma_pagamento_id"))
+private Set&lt;FormaPagamento&gt; formasPagamento = new HashSet&lt;&gt;();
+JoinTable refere-se ao nome da tabela intermediaria do relacionamento
+joinColumn e inverseJoinColum referem-se as colunas das tabelas que se relacionarao</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>@CreationTimestamp
+Data de Cadastro</t>
+  </si>
+  <si>
+    <t>@UpdateTimestamp
+Data de Atualizacao</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Define data de criação na coluna no momento que a entidade for criada pela primeira vez
+- É uma anotacao do pacote do Hibernate</t>
+  </si>
+  <si>
+    <t>Define data de atualizacao na coluna no momento que a entidade for atualizada
+- É uma anotacao do pacote do Hibernate</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Onde para cada registro é gerado uma consulta extra
+- É possível resolver com carregamento LAZY ou customizando as queries
+	@Query("from Restaurante r join r.cozinha join fetch r.formasPagamento") 	
+List&lt;Restaurante&gt; findAll();
+- Usamos fetch quanto temos um relacionamento ManyToMany, mas não precismos usar quando temos um ManyToOne
+- Aula 12.20 – Otimização de Queries</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>Lazy é preguiçoso e carrega só o que pedirem para ele
+Toda Anotaçao que termina com ToMany utiliza a estratégia Lazy Loading
+Só ira carregar os dados da tabela quando for realmente necessário, quando nao é usado, os dados nao sao carregados</t>
+  </si>
+  <si>
+    <t>Eager é ansioso carrega tudo antecipadamente
+Toda Anotação de Relacionamento que termina com ToOne utiliza a estratégia Eager Loading
+-  Na tradução significa “Carregamento Ansioso”
+- Associado à Problema N + 1
+- Não representa que seja um “SELECT” só, mas sim que as entidades carregarão junto.
+- Faz o carregamento de todas entidades que estao associadas, o que implica em varios selects
+- Trabalha com cache para tentar otimizar as queries
+Para não disparar vários carregamentos, utilize a propriedade Lazy 
+@ManyToOne(fetch = FetchType.LAZY)</t>
+  </si>
+  <si>
+    <t>- Se colocado dentro da Classe que faz a seralização ou desserializaçõa de outra entidade, então só ignorará nessa dependencia.  @JsonIgnoreProperties(value = "nome", allowGetters = true)
+- @JsonIgnore ignora o atributo na serializacao
+- @JsonProperty faz a alteração do nome do atributo
+- @JsonRootName faz alteração do root da classe
+- @JsonIgnoreProperties ignora atributos de uma classa ao serializar</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Hikari CP (Conection Pool) vem no pacote spring data jpa
+Por padrão mantém 10 conexões prontas com o banco de dados para serem reutilizadas
+Com isso não há um tempo gasto para levantar e derrubar uma conexão.
+- O padrão de conexões do Hikari são 10 conexões prontas.
+- Tem um padrão mínimo e máximo que pode ser configurado.
+- Quando não usado entra em estado "idle" (ociosa).</t>
+  </si>
+  <si>
+    <t>Hikari</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Configuraçao de Conexoes
+spring.datasource.hikari.maximum-pool-size=10
+Configuracao de Ociosidade
+spring.datasource.hikari.minimum-idle=3
+spring.datasource.hikari.idle-timeout=10000</t>
+  </si>
+  <si>
+    <t>Flyway</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Ferramenta para versionamento de schemas de banco de dados
+Sao scripts de automaçao que criam tabelas e inserem dados no banco de dados no momento que executamos a aplicaçao
+Adicione a seguinte dependencia
+    &lt;dependency&gt;
+    	&lt;groupId&gt;org.flywaydb&lt;/groupId&gt;
+    	&lt;artifactId&gt;flyway-core&lt;/artifactId&gt;
+    &lt;/dependency&gt;
+Os scripts devem ficar na pasta resources/db/migration com o seguinte padrao de nomenclatura: V003__cria-tabela-estado.sql
+Quando um script for executado nao devemos mais altera-lo, caso precise de uma alteraçao ultilize um novo script</t>
+  </si>
+  <si>
+    <t>Geraçao de Scripts de Forma Automatica</t>
+  </si>
+  <si>
+    <t>Podemos gerar os scripts atraves de nossas entities, DEVEMOS revisar antes de executar-los
+spring.jpa.properties.javax.persistence.schema-generation.scripts.action=create
+spring.jpa.properties.javax.persistence.schema-generation.scripts.create-target=src/main/resources/ddl.sql</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>afterMigrate.sql</t>
+  </si>
+  <si>
+    <t>Um script para inserçao de dados no banco após executar a aplicaçao
+Ele é executado toda vez que a aplicaçao sobe
+Deve ser utilizado em ambientes de testes onde apagamos os dados todas vezes que executarmos
+Definimos a pasta onde o script está localizado
+spring.flyway.locations=classpath:db/migration,classpath:db/testdata</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>Usa a Anotação @ConvertGroup
+Usado para validar uma instancia quando existe dependências de cascatiamento
+Quando a anotação e usada, será validada apenas o que estiver com aquela anotação.
+Podemos resolver criando um Representation Model de Input
+- Para cadastrar um Restaurante precisa passar o id da cozinha, para fazer a validação em cascata precisa do @Valid
+- Mas para cadastrar uma cozinha não podemos passar o id, então temos um problema de consistência
+- Para resolvermos isso temos que criar um ValidationGroup
+- Podemos usar @Validated(Groups.CadastroRestaurante.class)no controller para validar apenas as classes anotada com aquela constraint
+- Se não especificar o grupo, o Default.class será utilizado
+- ConvertGroup evita que precisemos especificar cada validação em classes agregadas.</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Por ser mais simples, permite a criacao de uma classe generica que mande vários tipos de HttpStatus:
+throw new ResponseStatusException(HttpStatus.NOT_FOUND, e.getMessage());
+- Clases de dominio nao devem ter contato com HTTP entao o melhor é customizar a exceçao de outra forma</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>- Quando tivermos um relacionamento Many to Many se possivel criar um novo controller
+- UsuarioController(GrupoController(/grupos), UsuárioGrupoController(/usuarios/userId/grupos)</t>
+  </si>
+  <si>
+    <t>Recebe Anotação @Service
+Onde se concentram-se as regras de negócio 
+Instancia-se o Repository com @Autowired para fazer comunicações com o Banco
+Exemplo de Regra de Negócio, quando salvar, não podemos ter um cliente com mesmo e-mail.
+Deve existir mesmo se classe api não existir
+Service que deve tratar as exceptions de Controller
+- Podemos criar uma classe de configuração e definirmos um @Bean que retorna a implementação de um dos @Service
+- Satisfazendo uma condição do properties podemos definir quem devemos chamar no momento da execução.
+Nao deve se preocupar com codigos HTTP, somente com as Exceptions</t>
+  </si>
+  <si>
+    <t>Não deve ter regras de negócio no controlador 
+Para isso use uma classe para de Service
+Para consultas não tem problema usar o repository
+Deve ter anotação de ResponseEntity
+Controller deve capturar as exceptions não tratadas em Service e Repassar o código do HTTP Status correto.
+Deve se preocupar com os codigos HTTP</t>
+  </si>
+  <si>
+    <t>8.9</t>
   </si>
 </sst>
 </file>
@@ -2701,10 +2813,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2903,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2916,11 +3028,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2935,10 +3047,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -3095,2377 +3207,2447 @@
         <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>538</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="113.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="113.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="36.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="36.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="125" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="93.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>113</v>
+        <v>540</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>547</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="3" t="s">
+    <row r="52" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="B52" s="4" t="s">
-        <v>124</v>
+        <v>553</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="93.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>128</v>
+        <v>558</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>560</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C57" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="C58" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B57" s="4" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="C59" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B58" s="4" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="12" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="103.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="89.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="117.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="66" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="B67" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="B68" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="131" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C65" s="3" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="103.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="89.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="100" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="B78" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="3"/>
+        <v>604</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>188</v>
+        <v>602</v>
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="B112" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B135" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="B164" s="4" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>338</v>
-      </c>
+    <row r="168" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
       <c r="B168" s="4" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B183" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="174" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="175" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="100" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
-      <c r="B211" s="4"/>
+    <row r="211" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="125" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="6"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B225" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B226" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C215" s="3"/>
-    </row>
-    <row r="216" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C216" s="3"/>
-    </row>
-    <row r="217" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B228" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C217" s="3"/>
-    </row>
-    <row r="218" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B229" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B230" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C219" s="3"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B231" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C220" s="3"/>
-    </row>
-    <row r="221" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B232" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C221" s="3"/>
-    </row>
-    <row r="222" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C222" s="3"/>
-    </row>
-    <row r="223" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C223" s="3"/>
-    </row>
-    <row r="224" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C224" s="3"/>
-    </row>
-    <row r="225" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C226" s="3"/>
-    </row>
-    <row r="227" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C227" s="3"/>
-    </row>
-    <row r="228" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C229" s="3"/>
-    </row>
-    <row r="230" spans="1:3" ht="275" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C230" s="3"/>
-    </row>
-    <row r="231" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="1:3" ht="275" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B244" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C233" s="3"/>
-    </row>
-    <row r="234" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B245" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C234" s="3"/>
-    </row>
-    <row r="235" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B246" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B247" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B248" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B249" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C238" s="3"/>
-    </row>
-    <row r="239" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B250" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C239" s="3"/>
-    </row>
-    <row r="240" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B251" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B252" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B253" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B254" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C243" s="3"/>
-    </row>
-    <row r="244" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B255" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B256" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B257" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B258" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B259" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B260" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B261" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C250" s="3"/>
-    </row>
-    <row r="251" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B262" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B263" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C252" s="3"/>
-    </row>
-    <row r="253" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B264" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C253" s="3"/>
-    </row>
-    <row r="254" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B265" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C254" s="3"/>
-    </row>
-    <row r="255" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B266" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B267" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C256" s="3"/>
-    </row>
-    <row r="257" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B268" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C257" s="3"/>
-    </row>
-    <row r="258" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B269" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C258" s="3"/>
-    </row>
-    <row r="259" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B270" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C259" s="3"/>
-    </row>
-    <row r="260" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B271" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C260" s="3"/>
-    </row>
-    <row r="261" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B272" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C261" s="3"/>
-    </row>
-    <row r="262" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="1:3" ht="236.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B273" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C262" s="3"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B274" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C263" s="3"/>
-    </row>
-    <row r="264" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C264" s="3"/>
-    </row>
-    <row r="265" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C268" s="3"/>
-    </row>
-    <row r="269" spans="1:3" ht="236.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C269" s="3"/>
-    </row>
-    <row r="270" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C270" s="3"/>
+      <c r="C274" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5499,7 +5681,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -5511,10 +5693,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5522,10 +5704,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jppereiraa\MyWorkspace\algafood-api-master\src\main\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC9A1C3-B89B-484A-9BEE-B54DD1275D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE76136-F1DF-4CD5-A3F6-AA2A83D5EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Erros" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="707">
   <si>
     <t>Especialista Spring Rest</t>
   </si>
@@ -327,11 +328,6 @@
     <t>ApiExceptionHandler</t>
   </si>
   <si>
-    <t>Captura Exceptions com @ExceptionHandlre(Negocio.class)
-Trata o ResponseEntity para retornar um StatusError corretaente
-Podemos usar o MessageSource para personalizar as mensagens</t>
-  </si>
-  <si>
     <t>Jackson</t>
   </si>
   <si>
@@ -666,13 +662,7 @@
     <t>@ExceptionHandler</t>
   </si>
   <si>
-    <t>- Captura as exceções do Controller e trata o ResponseEntity para retornar um body mais personalizado.</t>
-  </si>
-  <si>
     <t>@ControllerAdvice</t>
-  </si>
-  <si>
-    <t>- Essa é uma anotação específica para que todas as exceptions passe por essa classe anotada.</t>
   </si>
   <si>
     <t>handleExceptionInternal</t>
@@ -691,16 +681,7 @@
 RFC0807</t>
   </si>
   <si>
-    <t>status: codigo de status
-type: url de uma página explicando ocorrência
-title: titulo genérico, não muda de ocorrência para ocorrência
-Detail: detalhamento do erro, descrição com código da entidade e detalhes do erro</t>
-  </si>
-  <si>
     <t>ExceptionUtils</t>
-  </si>
-  <si>
-    <t>com apache commons podemos recuperar os campos e causa raiz do erro e com isso devolver um resposta de exceção mais precisa com ExceptionUtils.</t>
   </si>
   <si>
     <t>Jackson Serialize Exceptions</t>
@@ -2215,16 +2196,6 @@
     <t>MySql Docker</t>
   </si>
   <si>
-    <t>- Parar o Serviço MySql no Windows
-- Rodamos o comando:
-docker container run -d -p 3306:3306  -e MYSQL_ALLOW_EMPTY_PASSWORD=yes --name algafood-mysql mysql:8.0
-Ou 
-docker container run -d -p 3306:3306  -e MYSQL_ROOT_PASSWORD=12345678 --name algafood-mysql mysql:8.0
-- Com isso podemos abrir o Workbeanch que já está apontado para a porta 3306
-- Conteiner com Rede
-docker container run -d -p 3306:3306  -e MYSQL_ROOT_PASSWORD=12345678 --network algafood-network --name algafood-mysql mysql:8.0</t>
-  </si>
-  <si>
     <t>Conteinizando a Aplicação</t>
   </si>
   <si>
@@ -2238,28 +2209,6 @@
 CMD ["java", "-jar", "api.jar] (comando com argumentos para rodar nosso jar)</t>
   </si>
   <si>
-    <t>Criando a imagem</t>
-  </si>
-  <si>
-    <t>- Criando a imagem:
-docker image build -t algafood-api .
-- Rodando o container:
-container run --rm -p 9000:9000 algafood-api</t>
-  </si>
-  <si>
-    <t>Criando uma Rede</t>
-  </si>
-  <si>
-    <t>- Para comunicar com outros container precisamos criar uma rede entre eles:
-docker network create --driver bridge algafood-network</t>
-  </si>
-  <si>
-    <t>Removendo Container</t>
-  </si>
-  <si>
-    <t>docker container rm algafood-mysql –force --volumes</t>
-  </si>
-  <si>
     <t>Rodando a aplicação 
 Com parametros</t>
   </si>
@@ -2270,27 +2219,7 @@
     <t>Imagem Docker com Maven</t>
   </si>
   <si>
-    <t>- Através de um plugin é possível geram uma imagem docker toda vez que fizermos o build
-- Criar um profile no pom.xml e passar como argumento no maven:
-mvn package -Pdocker</t>
-  </si>
-  <si>
-    <t>Wait-for-it</t>
-  </si>
-  <si>
-    <t>- Script SH que faz com que um container só conecte ao banco após o banco ser contruido
-- Precisa ser incluido dentro da image
-- Também é necessário incluir no docker-compose
-  command: ["/wait-for-it.sh", "algafood-mysql:3306", "-t", "30", "--", "java", "-jar", "api.jar"]</t>
-  </si>
-  <si>
     <t>Escalando Aplicações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Para escalarmos em duas aplicações devemos rodar o seguinte comando:
-docker-compose up –scale algafood-api=2
-- OBS: Atentar-se a aplicação que estiver subindo e não definir porta
-</t>
   </si>
   <si>
     <t>Load Balance</t>
@@ -2305,31 +2234,7 @@
     <t>Redis</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Com o Load Balancer temos um problema de sessão do usuário que pode estar salva em um servidor ou no outro
-- Para solucionar esse problema precisaremos salvar a sessão do usuário no Redis
-- Inicaremos um container Redis e guardaremos as informações de sessão do usuário nele
-- Assim que subirmos os Redis podemos verificar os dados contidos nele:
-redis-cli -h algafood-redis -p 6379
-- Para analisarmos as chaves podemos usar o comando:
-keys * 
-- Para setar uma chave:
-set nome jose
-- Para recuperar o valor
-get nome
-- Para deletar o valor
-del nome</t>
-  </si>
-  <si>
     <t>Compartilhar Sessões</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Precisamos definir no AtuthorizationServerConfig o authorizationCodeServices:
-		endpoints
-.authenticationManager(authenticationManager)
-.userDetailsService(userDetailsService)
-.authorizationCodeServices(new JdbcAuthorizationCodeServices(this.dataSource))
-- Também é necessário a criação da tabela oauth_code
-</t>
   </si>
   <si>
     <t>ERRO</t>
@@ -2701,7 +2606,588 @@
 Deve se preocupar com os codigos HTTP</t>
   </si>
   <si>
-    <t>8.9</t>
+    <t>- Essa é uma anotação específica para que todas as exceptions passe por essa classe anotada.
+Para que as exceçoes sejam capturadas é necessário uma classe com uma anotation para redirecionar a exception
+Todas exception antes de serem lançadas vericiará esta classe antes de estourar
+@ControllerAdvice
+public class ApiExceptionHandler extends ResponseEntityExceptionHandler {...}</t>
+  </si>
+  <si>
+    <t>Problema
+(ErrorDetails)</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>8.13</t>
+  </si>
+  <si>
+    <t>- Captura as exceções do Controller e trata o ResponseEntity para retornar um body mais personalizado.
+- A Anotaçao fica ouvindo as Exceptions e captura quando aquela que foi especificada como parametro for lançada.
+- Está vinculada a nossa API
+@ExceptionHandler(EntidadeNaoEncontradaException.class)
+	public ResponseEntity&lt;?&gt; handleEntidadeNaoEncontrada(EntidadeNaoEncontradaException ex,
+			WebRequest request) {...}</t>
+  </si>
+  <si>
+    <t>Trata-se de uma classe Objeto que será a representaçao de um erro quando for lançado por uma exception
+Contem detalhes sobre a mensagem de erro que vamos exibir ao usuario
+status, timestamp, type, title, detail, userMessage, List&lt;Objects&gt;
+Problem problem = createProblemBuilder(status, problemType, detail)
+return handleExceptionInternal(ex, problem, new HttpHeaders(), status, request);</t>
+  </si>
+  <si>
+    <t>- Classe criada para controle de exceptions, devemos anota-la com @ControlerAdvice
+- Para capturar exceptions do ResponseEntity e customiza-los devemos extender ResponseEntityExceptionHandler
+@ControllerAdvice
+public class ApiExceptionHandler extends ResponseEntityExceptionHandler {...}
+- Captura Exceptions com @ExceptionHandlre(Negocio.class)
+- Trata o ResponseEntity para retornar um StatusError corretaente
+- Podemos usar o MessageSource para personalizar as mensagens</t>
+  </si>
+  <si>
+    <t>8.15</t>
+  </si>
+  <si>
+    <t>ResponseEntityExceptionHandler</t>
+  </si>
+  <si>
+    <t>- Classe abstrata responsável por tratar todas as exceptions mais comuns de resposta da API
+-Podemos extende-la e customizar seu corpo:
+public class ApiExceptionHandler extends ResponseEntityExceptionHandler {...}
+Sobrescrevemos o methodo principal, instanciamos um objeto de resposta customizado e devolvemos no corpo
+	@Override
+	protected ResponseEntity&lt;Object&gt; handleExceptionInternal(Exception ex, Object body, HttpHeaders headers,
+			HttpStatus status, WebRequest request) { ... }</t>
+  </si>
+  <si>
+    <t>8.16</t>
+  </si>
+  <si>
+    <t>8.17</t>
+  </si>
+  <si>
+    <t>Determina um padrao de respostas para APIs, devemos evitar expor uma stackTrace
+status: codigo de status (400)
+type: url de uma página explicando ocorrência (http://algafood.com.br/dados-invalidos)
+title: titulo genérico, não muda de ocorrência para ocorrência (Dados inválidos)
+Detail: detalhamento do erro, descrição com código da entidade e detalhes do erro (Um ou mais campos estão inválidos. Faça o preenchimento correto e tente novamente)</t>
+  </si>
+  <si>
+    <t>ProblemType</t>
+  </si>
+  <si>
+    <t>Podemos criar um Enum com as mensagens de erro para a classe de erros:
+public enum ProblemType { … DADOS_INVALIDOS("/dados-invalidos", "Dados inválidos"), …}</t>
+  </si>
+  <si>
+    <t>8.18</t>
+  </si>
+  <si>
+    <t>InvalidFormatException</t>
+  </si>
+  <si>
+    <t>8.21</t>
+  </si>
+  <si>
+    <t>Exception lançada quando um campo invalido é passado na requisiçao ou um tipo diferente do esperado
+Podemos tratar essa exception trazendo informaçoes mais detalhadas para o usuario
+Uma super classe para tratar essa exception é a handleHttpMessageNotReadable</t>
+  </si>
+  <si>
+    <t>Com apache commons podemos recuperar os campos e causa raiz do erro e com isso devolver um resposta de exceção mais precisa com ExceptionUtils.
+Podemos capturar a causa para repassar e montar um exceção detalhada
+Throwable rootCause = ExceptionUtils.getRootCause(ex);
+handleInvalidFormat((InvalidFormatException) rootCause, headers, status, request);</t>
+  </si>
+  <si>
+    <t>8.22</t>
+  </si>
+  <si>
+    <t>Habilitando Exceçoes</t>
+  </si>
+  <si>
+    <t>Essas configurações ativam as exceções para não permitir que campos que não existam na entrada de dados sejam inseridos.
+spring.jackson.deserialization.fail-on-unknown-properties=true (Exception de atributo nao encontrado)
+spring.jackson.deserialization.fail-on-ignored-properties=true
+spring.mvc.throw-exception-if-no-handler-found=true (Exception de URL)
+spring.web.resources.add-mappings=false</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>- Utilizar o kernel com seu pròprio sistema operacional para sustentar os conteiners a partir de uma docker Engine
+- Diferente de uma VM que levanta um outro sistema operacional para sustentar as aplicações
+- Traz facilidades e com maior simplicidade e performance para criação de ambientes</t>
+  </si>
+  <si>
+    <t>Comandos Docker</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>Docker Cliente</t>
+  </si>
+  <si>
+    <t>Docker Host</t>
+  </si>
+  <si>
+    <t>Terminal para interagir com os container, onde inserimos os comandos</t>
+  </si>
+  <si>
+    <t>Maquina onde instalamos o Docker que vai rodar os container, 
+possui um docker daemon que roda em background e gerencia objetos como images, volumes, etc.
+Possui uma REST API por encasulada que envia comandos do client para o host</t>
+  </si>
+  <si>
+    <t>Docker Registry</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>Rpositório de Hospedagem onde são disponibilizadas as imagens para download</t>
+  </si>
+  <si>
+    <t>Docker Images</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>- Parar o Serviço MySql no Windows
+- Rodamos o comando:
+docker container run -d -p 3306:3306  -e MYSQL_ALLOW_EMPTY_PASSWORD=yes --name algafood-mysql mysql:8.0
+Ou 
+docker container run -d -p 3306:3306  -e MYSQL_ROOT_PASSWORD=12345678 --name algafood-mysql mysql:8.0
+- Com isso podemos abrir o Workbeanch (aplicação desktop) que já está apontado para a porta 3306
+- Conteiner com Rede
+docker container run -d -p 3306:3306  -e MYSQL_ROOT_PASSWORD=12345678 --network algafood-network --name algafood-mysql mysql:8.0
+(A primeira porta é da sua maquina e a segunda é do container)</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>Docker Network</t>
+  </si>
+  <si>
+    <t>24.10</t>
+  </si>
+  <si>
+    <t>- Para comunicar com outros container precisamos criar uma rede entre eles:
+'docker network ls (lista todas as redes)
+docker network create --driver bridge algafood-network (cria uma rede bridge)</t>
+  </si>
+  <si>
+    <t>docker images ls (lista todas imagens na maquina)
+docker image pull openjdk:8-jre-slim (baixa a imagem sem executar container)
+docker image tag &lt;image-id&gt; algafood-api (renomeia imagem docker)
+docker image rm algafood-api (remove imagem)
+docker image build -t algafood-api . (criando imagem)</t>
+  </si>
+  <si>
+    <t>docker run --help (lista todos os comando)
+docker container ls --all (lista containers)
+docker conatiner run -p 80:80 -d --name algafood wordpress (roda container sem travar terminal)
+docker container log -f &lt;container-id&gt; (verifica os logs)
+docker container stop &lt;container-id&gt; (para container)
+docker container start &lt;container-id&gt; (iniciar container novamente)
+docker container rm algafood-mysql –force --volumes (remover container)
+docker container prune (limpa container parados)
+docker container run -it openjdk:8-jre bash (executa o containter no modo iterativo)
+docker container run --rm -it openjdk:8-jre bash (a flag rm remove o container após desligarmos ele)</t>
+  </si>
+  <si>
+    <t>Script
+Wait-for-it</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
+    <t>- Através de um plugin é possível geram uma imagem docker toda vez que fizermos o build
+- Criar um profile no pom.xml e passar como argumento no maven: &lt;profile&gt;&lt;/profile&gt;
+mvn package -Pdocker</t>
+  </si>
+  <si>
+    <t>Build pelo docker compose</t>
+  </si>
+  <si>
+    <t>Podemos especificar o build pelo docker compose utilizanso uma tag
+A tag "build" empacotará tudo que está especificado no contexto definido
+ algafood-api:
+  build:
+   context: .</t>
+  </si>
+  <si>
+    <t>24.13</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>- Script SH que faz com que um container só conecte ao banco após o banco ser contruido
+- Precisa ser incluido dentro da image
+- Também é necessário incluir no docker-compose
+  command: ["/wait-for-it.sh", "algafood-mysql:3306", "-t", "30", "--", "java", "-jar", "api.jar"]
+- executara o script, aguardará a aplicação mysql, por 30 segundos, e por fim executará a aplicação</t>
+  </si>
+  <si>
+    <t>24.15</t>
+  </si>
+  <si>
+    <t>- Para escalarmos em duas aplicações devemos rodar o seguinte comando:
+docker-compose up –scale algafood-api=2
+- OBS: Atentar-se a aplicação que estiver subindo e não definir porta
+Podemos definir nas configurações do yml também caso necessário:
+  deploy:
+   replicas: 2</t>
+  </si>
+  <si>
+    <t>24.17</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>- Funciona como um proxy Reverso
+- Um servidor HTTP que responde em uma porta e redireciona para o host da nossa aplicação (algafood-api)
+- Para cria-lo necessitaremos de uma configuração que será inserida dentro do container
+- Crie uma pasta no seu projeto para armazenar essas configurações
+Um Dockerfile:
+FROM nginx:1.19.6-alpine
+RUN rm /etc/nginx/conf.d/default.conf
+COPY nginx.conf /etc/nginx/conf.d/default.conf
+Um nginx.conf:
+server {
+	location / {
+		proxy_pass http://algafood-api:9000;
+	}
+}</t>
+  </si>
+  <si>
+    <t>HostCheckController</t>
+  </si>
+  <si>
+    <t>Muito util para verificar em qual das instâncias da aplicação a requisição está chegando
+Quando temos Load Balancer fica visível seu funcionamento de redirecionamento
+Basta adicionarmos um controlle que devolva essa verificação:
+	@GetMapping("/hostcheck")
+	public String chackHost() throws UnknownHostException {
+		return InetAddress.getLocalHost().getHostAddress() + " - " + InetAddress.getLocalHost().getHostName();
+	}</t>
+  </si>
+  <si>
+    <t>Problema de Amazenamento de Session</t>
+  </si>
+  <si>
+    <t>24.18</t>
+  </si>
+  <si>
+    <t>Quando temos um authorization server e desejamos utilizar container, ao efetuar o login a aplicação acaba se perdendo
+Isso ocorre porque a Session por padrão é armazenada na memória do servidor, o que acaba conflitando quando temos mais de um container
+A solução é armazenar a session em um lugar compartilhado como por exemplo um Redis</t>
+  </si>
+  <si>
+    <t>24.19</t>
+  </si>
+  <si>
+    <t>Container temporário para verificação do Redis</t>
+  </si>
+  <si>
+    <t>- Banco de dados em meória com padrão de chave e valor muito utilizado para compartilhamento de informações e cache
+- Com o Load Balancer temos um problema de sessão do usuário que pode estar salva em um servidor ou no outro
+- Para solucionar esse problema precisaremos salvar a sessão do usuário no Redis</t>
+  </si>
+  <si>
+    <t>- Inicaremos um container Redis e guardaremos as informações de sessão do usuário nele
+container run --rm -it --network algafood-api_algafood-network redis:6.2.1-alphine sh
+- Ou se já tivermos um container em execução podemos verificar os dados contidos nele:
+redis-cli -h algafood-redis -p 6379
+- Para analisarmos as chaves podemos usar o comando:
+keys * 
+- Para setar uma chave:
+set nome jose
+- Para recuperar o valor
+get nome
+- Para deletar o valor
+del nome</t>
+  </si>
+  <si>
+    <t>Spring Session Data Redis</t>
+  </si>
+  <si>
+    <t>24.20</t>
+  </si>
+  <si>
+    <t>- Com Spring Session Data Redis podemos armazenar objetos de sessão do usuário em um banco de dados como o Redis em vez de armazenar em memória
+- Adicione as dependencias do spring-starter-data-redis e spring-session-data-redis
+- Desative o armazenamento padrão em memória no application.properties (spring.session.store-type=none)
+- Defina as variaveis de ambiente do container para conectar ao redis
+   SPRING_SESSION_STORE_TYPE: redis
+   SPRING_REDIS_HOST: algafood-redis</t>
+  </si>
+  <si>
+    <t>- Com a session compartilhada precisamos adicionar tamém  o AUTHORIZATION CODE em um local compartilhado e não em memória como é feito por padrão
+- O compartilhamento pode ser em um Banco de Dados, MySql, Redis ou qualquer outro local compartilhado
+- Aqui faremos uma configuração para armazenar no banco de dados do MySql
+- Por isso antes devemos criar a tabela oauth_code no nosso banco
+A tabela possui apenas duas colunas:
+create table oauth_code (
+	code varchar(256),
+	authentication blob
+);
+- Em AtuthorizationServerConfig definir o authorizationCodeServices no método configure.
+		endpoints
+.authenticationManager(authenticationManager)
+.userDetailsService(userDetailsService)
+.authorizationCodeServices(new JdbcAuthorizationCodeServices(this.dataSource)) // datasource é a nossa fonte de dados</t>
+  </si>
+  <si>
+    <t>24.21</t>
+  </si>
+  <si>
+    <t>Formas de Deploy</t>
+  </si>
+  <si>
+    <t>Clouf foundry
+Heroku
+Serviço de orquestração de container com Kubernetes 
+Digital Ocean
+Amazon Web Services
+Microsoft Azure
+Google Cloud
+Alibaba</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>Passos para
+Deploy em Nuven</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>- Defina um application properties por ambiente com Profiles:
+application.properties (base)
+application-dev.properties (desenvolvimento)
+- Defina variáveis de ambiente no properties
+- chaves e informações sensíveis serão passadas por variáveis de ambiente</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
+    <t>- Criar conta com email e cartão
+- Definir alerta para email em Billings preferences
+- Definir limite em Budget de 10$ mensal
+- Definir alerta de 80% do total</t>
+  </si>
+  <si>
+    <t>AWS Billings
+Configurations</t>
+  </si>
+  <si>
+    <t>Criando
+S3 Bucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Um Bucket é pago por armazenamento, não pela quantidade de nuckets
+- Zona: us-east-1 (mais barata)
+- Acesso: Publico (se os dados não forem sensíveis)
+- Habilitar Leitura Pública</t>
+  </si>
+  <si>
+    <t>Criando Policy 
+para Bucket</t>
+  </si>
+  <si>
+    <t>- Criar policy com as seguintes regras:
+- PutObject, DeleteObject, PutObjectAcl, PutObjectVersionAcl
+- Especificar o resource (nome do bucket)
+- Marcar opção Object como ANY</t>
+  </si>
+  <si>
+    <t>Criando usuário para a aplicação</t>
+  </si>
+  <si>
+    <t>- Nome de usuário para acesso do S3: algafood-photos-production-s3
+- Definir como acesso programático (por Access key e Secret key)
+- Anexar usuário à uma política (Attach existing policies)
+- Anotar Access Key e Secret Key</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>Criando Instância no RDS</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>Conectando RDS 
+pelo Workbench</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>- Copiar endereço de endpoint e porta do RDS disponível em Databases &gt; Conect &amp; Security
+- O endpoint será o host, e o usuário e senha foram definidos na configuração
+- Criar um Schema para a banco de dados em utf8mb4 (codificação ascii)
+- Em adminsitration crie um usuário para sua aplicação acessar o banco (o usuário deve levar o nome da aplicação)
+- user: algafood-api, selecione o schema criado
+- Adicione os Schemas Privileges e as Permissões em add Entry</t>
+  </si>
+  <si>
+    <t>25.10</t>
+  </si>
+  <si>
+    <t>Serviços Redis</t>
+  </si>
+  <si>
+    <t>- Amazon Elasticache possui Redis
+- Possibilidade de uso com Free tier
+- Cobrança baseada em EC2 sem custos extras por thoughput
+- Só pode ser acessado internamente na mesma VPC
+- RedisLabs é uma alternativa ao ElastiCACHE
+- Cobrado por throughput
+- Pode ser criado em AWS, Azure ou Google e ainda escolher a AZ para menor latência
+- Vantagem de uso: Pode ser gerenciado externamente de forma mais simples</t>
+  </si>
+  <si>
+    <t>Criando Um Redis Database</t>
+  </si>
+  <si>
+    <t>25.11</t>
+  </si>
+  <si>
+    <t>-Definir um nome: algafood-redis
+- Protocolo: Redis
+- Data policy: volatile-lru (last recent used, remove as chaves antigas)
+- Módulo: None
+Para se conectar basta subir um container com as configurações de acesso:
+docker container run --rm -it redis:6.0.10-alphine redis-cli -h &lt;REDIS_ENDPOINT&gt; -p 10346
+Para autenticar
+auth &lt;SENHA_REDIS&gt;</t>
+  </si>
+  <si>
+    <t>Serviço EKS</t>
+  </si>
+  <si>
+    <t>- Gerenciamento de Containers com Kubernetes
+- Provisionamento, Escalonamento e manutenção dos clusters gerenciado pela AWS
+- Ideal para Microsserviços, e tenden fácil portabilidade entre nuvens
+- Uso em sistemas de grande escalabilidade e gerenciamento avançado</t>
+  </si>
+  <si>
+    <t>25.12</t>
+  </si>
+  <si>
+    <t>Serviço ECS</t>
+  </si>
+  <si>
+    <t>- Gerenciamento de Containers com Clusters
+- Clusters com Instâncias EC2 e Clusters Fargate
+- EC2 administravel
+- Cobrança apenas pelo uso dos recursos do EC2
+- Uso em ambientes que não necessitam kubernetes
+- Ideal para aplicações nativa da AWS com orquestação simplificada</t>
+  </si>
+  <si>
+    <t>Serviço Fargate</t>
+  </si>
+  <si>
+    <t>- Fargate usa containers sem servidor, funciona com ECS e EKS
+- Multi-AZ, faz o escalonamento e balanceamento automáticamente
+- Cobrança pelos recursos usados dos containers (Não está no Free tier)
+- Casos de uso: 
+* Aplicacações Serverless com containers
+* Foco no Desenvolvimento e não na manutenção
+* Menos controle de infraestrutura, custo pode ser maior
+* Evitar quando o tráfego for previsível e constante (EC2 torna mais econômico)
+- Com 720h mensais,, rodando 24h por dia teríamos um gasto de $9</t>
+  </si>
+  <si>
+    <t>25.13</t>
+  </si>
+  <si>
+    <t>- Definimos uma task definitions que descreverá as configurações de um ou mais containers
+- Dentro a task definitions definimos qual conteiner queremos rodar
+- Selecione Fargate, 0.5GB de memória e 0.5GB de vCPU
+- Precisamos de um Clusters para instanciar uma task definitions
+- Task é uma instância de um task definitions
+- Cluster é um agrupamento de containers
+- Criar um Cluster com Network Only como Básico
+- Service é um serviço que mantém a task sempre rodando (gerencia a task)
+- São as definições de execução das tasks 
+Dica: Se parar o Service e Running Tasks for "0" então não terá custos
+Para parar é necessário definir o numero de tasks para 0 no Service
+Desire Counts: 0</t>
+  </si>
+  <si>
+    <t>Disponibilizar Imagem no ECR</t>
+  </si>
+  <si>
+    <t>25.14</t>
+  </si>
+  <si>
+    <t>- Serviço que hospeda imagens da AWS
+- Concorrente do docker hub
+- Pode ser mais barato se seu uso for simple
+- Com o docker hub seria necessario fazer download da imagem o que geraria custos
+- Como ECR está dentro da AWS é mais simples seu uso e gerenciado pelo IAM
+- Paga por megabytes usados e transferencia de dados (Possui free tier)</t>
+  </si>
+  <si>
+    <t>Variáveis de Ambiente
+em Container
+SSM Parameters</t>
+  </si>
+  <si>
+    <t>25.16</t>
+  </si>
+  <si>
+    <t>Publicando Container ECS
+TASK DEFINITIONS
+SERVICES
+CLUSTER</t>
+  </si>
+  <si>
+    <t>- O serviço de RDS é cobrado por hora, por instância e por armazenamento
+- Zona: us-east-1, Single A-Z
+- Criação: Standard, Type: MySQL 8.0.20
+- Nome: algafood-mysql
+- user and password
+- Intância: db.t2,micro com 20GB
+- Acesso Públic: Sim
+- Securiry Group: algafood-mysql-sg
+ATENÇÃO: ADICIONAR PERMISSÃO AO MYSQL NO SECURITY_GROUP DA APLICAÇÃO</t>
+  </si>
+  <si>
+    <t>- Simple System Manager Parameter
+- Centraliza valores em par de chave e valor
+- Permite gerenciar de forma simples eorganizada por ambientes (/prod/serviço-test/DB_HOST)
+- Possibilidade de gerenciar permissões de uso
+- Não tem custo até 10.000 parâmetros
+- Quando for especificar nas task definitions:
+SPRING_PROFILES_ACTIVE ValueFrom /prod/algafood-api/SPRING_PROFILES_ACTIVE
+- Deixa a task definitions mais flexível
+ATENÇÃO: ADICIONAR PERMISSÃO AO SSM PARAMETERS NA SUA APLICAÇÃO (EM TASK_DEFINITION_ROLE - Police inline)
+Permissões: GetParameters e GetParametersByPath</t>
   </si>
 </sst>
 </file>
@@ -2785,7 +3271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2815,6 +3301,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3015,10 +3513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3028,11 +3526,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3047,10 +3545,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -3207,7 +3705,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50" x14ac:dyDescent="0.25">
@@ -3259,7 +3757,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>55</v>
@@ -3273,7 +3771,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
@@ -3281,10 +3779,10 @@
         <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3292,10 +3790,10 @@
         <v>60</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -3322,32 +3820,32 @@
     </row>
     <row r="28" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -3355,2299 +3853,2674 @@
     </row>
     <row r="31" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="125" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="93.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="103.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="89.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="117.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="131" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="100" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="84.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="108.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="B85" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="C88" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B98" s="4" t="s">
+    </row>
+    <row r="107" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="B117" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="B134" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="B139" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="C140" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B141" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="B158" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="B160" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="B170" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="B171" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="B172" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>338</v>
+    <row r="179" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>348</v>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="B201" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="B202" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="B203" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="B204" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="B205" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="B206" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="B207" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+      <c r="B208" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C201" s="3"/>
-    </row>
-    <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="B209" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C202" s="3"/>
-    </row>
-    <row r="203" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="B210" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+      <c r="B211" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C204" s="3"/>
-    </row>
-    <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="B212" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C205" s="3"/>
-    </row>
-    <row r="206" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C208" s="3"/>
-    </row>
-    <row r="209" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C211" s="3"/>
-    </row>
-    <row r="212" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C212" s="3"/>
-    </row>
-    <row r="213" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="6"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="3"/>
-    </row>
-    <row r="216" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="B223" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C216" s="3"/>
-    </row>
-    <row r="217" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="B224" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C217" s="3"/>
-    </row>
-    <row r="218" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="B225" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="B226" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C219" s="3"/>
-    </row>
-    <row r="220" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C220" s="3"/>
-    </row>
-    <row r="221" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="B228" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C221" s="3"/>
-    </row>
-    <row r="222" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="B229" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="3"/>
-    </row>
-    <row r="223" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="B230" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C223" s="3"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C224" s="3"/>
-    </row>
-    <row r="225" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C226" s="3"/>
-    </row>
-    <row r="227" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C227" s="3"/>
-    </row>
-    <row r="228" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C229" s="3"/>
-    </row>
-    <row r="230" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" ht="275" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="275" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="B252" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="B253" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="B254" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="B255" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="B256" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
+      <c r="B257" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C250" s="3"/>
-    </row>
-    <row r="251" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="B258" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="B259" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C252" s="3"/>
-    </row>
-    <row r="253" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="B260" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C253" s="3"/>
-    </row>
-    <row r="254" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C254" s="3"/>
-    </row>
-    <row r="255" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C256" s="3"/>
-    </row>
-    <row r="257" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C257" s="3"/>
-    </row>
-    <row r="258" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C258" s="3"/>
-    </row>
-    <row r="259" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C259" s="3"/>
-    </row>
-    <row r="260" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B277" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C261" s="3"/>
-    </row>
-    <row r="262" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C262" s="3"/>
-    </row>
-    <row r="263" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
+      <c r="C277" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B278" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="83" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="110.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C263" s="3"/>
-    </row>
-    <row r="264" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
+      <c r="B281" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="235" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="139" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B283" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C264" s="3"/>
-    </row>
-    <row r="265" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="C283" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B286" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="224.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="89" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="229" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C268" s="3"/>
-    </row>
-    <row r="269" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C269" s="3"/>
-    </row>
-    <row r="270" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="C270" s="3"/>
-    </row>
-    <row r="271" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="C271" s="3"/>
-    </row>
-    <row r="272" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C272" s="3"/>
-    </row>
-    <row r="273" spans="1:3" ht="236.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C273" s="3"/>
-    </row>
-    <row r="274" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="C274" s="3"/>
+      <c r="B289" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="125.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="94" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="C293" s="13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="86" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C297" s="13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="B298" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B299" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B301" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="157" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B305" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>703</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5657,7 +6530,7 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{C56674AE-AC73-4002-86AE-BD0793ECB4F3}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -5681,7 +6554,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -5693,10 +6566,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5704,10 +6577,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jppereiraa\MyWorkspace\algafood-api-master\src\main\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE76136-F1DF-4CD5-A3F6-AA2A83D5EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26111FC8-D58B-4295-9182-8DEACDDD2E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Erros" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="770">
   <si>
     <t>Especialista Spring Rest</t>
   </si>
@@ -211,12 +210,6 @@
   </si>
   <si>
     <t>Jakarta Bean Validation</t>
-  </si>
-  <si>
-    <t>Faz a validação da entrada de Dados 
-Geralmente integrada ao Spring Starter Web que possui a implementação através do Hibernate Validation
-Se estiver em uma versão 2.3 ou superior usar a dependência spring-starter-validation 
-Podemos usar @NotBlank, @Email, @Size</t>
   </si>
   <si>
     <t>Lombok</t>
@@ -321,10 +314,6 @@
     <t>MessageSource</t>
   </si>
   <si>
-    <t>Com ele é possível traduzir as mensagens de erro usando message,properties
-Injetado com @Autowired em ExceptionHandler</t>
-  </si>
-  <si>
     <t>ApiExceptionHandler</t>
   </si>
   <si>
@@ -696,10 +685,6 @@
     <t>BindingResult</t>
   </si>
   <si>
-    <t>- Traz todos os campos com erro do BeanValidation
-- Muito usado para gerar uma lista de campos que apresentaram erro</t>
-  </si>
-  <si>
     <t>BeanValidation</t>
   </si>
   <si>
@@ -713,53 +698,19 @@
     <t xml:space="preserve">Validação </t>
   </si>
   <si>
-    <t>@Valid em cima de um atributo classe cria uma validação em cascata</t>
-  </si>
-  <si>
     <t>ValidationGroups</t>
   </si>
   <si>
     <t>Charset</t>
   </si>
   <si>
-    <t>Spring Usa CharSet UTF-8</t>
-  </si>
-  <si>
     <t>Messages Properties</t>
   </si>
   <si>
-    <t>- É onde definimos mensagens personalizadas
-- no nosso ApiExceptionHandles usamos o MessageSource para capturar as messages e lançar na exceção
-- Mensagens devem estar em UTF-8
-- Algumas mensagens serão possíveis de ser encontradas na dependência hibernate-validator para isso será necessário um outro arquivo
-ValidationMessages.properties
-Message.properties tem preferencia sobre ValidationMessage.properties</t>
-  </si>
-  <si>
     <t>Maven Failsafe</t>
   </si>
   <si>
-    <t>- Usado para ignorar testes de integração
-- As classes de integraão devem terminar com sufixo IT</t>
-  </si>
-  <si>
-    <t>WebEnvironment</t>
-  </si>
-  <si>
-    <t>- Quando queremos startar tester integrados que precisam levantar uma instancia
-- @SpringBootTest(webEnvironment = SpringBootTest.WebEnvironment.RANDOM_PORT)</t>
-  </si>
-  <si>
     <t>Matchers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Usado para auxiliar na validação de objetos
-- Matchers.hasSize(4) = valida se o array tem 4 itens
-- Matchers.hasItems(“indiana”,”tailandesa”) = valida se possui os seguintes items
-</t>
-  </si>
-  <si>
-    <t>LendoJson</t>
   </si>
   <si>
     <t>ResourceUtils.getContentFromResource("/json/correto/cozinha-chinesa.json")</t>
@@ -2560,18 +2511,6 @@
     <t>7.10</t>
   </si>
   <si>
-    <t>Usa a Anotação @ConvertGroup
-Usado para validar uma instancia quando existe dependências de cascatiamento
-Quando a anotação e usada, será validada apenas o que estiver com aquela anotação.
-Podemos resolver criando um Representation Model de Input
-- Para cadastrar um Restaurante precisa passar o id da cozinha, para fazer a validação em cascata precisa do @Valid
-- Mas para cadastrar uma cozinha não podemos passar o id, então temos um problema de consistência
-- Para resolvermos isso temos que criar um ValidationGroup
-- Podemos usar @Validated(Groups.CadastroRestaurante.class)no controller para validar apenas as classes anotada com aquela constraint
-- Se não especificar o grupo, o Default.class será utilizado
-- ConvertGroup evita que precisemos especificar cada validação em classes agregadas.</t>
-  </si>
-  <si>
     <t>8.3</t>
   </si>
   <si>
@@ -3167,17 +3106,6 @@
 CLUSTER</t>
   </si>
   <si>
-    <t>- O serviço de RDS é cobrado por hora, por instância e por armazenamento
-- Zona: us-east-1, Single A-Z
-- Criação: Standard, Type: MySQL 8.0.20
-- Nome: algafood-mysql
-- user and password
-- Intância: db.t2,micro com 20GB
-- Acesso Públic: Sim
-- Securiry Group: algafood-mysql-sg
-ATENÇÃO: ADICIONAR PERMISSÃO AO MYSQL NO SECURITY_GROUP DA APLICAÇÃO</t>
-  </si>
-  <si>
     <t>- Simple System Manager Parameter
 - Centraliza valores em par de chave e valor
 - Permite gerenciar de forma simples eorganizada por ambientes (/prod/serviço-test/DB_HOST)
@@ -3188,6 +3116,428 @@
 - Deixa a task definitions mais flexível
 ATENÇÃO: ADICIONAR PERMISSÃO AO SSM PARAMETERS NA SUA APLICAÇÃO (EM TASK_DEFINITION_ROLE - Police inline)
 Permissões: GetParameters e GetParametersByPath</t>
+  </si>
+  <si>
+    <t>- O serviço de RDS é cobrado por hora, por instância e por armazenamento
+- Zona: us-east-1, Single A-Z
+- Criação: Standard, Type: MySQL 8.0.20
+- Nome: algafood-mysql
+- user and password
+- Intância: db.t2,micro com 20GB
+- Acesso Públic: Sim
+- Securiry Group: algafood-mysql-sg
+ATENÇÃO: ADICIONAR PERMISSÃO NO SECURITY_GROUP DO MYSQL PERMITINDO O SG_SERVICE_APLICACAO ACESSA-LO</t>
+  </si>
+  <si>
+    <t>Testando a Alicação</t>
+  </si>
+  <si>
+    <t>25.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANCO DE DADOS
+'- Para inserir os dados nas tabelas conectar no banco de dados pelo workbench e rodar o script manualmente
+- Desabilite a opção de Safe delete para poder manipular as tabelas
+API
+- Obtenha o IP publico da Taks que estiver rodando mantenha a porta e faça a requisição
+- Sempre que parar os estudos zerar o "Desire Tasks"
+</t>
+  </si>
+  <si>
+    <t>Servço Load Balancer</t>
+  </si>
+  <si>
+    <t>25.21</t>
+  </si>
+  <si>
+    <t>- O ELB garante 99.99% de disponibilidade com Multi-AZ
+- Está dentro do Free Tier
+- Faz o balanceamento de carga distribuindo as requisições
+- Faz um unico ponto de contato com um cliente ou seja um endpoint que distribuirá as requisições para os containers
+- Os containers são os targets
+- Os listener são portas dentro do ELB que escutam as requisições e através das Rules encaminham a requisição para os targets</t>
+  </si>
+  <si>
+    <t>Configurando o ELB
+para a Aplicação</t>
+  </si>
+  <si>
+    <t>25.22</t>
+  </si>
+  <si>
+    <t>- Criar um Application Load Balancer com os passos basicos da AWS
+- Schema Internet Facing para expor para Internet
+- Adicionar Listener na porta 80
+- Criar um Security Group para acesso de qualquer lugar pela porta 80
+- Criar um target para o service que redirecionará para os containers
+- Definir o routing do target para um IP que refere-se à containers
+- Com Isso TODAS as requisições serão redirecionadas para um target group (que po sua vez deve ser anexado à um service)</t>
+  </si>
+  <si>
+    <t>Vinculando Target Group 
+com o Service</t>
+  </si>
+  <si>
+    <t>25.23</t>
+  </si>
+  <si>
+    <t>- O Load Balancer debe ser atribuido no service no momento da criação então se já tiver um service será necessário recria-lo
+- No momento da criação selecione o tipo de Load Balance para Application LB e vincule ao existente com seu Target Group
+- Defina um Health Check Grace Period com 150 segundos para dar tempo de iniciar
+- Após a criação o service executará a task que por sua vez levantará os containers
+- Os Containers registrarão seus Targets no Load Balancer assim que estiverem prontos</t>
+  </si>
+  <si>
+    <t>Remover Acesso Direto 
+dos Containers</t>
+  </si>
+  <si>
+    <t>- Todo acesso debe ser feito diretamente pelo Load Balancer, o que significa que nenhum conteiner debe ser acessado diretamente
+- Para restringir os acessos aos conteiner devemos remover a Inbound Rule do Security Group referente à eles
+- Definimos uma nova Inbound Rules TCP com a rota 8080 do Security Group do Load Balancer para o Container</t>
+  </si>
+  <si>
+    <t>Dominio Personalizado
+DNS Name</t>
+  </si>
+  <si>
+    <t>25.25</t>
+  </si>
+  <si>
+    <t>- Podemos registrar um domínio no site do registro.br (algafood.com.br) R$ 40 reais por ano
+- Após obter o domínio precisamos de um serviço DNS para resolver o domínio de Name para IP
+- A própria Registro.br fornece um serço de DNS e na Amazon temos o Route53
+- Esse seviço pegará o Registro e redirecionará para o IP ou DNS do LoadBalancer da Amazon (no caso de Name para Name use CNAME)
+- Demorá horas ou dias para vincular os domínios</t>
+  </si>
+  <si>
+    <t>Removendo Acesso
+do IP ou DNS Direto da Amazon</t>
+  </si>
+  <si>
+    <t>25.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`- Para configurar o protocolo HTTPS e transitar dados criptografados nas requisições devemos adquirir um certificado TLS
+- A AWS fornece um serviço chamado AWS Certificate Manager para forncer esse certificado SSL/TLS
+- O Certificado Public é gratuito já o privado é mais custoso
+- Contas novas da AWS geralmente não consegue emitir certificado, deve-se entrar em contato com o SUporte de Amazon que a aemissão é liberada
+- Definimos um nome com  coringa " *.algafood.com.br" e um email deve ser mandado para confirmação </t>
+  </si>
+  <si>
+    <t>AWS Certificate Manager</t>
+  </si>
+  <si>
+    <t>Vinculando Certificado e
+Configurando HTTPS</t>
+  </si>
+  <si>
+    <t>- Como temos um domínio personalizado, podemos remover o acesso diredo ao LB com o DNS da amazon
+- Isso fará com que seja possível o acesso apenas pelo Domínio Personalizado e não mais por aquele disponibilizado pela AWS
+NOS LISTENERS DO LB:
+- Na configurações do Load Balancer em Listeners adicione um Rule onde
+- Toda requisições do Host "algafood.com.br seja redirecionada para "Host do LoadBalancer"
+- Removera outr rule que dizia que toda requisição na porta 80 era redirecionada para o LB</t>
+  </si>
+  <si>
+    <t>- Nas configurações do Load Balancer em Listener vamos adicionar um novo listener
+- Já temos um listener na porta 80 ou seja HTTP
+- Devemos adicionar um listener para a porta 443 ou seja HTTPS
+- Selecione o certificado emitido e adicione o Listener
+- nas regras do Listener devemos fazer a mesma configuração de redirecionamento
+- Toda requisição no host "api.algafood.com.br deve ser encaminhado para o Target Group dos Containers"
+ATNEÇÃO: AJUSTAR O SECURITY GROUP DO LOAD BALANCER PARA RECEBER REQUISIÇÕES HTTP NA PORTA 443</t>
+  </si>
+  <si>
+    <t>Ajustando HATEOAS</t>
+  </si>
+  <si>
+    <t>25.27</t>
+  </si>
+  <si>
+    <t>`- Para que seja possível que nossa aplicação passe a montar os links do HATEOAS
+- É nencessário ajustar as configurações do Spring para que ele passe a gerenciar os cabeçalhos vindo das requisções
+- Adicione a seguinte properties:
+spring.foward-headers-strategy=framework
+- Isso fará com que o cabeçalho passado pelo LoadBalancer seja considerado, que são:
+Host: ip-interno-container
+X-Foward-Host: api.algafood.com.br
+X-Foward-Proto: https
+- Com isso nossa aplicação já é capaz de construir os  links HATEOAS com as finformações vindas do LB.
+OBS: Faça o build da aplicação, envie a imagem para o repositório do ECR, exclua a imagem antiga e
+Reinicie os services do Cluster para que quando forem levantados sejam construidos com a nova imagem</t>
+  </si>
+  <si>
+    <t>Faz a validação da entrada de Dados 
+Geralmente integrada ao Spring Starter Web que possui a implementação através do Hibernate Validator
+Se estiver em uma versão 2.3 ou superior usar a dependência spring-starter-validation 
+Podemos usar @NotBlank, @Email, @Size</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Fields
+ErrorDetails</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>- Podemos extrair os campos com problemas de constraints e criar uma mensagem personalizada de erro, para isso criamos uma classe Field para representar esse tipo de erro com 'name' e 'userMessage' como atributos.
+- Declaramos em ErrorDetails uma lista de fields como atributo para representar a classe que acabamos de criar 'private List&lt;Field&gt; fields;'
+- Atravès de uma instância de BindingResults podemos obter essas informações dos campos com falhas</t>
+  </si>
+  <si>
+    <t>- Traz todos os campos com erro do BeanValidation
+- Muito usado para gerar uma lista de campos que apresentaram erro
+ BindingResult bindingResult = exception.getBindingResult();
+ List&lt;Problem.Field&gt; problemFields = bindingResult.getErrorErrors().stream()
+	    		.map(fieldError -&gt; Problem.Field.builder()
+				.name(fieldError.getField())
+				.userMessage(fieldError.getDefaultMessage())
+				.build())
+			.collect(Collectors.toList());</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>- Adicionando @Valid na entrada do Controller faz com que o JPA faça a validação dos dados antes de inserção
+	 public RestauranteModel adicionar(@RequestBody @Valid RestauranteInput restauranteInput){...}
+- @Valid em cima de um atributo classe cria uma validação em cascata
+@Valid
+	@ManyToOne
+	@JoinColumn(name = "cozinha_id", nullable = false)
+	private Cozinha cozinha;</t>
+  </si>
+  <si>
+    <t>- Usa a Anotação @ConvertGroup
+- Usado para validar uma instancia quando existe dependências de cascatiamento
+- Quando a anotação e usada, será validada apenas o que estiver com aquela anotação.
+- Podemos resolver criando um Representation Model de Input
+- Para cadastrar um Restaurante precisa passar o id da cozinha, para fazer a validação em cascata precisa do @Valid
+- Mas para cadastrar uma cozinha não podemos passar o id, então temos um problema de consistência
+- Para resolvermos isso temos que criar um ValidationGroup
+- Podemos usar @Validated(Groups.CadastroRestaurante.class) no controller para validar apenas as classes anotada com aquela constraint
+- Se não especificar o grupo, o Default.class será utilizado
+- ConvertGroup evita que precisemos especificar cada validação em classes agregadas.</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>Spring Usa CharSet UTF-8, atente-se à criação dos seus properties para mensagens</t>
+  </si>
+  <si>
+    <t>- É um arquivo Resource Bundle, onde definimos mensagens personalizadas
+- no nosso ApiExceptionHandles usamos o MessageSource para capturar as messages e lançar na exceção
+- Mensagens devem estar em UTF-8
+- Algumas mensagens serão possíveis de ser encontradas na dependência hibernate-validator para isso será necessário um outro arquivo
+ValidationMessages.properties
+Message.properties tem preferencia sobre ValidationMessage.properties
+Podemos inserir place holders nas mensagens, e também podemos customizar os nomes da propriedades:
+NotNull={0} É obrigatório
+restauranteInput.nome=Nome do restaurante</t>
+  </si>
+  <si>
+    <t>Com ele é possível traduzir as mensagens de erro usando message,properties
+Injetado com @Autowired em ExceptionHandler
+@Autowired MessageSource messageSource;
+Para obter a mensagem façamos o seguinte:
+	    			String message = messageSource.getMessage(objectError, LocaleContextHolder.getLocale()); //Podemos definir um locale
+Defina um unico message.properties como padrão de configuração:
+@Configuration … ValidationConfig { … @Bean validator(MessageSource messageSource) ...}</t>
+  </si>
+  <si>
+    <t>9.16</t>
+  </si>
+  <si>
+    <t>Para criar uma anotação utilize a mesma estrutura de uma já existente:
+@Target({ METHOD, FIELD, ANNOTATION_TYPE, CONSTRUCTOR, PARAMETER, TYPE_USE })
+@Retention(RUNTIME)
+@Constraint(validatedBy = { MultiploValidator.class })
+public @interface Multiplo {...}</t>
+  </si>
+  <si>
+    <t>- Usado para auxiliar na validação de objetos
+- Matchers.hasSize(4) = valida se o array tem 4 itens
+- Matchers.hasItems(“indiana”,”tailandesa”) = valida se possui os seguintes items</t>
+  </si>
+  <si>
+    <t>Lendo Json</t>
+  </si>
+  <si>
+    <t>Anotação Customizada
+Método</t>
+  </si>
+  <si>
+    <t>Anotação Customizada
+Classe</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>Podemos criar uma anotação customizada para classes, para validar situações onde dependemos de duas ou mais possibilidades:
+@Target({ ElementType.TYPE }) // Só pode ser usada em classes e interfaces
+@Retention(RUNTIME)
+@Constraint(validatedBy = { ValorZeroIncluiDescricaoValidator.class })
+public @interface ValorZeroIncluiDescricao {… String valorField();}
+Anotar a classe passando um atributo
+@ValorZeroIncluiDescricao(valorField="taxaFrete")
+public class Restaurante {... private BigDecimal taxaFrete;}
+E resgatar esse atributo através de uma classe de constraint para fazer validações, obtendo o valor por meio do Reflections
+@Override
+public boolean isValid(Object objetoValidacao, ConstraintValidatorContext context) {
+BigDecimal valor = (BigDecimal) BeanUtils.getPropertyDescriptor(objetoValidacao.getClass(), valorField).getReadMethod().invoke(objetoValidacao);
+- Para ajustar ApiExceptionHandler altere de FIeldError para ObjectError</t>
+  </si>
+  <si>
+    <t>@SpringBootTest</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>Testes de Integração e
+Teste Unitários</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>- Os teste unitários são testes de unidades, que validam uma funcionalidade, um método ou um trecho de código
+- Os teste de integração são testes que validam integrações entre sistemas, banco de dados ou comunicação entre serviços
+- Os teste de integração devem ser alocados separadamente dos teste de unidade, os testes de Integração devem conter um sufixo IT
+- O plugin do MavenFailsafe garente que os testes de integração sejam executados isoladamente</t>
+  </si>
+  <si>
+    <t>- Plugin do Maven usado para ignorar testes de integração
+- As classes de integração devem terminar com sufixo IT
+- Com esse plugin o build do maven não vai executar os testes de intergração e por isso não vai falhar o build
+Basta adicionar o plugin:
+		&lt;plugin&gt;
+			&lt;artifactId&gt;maven-failsafe-plugin&lt;/artifactId&gt;
+		&lt;/plugin&gt;
+Para executar os testes utilize o comando:
+mvn verify</t>
+  </si>
+  <si>
+    <t>RestAssured</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>- Biblioteca para testes e validação de REST APIs com uma linguagem fluente e codigo limpo;
+- Adicionar a dependencia:
+    &lt;dependency&gt;
+    	&lt;groupId&gt;io.rest-assured&lt;/groupId&gt;
+    	&lt;artifactId&gt;rest-assured&lt;/artifactId&gt;
+    	&lt;scope&gt;test&lt;/scope&gt;
+    &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Utilizando RestAssured</t>
+  </si>
+  <si>
+    <t>Fornece as funcionalidades do SpringBoot nos nossos Tests
+- Quando queremos startar tester integrados que precisam levantar uma instancia
+@SpringBootTest(webEnvironment = SpringBootTest.WebEnvironment.RANDOM_PORT)
+- Especificando RANDOM_PORT podemos definir que seja executado em uma porta randomica a fim de evitar conflitos de portas
+- Recuperamos o valor das portas usando:
+@LocalServerPort private int port;</t>
+  </si>
+  <si>
+    <t>Validando o corpo da Resposta da Integração</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>- Cofiguração Inicial:
+@BeforeEach
+void setUp() {
+RestAssured.enableLoggingOfRequestAndResponseIfValidationFails(); // Habilita Logs em caso de Falhas
+RestAssured.port = port;
+RestAssured.basePath = "/restaurantes";
+jsonRestauranteCorreto = ResourceUtils.getContentFromResource("/json/correto/restaurante-new-york-barbecue.json");
+}
+- Validando que seja cadastrado caso o jsonRestauranteCorreto seja passado para o método post
+'-RestAssured.given()
+.body(jsonRestauranteCorreto)
+.contentType(ContentType.JSON)
+.accept(ContentType.JSON)
+.when()
+.post()
+.then()
+.statusCode(HttpStatus.CREATED.value());</t>
+  </si>
+  <si>
+    <t>@TestPropertySource</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>- Responsável por fazer o carregamento dos valores de application.properties em ambientes de teste
+@TestPropertySource("/application-test.properties")
+- Com isso podemos realizar testes em um banco de dados separado, até mesmo em memória</t>
+  </si>
+  <si>
+    <t>Classe
+DatabaseCleaner</t>
+  </si>
+  <si>
+    <t>10.14</t>
+  </si>
+  <si>
+    <t>- Classe utilitária para limpeza de dados nas tabelas do banco em ambiente de testes
+- Util para cenários que devemos limpar a base de testes sempre que quisermos executar os testes de integração
+- restringe a limpeza de forma isolada apenas em bando de dados que contém a palavra "_teste"</t>
+  </si>
+  <si>
+    <t>Validação de Teste com 
+Parâmetro de URL</t>
+  </si>
+  <si>
+    <t>10.15</t>
+  </si>
+  <si>
+    <t>@Test
+    void deveRetornarRespostaEStatusCorretos_QuandoConsultarCozinhaExistente() {
+		given()
+			.pathParam("cozinhaId", cozinhaAmericana.getId())
+			.accept(ContentType.JSON)
+		.when()
+			.get("/{cozinhaId}")
+		.then()
+			.statusCode(HttpStatus.OK.value())
+			.body("nome", equalTo(cozinhaAmericana.getNome()));
+	}</t>
+  </si>
+  <si>
+    <t>@Test
+    void deveRetornarRespostaEStatusCorretos_QuandoConsultarRestauranteExistente() {
+		given()
+			.pathParam("restauranteId", burgerTopRestaurante.getId())
+			.accept(ContentType.JSON)
+		.when()
+			.get("/{restauranteId}")
+		.then()
+			.statusCode(HttpStatus.OK.value())
+			.body("nome", equalTo(burgerTopRestaurante.getNome()));
+	}</t>
   </si>
 </sst>
 </file>
@@ -3513,10 +3863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3545,10 +3895,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -3705,37 +4055,37 @@
         <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>43</v>
@@ -3743,109 +4093,109 @@
     </row>
     <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="113.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -3853,2673 +4203,2917 @@
     </row>
     <row r="31" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="125" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="93.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="103.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="89.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="117.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="131" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="100" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="84.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="108.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>66</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B95" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="B96" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="C96" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C97" s="3"/>
+      <c r="B97" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="98.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="145" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" ht="111.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="235" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="150.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="153.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="B115" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="4" t="s">
+    </row>
+    <row r="116" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" ht="239.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="B127" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="B147" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="C150" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B154" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
+    <row r="173" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="B173" s="4" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>331</v>
-      </c>
+    <row r="183" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
       <c r="B183" s="4" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>333</v>
+    <row r="184" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="B207" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="B208" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="B209" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="B210" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="B211" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="B212" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C201" s="3"/>
-    </row>
-    <row r="202" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C202" s="3"/>
-    </row>
-    <row r="203" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C204" s="3"/>
-    </row>
-    <row r="205" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C205" s="3"/>
-    </row>
-    <row r="206" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C208" s="3"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C211" s="3"/>
-    </row>
-    <row r="212" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C212" s="3"/>
-    </row>
-    <row r="213" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="175" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="6"/>
-      <c r="B220" s="4"/>
+    <row r="220" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="100" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="6"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C226" s="3"/>
-    </row>
-    <row r="227" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C227" s="3"/>
-    </row>
-    <row r="228" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C229" s="3"/>
-    </row>
-    <row r="230" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C230" s="3"/>
-    </row>
-    <row r="231" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C232" s="3"/>
-    </row>
-    <row r="233" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C233" s="3"/>
-    </row>
-    <row r="234" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C234" s="3"/>
-    </row>
-    <row r="235" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C238" s="3"/>
-    </row>
-    <row r="239" spans="1:3" ht="275" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C239" s="3"/>
-    </row>
-    <row r="240" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" ht="275" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C243" s="3"/>
-    </row>
-    <row r="244" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="B259" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="B260" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="B261" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="B262" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C250" s="3"/>
-    </row>
-    <row r="251" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C252" s="3"/>
-    </row>
-    <row r="253" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C253" s="3"/>
-    </row>
-    <row r="254" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C254" s="3"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C256" s="3"/>
-    </row>
-    <row r="257" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C257" s="3"/>
-    </row>
-    <row r="258" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C258" s="3"/>
-    </row>
-    <row r="259" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C259" s="3"/>
-    </row>
-    <row r="260" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="C260" s="3"/>
-    </row>
-    <row r="261" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C261" s="3"/>
-    </row>
-    <row r="262" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B287" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C263" s="3"/>
-    </row>
-    <row r="264" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C264" s="3"/>
-    </row>
-    <row r="265" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="C287" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B288" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="83" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="110.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="B291" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="235" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="139" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B293" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="C293" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B296" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="224.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="89" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="229" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B268" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="B274" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B276" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="83" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="110.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="235" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="B282" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="139" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
+      <c r="B299" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="C299" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C284" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
+    </row>
+    <row r="300" spans="1:3" ht="125.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B300" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C300" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C285" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B286" s="11" t="s">
+    </row>
+    <row r="301" spans="1:3" ht="94" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="B301" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="224.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="C301" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="B287" s="11" t="s">
+    </row>
+    <row r="302" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C302" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="C303" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="229" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="C289" s="3" t="s">
+    </row>
+    <row r="304" spans="1:3" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="12" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="125.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="12" t="s">
+      <c r="B304" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="B290" s="12" t="s">
+      <c r="C304" s="13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="C290" s="13" t="s">
+      <c r="B305" s="14" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="B291" s="14" t="s">
+      <c r="C305" s="13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C306" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="C291" s="13" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="12" t="s">
+    </row>
+    <row r="307" spans="1:3" ht="86" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B307" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="C307" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="C292" s="15" t="s">
+    </row>
+    <row r="308" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="B308" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="12" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="B293" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="C293" s="13" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="B294" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B295" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="12" t="s">
+      <c r="B310" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="C310" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B311" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="B313" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B314" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="157" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B316" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B317" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C317" s="13" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="92.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B319" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C319" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="C296" s="13" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="86" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B297" s="14" t="s">
-        <v>683</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="B298" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="C298" s="13" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="B299" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="C299" s="13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="B300" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="B301" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="C302" s="13" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="B304" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="157" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>703</v>
+    </row>
+    <row r="320" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="B320" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C320" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B321" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C321" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="109" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="B322" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B323" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="C323" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="B324" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="179.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="B325" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -6554,7 +7148,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -6566,10 +7160,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6577,10 +7171,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jppereiraa\MyWorkspace\algafood-api-master\src\main\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26111FC8-D58B-4295-9182-8DEACDDD2E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC7CD3-6D26-4B1A-95C3-D9BCA5FCF61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="823">
   <si>
     <t>Especialista Spring Rest</t>
   </si>
@@ -324,18 +324,7 @@
 Podemos usar a anotação @JsonInclude(Include.NON_NULL) para ocultar campos nulos na serialização.</t>
   </si>
   <si>
-    <t>Representation Model</t>
-  </si>
-  <si>
-    <t>Retorna apenas aquilo que você quer que retorne
-Campos selecionados, pré definidos
-Fácil Manutenção para entrada e saída de dados sem interferir no banco</t>
-  </si>
-  <si>
     <t>Core</t>
-  </si>
-  <si>
-    <t>Se temos uma Biblioteca “ModelMaper” por exemplo e temos que instancia-la varias vezes, podemos criar uma pasta “core” transformando a lib em um @Configuration e injetamos a classe como @Autowired.</t>
   </si>
   <si>
     <t>PathVariable</t>
@@ -604,14 +593,6 @@
     <t>@OneToMany</t>
   </si>
   <si>
-    <t>- Usado como relacionamento bidirecional para caso precise resgatar alguma informação para regra de negócio
-- Não é necessariamente obrigatório e deve ser usado somente se precisar
-- Como ele traz uma lista em Many, a quantidade de selects serão realizadas de acordo com a quantidade de registros
-- Por esse motivo deve ser usado com cautela e se possível usar com @JsonIgnore
-- Quando tempo classes dependentes usamos cascade para icluir ou remover em outras tabelas
-@OneToMany(mappedBy = “pedido”, cascade = CascadeType.ALL)</t>
-  </si>
-  <si>
     <t>Objetos Embutidos - @Embeddable</t>
   </si>
   <si>
@@ -719,9 +700,6 @@
     <t xml:space="preserve"> @Transactional</t>
   </si>
   <si>
-    <t>Em Sevices, é uma boa prática acrescentar @Transactional em métodos que fazem alteraçõe no banco de dados para desfaze-las caso ocorra alguma exceção</t>
-  </si>
-  <si>
     <t>@JsonIgnore
 @JsonProperty
 @JsonIgoneProperties
@@ -734,62 +712,18 @@
     <t>Mixin</t>
   </si>
   <si>
-    <t>Classe onde serão concentradas as anotações do Jackson para deixar o código mais limpo</t>
-  </si>
-  <si>
-    <t>Formatação de data e Hora</t>
-  </si>
-  <si>
-    <t>1) Use ISO-8601 para formatação de data/hora:
-Usar tipo OffsetDateTime
-“yyyy-mm-ddT14:15:38-03:00” - BRT
-“yyyy-mm-ddT14:15:38Z” – Padrão
-2) Aceite qualquer fuso Horário:
-“yyyy-mm-ddT14:15:38-05:00”
-API deve converter a Data/Hora
-3) Armazene em UTC sem nenhum Offset:
-Defina no Banco de Dados o Padrão UTC e nas configurações do Driver
-4) Retorne em UTC sem nenhum Offset:
-Defina na Classe de Execução do SpringBoot
-TimeZone.setDefault(TimeZone.getTimeZone("UTC"));
-Consumidor (Front) fica responsável por converter a data e hora para o formato local
-5) Não inclua o horário, se não for necessário</t>
-  </si>
-  <si>
     <t>DTO</t>
   </si>
   <si>
-    <t>- Data Transfer Object
-- Traz mais segurança a api
-- Evita o uso de muitas anotações do Jackson como JsonProperties ou JsonIgnore</t>
-  </si>
-  <si>
     <t>ModelMaper</t>
   </si>
   <si>
-    <t>- Possibilita a copia de um objeto para outro:
-modelMapper.map(restauranteInput, restaurante);
-- É possível fazer o skip de um atributo no ModelMapper com streams
-ModelMapper.createTypeMap(ItemPedidoInput.class, ItemPedido.class)
-.addMappings(mapper → mapper.skip(ItemPedido::setId)</t>
-  </si>
-  <si>
     <t>Flush</t>
   </si>
   <si>
-    <t>- Quando usando @Transactional e precisamos encerrar uma operação dentro dentro de um try/catch podemos commit com o repository.flush</t>
-  </si>
-  <si>
     <t>Sincronização com Banco de Dados</t>
   </si>
   <si>
-    <t>- Quando buscamos uma entidade pelo JPA, essa entidade entra em um estado gerenciável.
-- Isso significa que essa entidade está sincronizada com nosso objeto
-- Toda alteração que ocorrer com o objeto, após concluida uma operação é replicada para o banco de dados.
-- Então quado fizermos uma alteração no Objeta não precisamos chamar o save
--  Para evitar sincronização do usuário de contexto podemos usar o método detach em repository</t>
-  </si>
-  <si>
     <t>Set</t>
   </si>
   <si>
@@ -799,45 +733,19 @@
     <t>Collection</t>
   </si>
   <si>
-    <t>- Recebe tanto List quanto Set
-- É um coringa de parâmentro para poder receber um ou outro</t>
-  </si>
-  <si>
     <t>Controller Many To Many</t>
   </si>
   <si>
     <t>@Enumerated(EnumType.STRING)</t>
   </si>
   <si>
-    <t>- Usado para anotar um Enumerate em uma entidade
-- Quando queremos recuperar o STRING do Banco de Dados e Não o numeral do índice correspondente</t>
-  </si>
-  <si>
     <t>@PrePersist</t>
   </si>
   <si>
-    <t>- Essa anotação faz com que antes de persistir o dado uma função possa ser chamada
-- Ideal para casos onde ao cadastrar um item precise gerar uma data de criação ou um código UUID</t>
-  </si>
-  <si>
     <t>@JsonView</t>
   </si>
   <si>
-    <t>- Capaz de trazer apenas os dados que o consumidor necessita em um API
-- Funciona como um filtro igual ao DTO
- @JsonView({RestauranteView.Resumo.class, RestauranteView.ApenasNome.class})</t>
-  </si>
-  <si>
-    <t>MappingJacksonValue</t>
-  </si>
-  <si>
-    <t>Permite atribuir uma JsonView Dinamicamente</t>
-  </si>
-  <si>
     <t>@JsonFilter</t>
-  </si>
-  <si>
-    <t>- Um filtro de propriedades para filtar campos que o cliente deseja consumir</t>
   </si>
   <si>
     <t>squiggly filter</t>
@@ -854,19 +762,6 @@
   </si>
   <si>
     <t>Pesquisas Complexas</t>
-  </si>
-  <si>
-    <t>- Solução 1: por parâmetros da URL (Inicio e Fim, Ativos) ***Preferida
-- Solução 2: Própria pesquisa como recurso (Post com body com parâmetros, inicio-fim, ativos) ***Não muito usada - Evitar
-- Solução 3: Pesquisa como Recurso (Post com body, porém resposta 201 created) ***Cria filtros, depois busca pelo id do filtro</t>
-  </si>
-  <si>
-    <t>Pesquisas Complexas:
-Solução 1</t>
-  </si>
-  <si>
-    <t>- Para a solução 1 podemos utilizar Specification controlando os filtros em uma classe separada de repository
-- Podemos definir roots fazendo fetch para resolvermos o problema de N+1</t>
   </si>
   <si>
     <t>Pageable</t>
@@ -2366,9 +2261,6 @@
 - Com isso criaremos uma Repositório para usarmos para entidades que usamos os mesmos metodos</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
@@ -2404,9 +2296,6 @@
   <si>
     <t>Define data de atualizacao na coluna no momento que a entidade for atualizada
 - É uma anotacao do pacote do Hibernate</t>
-  </si>
-  <si>
-    <t>6.10</t>
   </si>
   <si>
     <t xml:space="preserve"> Onde para cada registro é gerado uma consulta extra
@@ -2437,13 +2326,6 @@
 - Trabalha com cache para tentar otimizar as queries
 Para não disparar vários carregamentos, utilize a propriedade Lazy 
 @ManyToOne(fetch = FetchType.LAZY)</t>
-  </si>
-  <si>
-    <t>- Se colocado dentro da Classe que faz a seralização ou desserializaçõa de outra entidade, então só ignorará nessa dependencia.  @JsonIgnoreProperties(value = "nome", allowGetters = true)
-- @JsonIgnore ignora o atributo na serializacao
-- @JsonProperty faz a alteração do nome do atributo
-- @JsonRootName faz alteração do root da classe
-- @JsonIgnoreProperties ignora atributos de uma classa ao serializar</t>
   </si>
   <si>
     <t>7.1</t>
@@ -3538,6 +3420,366 @@
 			.statusCode(HttpStatus.OK.value())
 			.body("nome", equalTo(burgerTopRestaurante.getNome()));
 	}</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>- Em Sevices, é uma boa prática acrescentar @Transactional em métodos publicos que fazem alteraçõe no banco de dados para desfaze-las caso ocorra alguma exceção
+- Métodos como salvar, excluir, atualizar devem levar a anotação @Transactional</t>
+  </si>
+  <si>
+    <t>4.15
+11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>- Se colocado dentro da Classe que faz a seralização ou desserializaçõa de outra entidade, então só ignorará nessa dependencia.  @JsonIgnoreProperties(value = "nome", allowGetters = true)
+- @JsonIgnore ignora o atributo na serializacao
+- @JsonProperty faz a alteração do nome do atributo
+- @JsonRootName faz alteração do root da classe
+- @JsonIgnoreProperties ignora atributos de uma classa ao serializar (marcamos um objeto dentro de uma classe especificando as propriedades)</t>
+  </si>
+  <si>
+    <t>Classe onde serão concentradas as anotações do Jackson para deixar o código mais limpo
+Possui membros d€uma classe original</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>Leis de
+Formatação de data e Hora</t>
+  </si>
+  <si>
+    <t>1) Use ISO-8601 para formatação de data/hora:
+Usar tipo OffsetDateTime
+“yyyy-mm-ddT11:15:38-03:00” - BRT
+“yyyy-mm-ddT14:15:38Z” – Padrão (FORMATO UTC COM Z)
+2) Aceite qualquer fuso Horário:
+“yyyy-mm-ddT14:15:38-05:00”
+API deve converter a Data/Hora
+3) Armazene SEMPRE em UTC sem nenhum Offset ou seja com o Z no Final
+Defina no Banco de Dados o Padrão UTC e nas configurações do Driver
+4) Retorne em UTC sem nenhum Offset:
+Defina na Classe de Execução do SpringBoot
+TimeZone.setDefault(TimeZone.getTimeZone("UTC"));
+Consumidor (Front) fica responsável por converter a data e hora para o formato local
+5) Não inclua o horário, se não for necessário</t>
+  </si>
+  <si>
+    <t>OffsetDateTime</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>Formato ideal para se trabalhar com Data e Hora em uma API
+Leva o seguinte formato yyyy-mm-ddT14:15:38Z sempre com um Z no final também conhecido como UTC
+É o horário do ponto zero da TImeZone
+O consumidor debe consumir esse dado e converter de acordo com sua regiao
+O frontend recebe a hora com TIME ZONE -3 converte em UTC e armazena no Banco
+Quando consulta ele recebe UTC e aplica TimeZone para apresentar para o cliente
+private OffsetDateTime dataConfirmacao;</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>Representation Model (DTO)</t>
+  </si>
+  <si>
+    <t>Retorna apenas aquilo que você quer que retorne
+Campos selecionados, pré definidos
+Fácil Manutenção para entrada (Input) e saída (Model) de dados sem interferir no banco
+Representada na camada de aplicação</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>- Data Transfer Object
+- Classe de tranferencia de dados
+- Desacopla o Domain Model
+- Traz mais segurança a api
+- Evita o uso de muitas anotações do Jackson como JsonProperties ou JsonIgnore
+- Prefira receber os dados em um InputModel e também devolve-los como um Model</t>
+  </si>
+  <si>
+    <t>toDomainObject</t>
+  </si>
+  <si>
+    <t>11.11</t>
+  </si>
+  <si>
+    <t>toModel</t>
+  </si>
+  <si>
+    <t>- Converte de Entidade para um RepresentatioModel ou seja um DTO
+- consulta um Banco e recebe Restaurante e devolve para o usuário um RestauranteModel
+- Faz com que os dados de uma entidade não sejam expostos para fora da API</t>
+  </si>
+  <si>
+    <t>- Converte os dados de Entrada para um calsse que representa nossa entidade no banco de dados
+- Recebe um RestauranteInput e converte para Restaurante
+- As Anotattions ficam apenas em na classe de Input
+- Um RestauranteInput debe conter uma CozinhaIdInput</t>
+  </si>
+  <si>
+    <t>Assembler de DTO</t>
+  </si>
+  <si>
+    <t>11.12</t>
+  </si>
+  <si>
+    <t>- Um "montador" de DTO
+- Um RestauranteModelAssembler converte de Entidade para Model
+- Responsabilidade única que auxilia para ser reutilizada em outros Controladores
+- Deve ser anotado com um @Component e injetado nos controllers
+- Devemos ter um dissabembler que fará o contrário de Modelo para Entidade</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>Se temos uma Biblioteca “ModelMaper” por exemplo e temos que instancia-la varias vezes, podemos criar uma pasta “core” transformando a lib em um @Configuration e injetamos a classe como @Autowired.
+Definimos um @Bean ajustamos as configurações do jeito que precisamos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>- Possibilita a copia de um objeto para outro:
+modelMapper.map(restauranteInput, restaurante);
+Ele é inteligente o bastante para saber que frete e taxaFrete são a mesma correspondência.
+o mesmo com idCozinha e Cozinha { id: id }
+É possível customizar qual correspondência podemos ter utilizando createType
+modelMapper.createTypeMap(Restaurante.class, RestauranteModel.class)
+           .addMapping(Restaurante::getTaxaFrete, RestauranteModel::setPrecoFrete);
+- É possível fazer o skip de um atributo no ModelMapper com lambda e streams
+ModelMapper.createTypeMap(ItemPedidoInput.class, ItemPedido.class)
+.addMappings(mapper → mapper.skip(ItemPedido::setId)</t>
+  </si>
+  <si>
+    <t>11.19</t>
+  </si>
+  <si>
+    <t>SNAKE CASE
+Json</t>
+  </si>
+  <si>
+    <t>Para retornar snake case nos json devemos adicionar uma configuração em nosso properties
+spring.jackson.property-naming-strategy=SNAKE_CASE
+OBS: A Recomendação é que SEMPRE utilizemos Lower Camel Case</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>- Quando usando @Transactional e precisamos encerrar uma operação dentro dentro de um try/catch podemos commit com o repository.flush
+- Corrige bug de tratamente de DataIntegrity Violation quando temos mais de uma @Transactional envolvida
+devemos fazer o flush logo após a exclusão
+repository.delete(id)
+repository.flush()</t>
+  </si>
+  <si>
+    <t>Chatty Vs Chunky API</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São as formas de granularidade de uma API
+- Chatty API (Tagarela):  é uma api que precisa ser chamada varias vezes para executar uma unica operação comum
+Exemplo: adiciona recurso, ativa recurso, adiciona itens ao recurso
+- Chunky API: (Pedaços Maiores) Operações são feitas em uma unica requisição
+Exemplo: restaurante, produtos, endereços </t>
+  </si>
+  <si>
+    <t>Endpoint de 
+Notificações</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>Podemos modelar um endpoint para envio de notificações para vários serviços ou mesmo email para varias pessoas utilizando um endpoint para notificações
+POST /notificacoes-restaurantes
+{
+"assunto": "Campanha de Natal",
+"mensagem": "Vamos iniciar uma campanha..."</t>
+  </si>
+  <si>
+    <t>Endpoint de 
+Ativação e Desativação</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>Podemos definir um endpoint para ativação e desativção de um recurso:
+PUT /restaurante/ativacao
+Com isso podemos manipular o estado de uma Entidade</t>
+  </si>
+  <si>
+    <t>- Quando buscamos uma entidade pelo JPA, essa entidade entra em um estado gerenciável (sincronizado com o banco)
+- Isso significa que essa entidade está sincronizada com nosso objeto
+- Em uma função com @Transactional, toda alteração que ocorrer com o objeto, após concluida uma operação é replicada para o banco de dados.
+- Então quado fizermos uma alteração no Objeta não precisamos chamar o save
+Restaurante restauranteAtual = buscarOuFalhar(restauranteId);
+restauranteAtual.ativar();
+-  Para evitar sincronização do usuário de contexto podemos usar o método detach em repository</t>
+  </si>
+  <si>
+    <t>Detach</t>
+  </si>
+  <si>
+    <t>Faz a dessincronizção do objeto manipulado com o banco de dados
+Evita problemas com duplicidade de dados em memória</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>12.4
+12.10</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>- Recebe tanto List quanto Set
+- É uma interface Para poder receber um ou outro</t>
+  </si>
+  <si>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>12.19</t>
+  </si>
+  <si>
+    <t>- Usado para anotar um Enumerate em uma entidade
+- Quando queremos recuperar o STRING do Banco de Dados e Não o numeral do índice correspondente
+@Enumerated(EnumType.STRING)
+private StatusPedido status = StatusPedido.CRIADO;</t>
+  </si>
+  <si>
+    <t>6.10
+12.20</t>
+  </si>
+  <si>
+    <t>6.1
+12.21</t>
+  </si>
+  <si>
+    <t>- Usado como relacionamento bidirecional para caso precise resgatar alguma informação para regra de negócio
+- Não é necessariamente obrigatório e deve ser usado somente se precisar
+- Como ele traz uma lista em Many, a quantidade de selects serão realizadas de acordo com a quantidade de registros
+- Por esse motivo deve ser usado com cautela e se possível usar com @JsonIgnore
+- Quando tempo classes dependentes usamos cascade para icluir ou remover em outras tabelas
+@OneToMany(mappedBy = "pedido", cascade = CascadeType.ALL)
+private List&lt;ItemPedido&gt; itens = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>Endpoints de Transição</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>Endpoint de transição são Endpoint de mudança de estado de um recurso
+- Podemos ter um controller destinado a ele para facilitar sua manutenção
+@RequestMapping("/pedidos/{codigoPedido}")
+public class FluxoPedidoController {…}
+- Sua implementação é bem simples:
+@PutMapping("/confirmacao")
+@ResponseStatus(HttpStatus.NO_CONTENT)
+public ResponseEntity&lt;Void&gt; confirmar(@PathVariable String codigoPedido) {..}
+Definimos a propriedade em questão para "private" para que seja possivel altere-la somente pelo endpoint
+private void setStatus(StatusPedido novoStatus){...}</t>
+  </si>
+  <si>
+    <t>12.25</t>
+  </si>
+  <si>
+    <t>UUID como Identificador</t>
+  </si>
+  <si>
+    <t>- Podemos ter um UUID como identificador do pedido 
+- Esse código será passado para o cliente em vez de expor o ID da entidade da tabela
+- Geramos esse ID ao criar o Pedido:
+@PrePersist private void gerarCodigo() { setCodigo(UUID.randomUUID().toString());}
+- Alteramos o Modelo da API para devolvel o código do pedido em vez do ID através do DTO
+- No controller também podemos buscar pelo código em vez do ID</t>
+  </si>
+  <si>
+    <t>- Essa anotação faz com que antes de persistir o dado uma função possa ser chamada
+- É um método de callback do JPA, executado logo após a sincronização com a base dados e antes de persistir
+- Ideal para casos onde ao cadastrar um item precise gerar uma data de criação ou um código UUID</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>- Capaz de trazer apenas os dados que o consumidor necessita em um API
+- Funciona como um filtro igual ao DTO
+ @JsonView({RestauranteView.Resumo.class, RestauranteView.ApenasNome.class})
+- Se quisermos usar MappingJacksonValue ele permitirá atribuir uma JsonView Dinamicamente</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>- Um filtro de propriedades para filtar campos que o cliente deseja consumir
+- campos: nome, valorFrete, cliente.nome</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Pesquisas Simples na API</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>- Para adicionar filtro simples basta criarmos uma query personalizada passando uma flag como queryParams e consultar essa flag se queremos filtrar os resultados ou não
+- Se a flag for true chama uma query se não ela chama outra query</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>- Solução 1: por parâmetros da URL (Inicio e Fim, Ativos) ***Preferida
+- Solução 2: Própria pesquisa como recurso (Post com body com parâmetros, inicio-fim, ativos) ***Não muito usada - Evitar ****
+- Solução 3: Pesquisa como Recurso (Post com body, porém resposta 201 created) ***Cria filtros, depois busca pelo id do filtro</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>Pesquisas Simples:
+Solução 1</t>
+  </si>
+  <si>
+    <t>- Para a solução 1 podemos utilizar Specification controlando os filtros em uma classe separada de repository
+- Passamos o filtro como parâmetro no repository:
+Page&lt;Pedido&gt; pedidosPage = pedidoRepository.findAll(PedidoSpecs.usandoFiltro(filtro), pageableTraduzido);
+- Lembrando que o repositório deve herdar JPASpecificationExecutor:
+public interface PedidoRepository extends CustomJpaRepository&lt;Pedido, Long&gt;, JpaSpecificationExecutor&lt;Pedido&gt;{...}
+- Podemos definir roots fazendo fetch para resolvermos o problema de N+1</t>
+  </si>
+  <si>
+    <t>@DateTimeFormat</t>
+  </si>
+  <si>
+    <t>-Define um formato datetime em uma propriedade de uma classe cobrigando a conversão de uma string para o formato OffsetDatetime:
+@DateTimeFormat(iso = ISO.DATE_TIME)
+private OffsetDateTime dataCriacaoInicio;
+- Com isso podemos agora passar uma da tem String por parâmetro:
+2019-10-30T10:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -3863,26 +4105,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="139.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="139.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3895,16 +4137,16 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3915,7 +4157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="99.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="99.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3937,7 +4179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3959,7 +4201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3970,7 +4212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3981,7 +4223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="50.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -4014,7 +4256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -4025,7 +4267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4047,7 +4289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
@@ -4055,10 +4297,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -4069,7 +4311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -4080,7 +4322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -4091,7 +4333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
@@ -4102,18 +4344,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="113.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="113.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -4121,32 +4363,32 @@
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
@@ -4157,7 +4399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
@@ -4168,7 +4410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -4176,588 +4418,588 @@
         <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="52.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="106.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C44" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C46" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="93.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="93.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="C48" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="B50" s="4" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="80.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B60" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="103.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="89.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="89.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="B64" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="117.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="C66" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="117.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="C69" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B70" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="131" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="B73" s="4" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="80.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="84.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="84.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="B80" s="11" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -4765,186 +5007,186 @@
         <v>66</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="108.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="108.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="B86" s="4" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="60.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="112.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="135.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4952,2168 +5194,2343 @@
         <v>65</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="98.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="98.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="145" customHeight="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="145.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" ht="111.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="235.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="150.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="153.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="C113" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="77.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" ht="111.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="B117" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="239.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B118" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="235" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="B119" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B108" s="11" t="s">
+    </row>
+    <row r="120" spans="1:6" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="150.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="C120" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="67.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="C122" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="153.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B114" s="4" t="s">
+    </row>
+    <row r="125" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" ht="77.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="B126" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B128" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F128" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="B132" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B134" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" ht="239.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="C134" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B135" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="B136" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B137" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" ht="23.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="B139" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B141" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="B142" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="C143" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B145" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B154" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B155" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B156" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B158" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B160" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="C162" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="B164" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="B165" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="B166" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="B168" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C168" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="B169" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="B170" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="B171" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="B172" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B150" s="4" t="s">
+      <c r="B173" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B174" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B175" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B176" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B177" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B178" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C161" s="3"/>
-    </row>
-    <row r="162" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="174" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
+    <row r="183" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="B183" s="4" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B211" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C188" s="3"/>
-    </row>
-    <row r="189" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B212" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B214" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B215" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B216" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B217" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B218" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B219" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B220" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B221" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B222" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B223" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B224" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C201" s="3"/>
-    </row>
-    <row r="202" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B225" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C202" s="3"/>
-    </row>
-    <row r="203" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B226" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C204" s="3"/>
-    </row>
-    <row r="205" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B228" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C205" s="3"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B229" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B230" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B231" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C208" s="3"/>
-    </row>
-    <row r="209" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B232" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B233" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B234" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C211" s="3"/>
-    </row>
-    <row r="212" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B235" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C212" s="3"/>
-    </row>
-    <row r="213" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B236" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C213" s="3"/>
-    </row>
-    <row r="214" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B237" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B238" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C215" s="3"/>
-    </row>
-    <row r="216" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B239" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C216" s="3"/>
-    </row>
-    <row r="217" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B240" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C217" s="3"/>
-    </row>
-    <row r="218" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B241" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="6"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B243" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C219" s="3"/>
-    </row>
-    <row r="220" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B244" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C220" s="3"/>
-    </row>
-    <row r="221" spans="1:3" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B245" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C221" s="3"/>
-    </row>
-    <row r="222" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B246" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C222" s="3"/>
-    </row>
-    <row r="223" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B247" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C223" s="3"/>
-    </row>
-    <row r="224" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B248" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C224" s="3"/>
-    </row>
-    <row r="225" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B249" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B250" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C226" s="3"/>
-    </row>
-    <row r="227" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B251" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C227" s="3"/>
-    </row>
-    <row r="228" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B252" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B253" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C229" s="3"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="3"/>
-    </row>
-    <row r="231" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B254" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B255" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C232" s="3"/>
-    </row>
-    <row r="233" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B256" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C233" s="3"/>
-    </row>
-    <row r="234" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B257" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C234" s="3"/>
-    </row>
-    <row r="235" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B258" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B259" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B260" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="1:3" ht="290.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B261" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C238" s="3"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B262" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C239" s="3"/>
-    </row>
-    <row r="240" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B263" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B264" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B265" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B266" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C243" s="3"/>
-    </row>
-    <row r="244" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B267" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B268" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="1:3" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B269" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B270" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B271" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" ht="275" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B272" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B273" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C250" s="3"/>
-    </row>
-    <row r="251" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B274" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B275" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C252" s="3"/>
-    </row>
-    <row r="253" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B276" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C253" s="3"/>
-    </row>
-    <row r="254" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B277" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C254" s="3"/>
-    </row>
-    <row r="255" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B278" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B279" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C256" s="3"/>
-    </row>
-    <row r="257" spans="1:3" ht="175" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B280" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C257" s="3"/>
-    </row>
-    <row r="258" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B281" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C258" s="3"/>
-    </row>
-    <row r="259" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B282" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C259" s="3"/>
-    </row>
-    <row r="260" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B283" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C260" s="3"/>
-    </row>
-    <row r="261" spans="1:3" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B284" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C261" s="3"/>
-    </row>
-    <row r="262" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B285" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C262" s="3"/>
-    </row>
-    <row r="263" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B286" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C263" s="3"/>
-    </row>
-    <row r="264" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B287" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C264" s="3"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B288" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B289" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="69.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B298" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
+      <c r="B299" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C268" s="3"/>
-    </row>
-    <row r="269" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B269" s="4" t="s">
+      <c r="C299" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="42.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C269" s="3"/>
-    </row>
-    <row r="270" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
+      <c r="B300" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="82.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="110.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B303" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="235.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="139.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C270" s="3"/>
-    </row>
-    <row r="271" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
+      <c r="B305" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="C305" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="48.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C271" s="3"/>
-    </row>
-    <row r="272" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
+      <c r="B308" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="224.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="229.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C272" s="3"/>
-    </row>
-    <row r="273" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C273" s="3"/>
-    </row>
-    <row r="274" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C274" s="3"/>
-    </row>
-    <row r="275" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C275" s="3"/>
-    </row>
-    <row r="276" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C276" s="3"/>
-    </row>
-    <row r="277" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C277" s="3"/>
-    </row>
-    <row r="278" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B282" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B283" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="B284" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="142.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B288" s="11" t="s">
+      <c r="B311" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="125.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="83" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
+      <c r="B312" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="C312" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="C289" s="3" t="s">
+    </row>
+    <row r="313" spans="1:3" ht="94.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="12" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B290" s="11" t="s">
+      <c r="B313" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C313" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="110.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B291" s="11" t="s">
+    <row r="314" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B314" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C314" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="C315" s="13" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="235" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B292" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="139" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
+    <row r="316" spans="1:3" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B316" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C294" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
+      <c r="C316" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="60.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="C295" s="3" t="s">
+      <c r="B317" s="14" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B296" s="11" t="s">
+      <c r="C317" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="135.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="C296" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="224.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B297" s="11" t="s">
+      <c r="B319" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="C319" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="B298" s="11" t="s">
+    </row>
+    <row r="320" spans="1:3" ht="118.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="B320" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C320" s="13" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="229" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="C299" s="3" t="s">
+    <row r="321" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="12" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="125.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="12" t="s">
+      <c r="B321" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C321" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="B300" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="C300" s="13" t="s">
+    </row>
+    <row r="322" spans="1:3" ht="53.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="12" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="12" t="s">
+      <c r="B322" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="C322" s="13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="81.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="C301" s="13" t="s">
+      <c r="B323" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C323" s="13" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="12" t="s">
+    <row r="324" spans="1:3" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B324" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="B302" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="C302" s="15" t="s">
+      <c r="C324" s="13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B325" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="B326" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="157.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="B327" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C327" s="13" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="B304" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="B306" s="14" t="s">
+    <row r="328" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="B329" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="C329" s="13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="92.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B330" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="C331" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C332" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="70.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B333" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C333" s="13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="109.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B334" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B335" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C335" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B336" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="C336" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="179.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="C306" s="13" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="86" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="B307" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="C307" s="13" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="B308" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="B309" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="C309" s="13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B310" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C310" s="13" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="C311" s="13" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="B312" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C312" s="13" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="B313" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="157" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="B315" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="C315" s="13" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="12" t="s">
+      <c r="B337" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C337" s="13" t="s">
         <v>695</v>
-      </c>
-      <c r="B316" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="C316" s="13" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="B317" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="C317" s="13" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="92.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B319" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="C319" s="13" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="B320" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="C320" s="13" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="B321" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="109" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="B322" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="C322" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="B323" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="C323" s="13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="B324" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="C324" s="13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="179.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B325" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="C325" s="13" t="s">
-        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -7140,15 +7557,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.26953125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="34.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -7160,10 +7577,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7171,10 +7588,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="930">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -2203,36 +2203,11 @@
 No Projeto</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Interface de Email ficará localizada em domain/service
-Interface deve conter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">assinatura enviar e uma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">classe interna de Mensagem com Set de destinatarios, assunto e corpo
+    <t xml:space="preserve">Interface de Email ficará localizada em domain/service
+Interface deve conter assinatura enviar e uma classe interna de Mensagem com Set de destinatarios, assunto e corpo
 Implementação em infraestructure/service/email
 Exceptions deve estar dentro do mesmo pacote
 Implementacao deve recceber javamailSender e emailProperties</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">15.3</t>
@@ -2371,32 +2346,16 @@
     <t xml:space="preserve">Classe Event</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- É uma boa prática que o nome da Classe/Evento seja uma ação no passado, que acabou de acontecer (Confirmado, cancelado, etc)
+    <t xml:space="preserve">- É uma boa prática que o nome da Classe/Evento seja uma ação no passado, que acabou de acontecer (Confirmado, cancelado, etc)
 - Precisa de atributos relacionados aquele evento:
 PedidoConfirmadoEvent:
 - Pedido
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A classe deve estender AbstractAggregateRoot
+A classe deve estender AbstractAggregateRoot
 public class Pedido extends AbstractAggregateRoot&lt;Pedido&gt;{…}
 Com isso estará apta a registrar um evento:
 registerEvent(new PedidoConfirmadoEvent(this));
 Evento deve ser no passado pois já aconteceu e deve passar sua instancia como argumento
 OBSERVAÇÃO: Os eventos só serão disparados se ocorrer uma ação no banco de dados como por exemplo um repository.save()</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">15.11</t>
@@ -2405,14 +2364,7 @@
     <t xml:space="preserve">Classe Listener</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Recebe anotação @EventListener
+    <t xml:space="preserve">- Recebe anotação @EventListener
 - Ao passar o Evento como argumento, automaticamente a função será disparada ao emitir esse evento.
 - com @TransactionalEventListener a função só é chamada DEPOIS que a ação no banco for executada
 - com @EventListener a função é disparada um pouco antes de gravar dados no banco, um pouco ANTES do flush
@@ -2423,16 +2375,7 @@
 @TransactionalEventListener
 	public void aoConfirmarPedido(PedidoConfirmadoEvent event) {…}
 Podemos controlar o momento que o Listener é chamado, por padrão se não especificarmos é AFTER_COMMIT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">@TransactionalEventListener(phase=TransactionPhase.BEFORE_COMMIT)</t>
-    </r>
+@TransactionalEventListener(phase=TransactionPhase.BEFORE_COMMIT)</t>
   </si>
   <si>
     <t xml:space="preserve">15.12</t>
@@ -2442,12 +2385,15 @@
   </si>
   <si>
     <t xml:space="preserve">Para testar o CORS criaremos um cliente http servimos um servidor:
-- Em python
+- Em python, na pasta com os aqruivos faça
 python -m http.server
 - Em Node
 http-server -p 8000</t>
   </si>
   <si>
+    <t xml:space="preserve">16.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CORS</t>
   </si>
   <si>
@@ -2455,21 +2401,38 @@
 Same Origin Policy</t>
   </si>
   <si>
+    <t xml:space="preserve">ACCESS_CONTROL_ALLOW_ORIGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEMPLO DIDÁTICO: NÃO SE UTILIZA EM PRODUÇÃO
+Podemos definir no cabeçalho a permissão sobre a origin que podemos ter:
+ResponseEntity.ok().header(HttpHeaders.ACCESS_CONTROL_ALLOW_ORIGIN, “http://algafood..local:8080”).body(restauranteModel);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">@CrossOrigin</t>
   </si>
   <si>
     <t xml:space="preserve">- Anotação do Spring que implementa o CORS, podendo ser anotada o controlador ou uma função: 
 @CrossOrigin(origins = "http://api.algafood.local:8000")  
+@CrossOrigin
+public class RestauranteController {...}
 - Faz a validação server-side, sem nenhum retorno, com código 403 
  - Se não especificar nada o padrão é  “ * ”  
 - MaxAge = 10, define o cache do Preflight
 </t>
   </si>
   <si>
+    <t xml:space="preserve">16.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preflight</t>
   </si>
   <si>
     <t xml:space="preserve">- É um chamada de verificação: OPTIONS
+- Quando fazemos um PUT a origem faz um OPTIONS antes para saber se pode realizar a requisição
 - verifica com o servidor se ele pode executar a requisição
 - servidor retorna cabeçalho com detalhes da requisição do que é permitido:
 Método: Put, Get Patch
@@ -2477,6 +2440,9 @@
 - O Preflight é cahamdo sempre quando não é realizada uma requisição simples ou seja se tem algum cabeçalho com alguns itens não identificados o OPTIONS é chamado.</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cors Global</t>
   </si>
   <si>
@@ -2484,17 +2450,37 @@
 - Podemos permitir as configurações de forma automatica por padrão ou manual com:
 - allowedMethods: GET, POST, PUT, *
 - allowedOrigins: *
-- maxAge(30)</t>
+- maxAge(30)
+@Configuration
+public class WebConfig implements WebMvcConfigurer{…}
+ addCOrsOrigins(CorsRegistry registry)){ registry....allowOrigins(*)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transforma um objeto String em Json
+Faz a desseriallzação de um objeto para uma Classe definida
+ObjectMapper mapper = new ObjectMapper();
+mapper.registerModule(new JavaTimeModule());
+Problem problem = mapper.readValue(cause.getResponseBodyAsString(), Problem.class);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.11</t>
   </si>
   <si>
     <t xml:space="preserve">Cache</t>
   </si>
   <si>
-    <t xml:space="preserve">- Quando a representação está Fresh, podemos usar mas quando está stailed não podemos
+    <t xml:space="preserve">- Quando a representação está Fresh(cache pode ser usado), podemos usar mas quando está stailed não podemos
 Podemos adicionar o cache no retorno da função individualmente passando o controle de tempo:
 ResponseEntity.ok()
 	    		.cacheControl(CacheControl.maxAge(10, TimeUnit.SECONDS))
-	    		.body(formasPagamentoModel);</t>
+	    		.body(formasPagamentoModel);
+No chrome quando a requisição é servida pelo cache é apresentado a mensagem (from disk cache)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2</t>
   </si>
   <si>
     <t xml:space="preserve">Talend API Tester</t>
@@ -2511,37 +2497,48 @@
   </si>
   <si>
     <t xml:space="preserve">- Entity tags: é um código único representado pelo servidor no retorno da requisição
-- Cabeçalho recebe um campos Id-None-Match na requisição: 6198c0be3
+- Cabeçalho recebe um campos Id-None-Match na requisição: 6198c0be3 (ID de representação do cache)
 e Etag na resposta:  6198c0be3
-- Se forem iguais retorna resposta de status 304
+- Se forem iguais retorna resposta de status 304 (É possível visualizar isso usando WireShark)
 - O Filtro Etag pode ser adicionado via classe de confiuração com o Bean ShallowEtagHeaderFilter </t>
   </si>
   <si>
-    <t xml:space="preserve">Cache Private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Armazena Cache apenas em Navegadores com cache local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cache Public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Armazenada em Cache Local e Compartilhada
-- Normalmente habilitada por Padrão </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoCache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sempre fará validação no Servidor
-- Força estado STALE da cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Não Permite Cache
-- Desativa o Cache</t>
+    <t xml:space="preserve">17.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuração de Etag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para manipular eTags, adicionamos um bean de filtro de interceptação,
+Isso fará com que seja possível visualizar as eTags nas respostas das requisições.
+@Bean
+Filter shallowEtagHeaderFilter() {return new ShallowEtagHeaderFilter();}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretivas de Cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cache Private:
+- Armazena Cache apenas em Navegadores com cache local, cache não compartilhado
+ResponseEntity.ok().cacheControl(CacheControl.maxAge(10, TimeUnit.SECONDS).cachePrivate())...
+Cache Public:
+- Armazenada em Cache Local e Compartilhada
+- Normalmente habilitada por Padrão
+ResponseEntity.ok().cacheControl(CacheControl.maxAge(10, TimeUnit.SECONDS).cachePublic())…
+NoCache:
+Sempre fará validação no Servidor
+- Força estado STALE da cache
+ResponseEntity.ok().cacheControl(CacheControl.noCache())…
+NoStore:
+- Não Permite Cache
+- Desativa o Cache
+ResponseEntity.ok().cacheControl(CacheControl.noCache())...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6</t>
   </si>
   <si>
     <t xml:space="preserve">Cache-Control</t>
@@ -2552,22 +2549,39 @@
 - Cache-Control: no-cache</t>
   </si>
   <si>
+    <t xml:space="preserve">17.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deep eTag</t>
   </si>
   <si>
     <t xml:space="preserve">-  É um cache manual onde você faz o controle do cache
-- geralmente usamos um campo has ou data para montar nosso eTag</t>
+- geralmente usamos um campo has ou data para montar nosso eTag
+- Podemos desativar o gerenciamento automático e manipular isso de forma manual:
+listar(ServletWebRequest request) {…}  // Receber requisição com Servletresponse
+ShallowEtagHeaderFilter.disableContentCaching(request.getRequest());
+if (dataUltimaAtualizacao != null) eTag = String.valueOf(dataUltimaAtualizacao.toEpochSecond());
+if (request.checkNotModified(eTag)) { return null;} (retorna null pois a cache assumirá a resposta)
+ResponseEntity.ok().cacheControl(CacheControl.maxAge(10, TimeUnit.SECONDS).cachePublic())
+.eTag(eTag).body(formasPagamentosModel);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8</t>
   </si>
   <si>
     <t xml:space="preserve">Swagger</t>
   </si>
   <si>
     <t xml:space="preserve">- Conjunto de Ferramentas que auxiliam quem adotam Open Api Specification
+- Swagger Specification é um nome antigo para o que hoje é Open Api Specification
 - Swagger Editor: Edição de Arquivos Yml ou Json dentro do Navegador
 - Spring Fox: Escaneia o Código gera definições em json e documentação swagger ui
 - Swagger UI: Documentação em HTML gerado dinamicamente por definições em Json
 - Swagger Codegen: Gera código de cliente da API em diversas linguagens.
 Acesso: http://api.algafood.local:9000/swagger-ui/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2</t>
   </si>
   <si>
     <t xml:space="preserve">Spring Fox</t>
@@ -2579,6 +2593,9 @@
 - RequestHandlerSelectors.any() expõe todos
 - RequestHandlerSelectors.basePackage("com.algaworks.algafood.api") – expõe somente a api
 - buscar documentação na url /v3/api-docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3</t>
   </si>
   <si>
     <t xml:space="preserve">Maven Conflict</t>
@@ -2595,6 +2612,9 @@
 		&lt;/exclusions&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">18.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swagger UI</t>
   </si>
   <si>
@@ -2608,6 +2628,9 @@
 - Pode ser definida na classe de configuração da API</t>
   </si>
   <si>
+    <t xml:space="preserve">18.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Api Tag</t>
   </si>
   <si>
@@ -2615,16 +2638,27 @@
 - Ao criar uma Tag é preciso associar a tag ao Controlador @Api(tags="Cidades")</t>
   </si>
   <si>
+    <t xml:space="preserve">18.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">ApiOperation</t>
   </si>
   <si>
-    <t xml:space="preserve">- É possível alterar os nomes dos métodos também com @ApiOperation("Busca uma cidade por ID")</t>
+    <t xml:space="preserve">'- É possível alterar os nomes dos métodos também com @ApiOperation("Busca uma cidade por ID")
+- Podemos definir response apontando para uma classe de documentação quando tempo uma resposta personalizada
+@ApiOperation(value = "Lista restaurantes", response = RestauranteBasicoModelOpenApi.class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8</t>
   </si>
   <si>
     <t xml:space="preserve">ApiParam</t>
   </si>
   <si>
     <t xml:space="preserve">- Descreve os parâmentros de uma função como @ApiParam(value = "ID de uma cidade", example = "1")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9</t>
   </si>
   <si>
     <t xml:space="preserve">ApiModel</t>
@@ -2634,13 +2668,14 @@
 @ApiModel(value = "Cidade", description = "Respresent uma cidade")</t>
   </si>
   <si>
+    <t xml:space="preserve">18.10</t>
+  </si>
+  <si>
     <t xml:space="preserve">ApiModelProperty</t>
   </si>
   <si>
-    <t xml:space="preserve">-  Com a anotação de @ApiModel podemos descrever o nome do model:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Podemos definir as propriedades com:
+    <t xml:space="preserve">'-  Com a anotação de @ApiModel podemos descrever o nome do model:
+- Podemos definir as propriedades com:
 @ApiModelProperty(example = "São José dos Campos", required=true)
 Ou podemos aproveitar a validação do bean validation acrescentando no pom:
 Springfox-bean-validators</t>
@@ -2651,6 +2686,9 @@
   <si>
     <t xml:space="preserve">- Adiciona Modelos de Representação a sua documentação
 - Geralmente classes que não estão ligadas ao controller, como por exemplo uma Problem.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.14</t>
   </si>
   <si>
     <t xml:space="preserve">Externalizar Documentação</t>
@@ -2669,6 +2707,9 @@
 .directModelSubstitute(Pageable.class, PageableModelOpenApi.class)</t>
   </si>
   <si>
+    <t xml:space="preserve">18.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ignorar parâmetros</t>
   </si>
   <si>
@@ -2676,24 +2717,28 @@
 .ignoredParameterTypes(ServletWebRequest.class)</t>
   </si>
   <si>
+    <t xml:space="preserve">18.23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parâmetros Globais</t>
   </si>
   <si>
     <t xml:space="preserve">- Podemos especificar um parâmetro global com globalRequestParameters</t>
   </si>
   <si>
+    <t xml:space="preserve">18.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parâmetros Implícitos Específicos</t>
   </si>
   <si>
     <t xml:space="preserve">- Para parâmetros específicos para determinados métodos podemos especificar com a anotação:
-@ApiImplicitParams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ApiOperation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Podemos definir response apontando para uma classe de documentação quando tempo uma resposta personalizada
-@ApiOperation(value = "Lista restaurantes", response = RestauranteBasicoModelOpenApi.class)</t>
+	@ApiImplicitParams({
+			@ApiImplicitParam(value = "Nome da projeção de pedidos", allowableValues = "apenas-nome",
+Name = "projecao", paramType = "query", type = "string")})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.26</t>
   </si>
   <si>
     <t xml:space="preserve">Discoverability Vs Hateoas</t>
@@ -2701,6 +2746,9 @@
   <si>
     <t xml:space="preserve">- Discoverability: Capacidade que a api da aos consumidores de navegar em seus recursos sem conhecer previamente suas URIs (é um Conceito)
 - HATEOAS é um componente do Rest que torna isso possível através da inclusão de hypermedia nas respostas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1</t>
   </si>
   <si>
     <t xml:space="preserve">ServletUriComponentsBuilder</t>
@@ -2713,6 +2761,9 @@
 .buildAndExpand(cidadeModel.getId()).toUri();</t>
   </si>
   <si>
+    <t xml:space="preserve">19.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">HttpServletResponse</t>
   </si>
   <si>
@@ -2722,23 +2773,54 @@
 - response.setHeader(HttpHeaders.LOCATION, uri.toString()); </t>
   </si>
   <si>
+    <t xml:space="preserve">@UtilityClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma anotação do Lombook qure faz com que a classe seja um utilitário
+Não permite construtor nem extensor e todos seus métodos são estáticos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spring HATEOAS</t>
   </si>
   <si>
-    <t xml:space="preserve">spring-boot-maven-plugin</t>
+    <t xml:space="preserve">A dependência utilizada pelo spring HATEOS é a spring-boot-maven-plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3</t>
   </si>
   <si>
     <t xml:space="preserve">Hypermedia</t>
   </si>
   <si>
-    <t xml:space="preserve">- Recursos que adicionam links para outros recursos</t>
+    <t xml:space="preserve">'- Recursos que adicionam links para outros recursos
+Exemplo: href=”/produtos/mackbook.html”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6</t>
   </si>
   <si>
     <t xml:space="preserve">HAL</t>
   </si>
   <si>
-    <t xml:space="preserve">- HAL (Hypertext Application Language): Respresentação para escrever recursos de uma api usando hypermedia
-- Formato _links: { “self”: “https/..”, “estados”: “https://...”}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- HAL (Hypertext Application Language): Respresentação para escrever recursos de uma api usando hypermedia
+É o formato mais utilizado hoje em HATEOAS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Formato _links: { “self”: “https/..”, “estados”: “https://…”}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Outras Representações</t>
@@ -2763,6 +2845,9 @@
 SELF: aponta para ele mesmo</t>
   </si>
   <si>
+    <t xml:space="preserve">19.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinksRelation</t>
   </si>
   <si>
@@ -2780,34 +2865,23 @@
 LINKTO e METHODON são da Classe WebMvcLinkBuilder</t>
   </si>
   <si>
-    <t xml:space="preserve">CollectionModel vs List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- O método buscar retorna um List&lt;Model&gt;, porém agora com a herança de RepresentationModel ele não poderá mais retornar um List
-- É necessário alterar de List para CollectionModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Relation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Altera a raiz do Json para um nome personalizado
-@Relation(collectionRelation = "cidades")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RepresentationModelAssemblerSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- As classes Assembler são os melhores lugares para montar as referencias de links
-- Isso evita a centralização desses codigos no controller
-- para isso extendemos RepresentationModelAssemblerSupport&lt;Cidade, CidadeModel&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PagedModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Em recursos que retornam Page&lt;Model&gt; precisamos alterar para o tipo PagedModel&lt;Model&gt; para que possamos adicionar links na resposta.
-- Injetamos o PagedResourcesAssembler com Autowired para usar como assembler passando nosso assembler como argumento:
-PagedModel&lt;CozinhaModel&gt; cozinhasPagedModel = pagedResourcesAssembler.toModel(cozinhasPage, cozinhaModelAssembler);</t>
+    <t xml:space="preserve">19.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkTo
+MehtodOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São proxies que capturam a chamada para criação de um link
+Pertencem o pacote WebMvcLinkBuilder
+LinkTo aponta para o controlador então podemos usar para coleções
+linkTo(CidadeController.class).withRel(rel)
+E MehtodOn aponta para o metodo que queremos capturar sua URI:
+LinkTo(methodOn(CidadeController.class).buscar(cidadeId)).withRel(rel)
+Vinculando com o Controlador não é mais necessário usar slash de forma manual, ficará tudo de forma dinâmica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9</t>
   </si>
   <si>
     <t xml:space="preserve">Links</t>
@@ -2820,6 +2894,72 @@
 - Para adicionar um link de cidades em pedidos:
 pedidoModel.getEnderecoEntrega().getCidade().add(
 				algaLinks.linkToCidade(pedido.getEnderecoEntrega().getCidade().getId()));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollectionModel vs List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- O método buscar retorna um List&lt;Model&gt;, porém agora com a herança de RepresentationModel ele não poderá mais retornar um List
+- É necessário alterar de List para CollectionModel
+ANTES:
+List&lt;CidadeModel&gt; listar(){…}
+DEPOIS:
+public class CidadeModel extends RepresentationModel&lt;CidadeModel&gt;{…}
+CollectionModel&lt;CidadeModel&gt; listar(){…}
+Fazendo isso é possível utilizar o metodo addLinks do RepresentationModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Relation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Altera a raiz do Json para um nome personalizado na resposta de requisição
+@Relation(collectionRelation = "cidades")
+ANTES:
+{ “_embeded”: { “cidadeModelList”: [ { … } ] }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DEPOIS:
+{ “_embeded”: { “cidades”: [ { … } ] }}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RepresentationModelAssemblerSupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- As classes Assembler são os melhores lugares para montar as referencias de links
+- Isso evita a centralização desses codigos no controller
+- para isso extendemos RepresentationModelAssemblerSupport&lt;Cidade, CidadeModel&gt;
+public class CidadeModelAssembler extends RepresentationModelAssemblerSupport&lt;Cidade, CidadeModel&gt; {…}
+- Para utilizarmos essa classe é necessário criarmos um construtor que irá redirecionar os argumentos para a classe pai
+ -Devemos passar o controlador e o Model para a classe pai:
+public CidadeModelAssembler() { super(CidadeController.class, CidadeModel.class); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PagedModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Em recursos que retornam Page&lt;Model&gt; precisamos alterar para o tipo PagedModel&lt;Model&gt; para que possamos adicionar links na resposta.
+- Injetamos o PagedResourcesAssembler com Autowired para usar como assembler passando nosso assembler como argumento:
+PagedModel&lt;CozinhaModel&gt; cozinhasPagedModel = pagedResourcesAssembler.toModel(cozinhasPage, cozinhaModelAssembler);</t>
   </si>
   <si>
     <t xml:space="preserve">Links com Template Variables</t>
@@ -4314,7 +4454,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4345,14 +4485,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4551,10 +4683,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A233" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B234" activeCellId="0" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6511,7 +6643,7 @@
       <c r="A178" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="6" t="s">
         <v>493</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -6522,7 +6654,7 @@
       <c r="A179" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="6" t="s">
         <v>495</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -6646,1592 +6778,1686 @@
       <c r="B190" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C190" s="4"/>
-    </row>
-    <row r="191" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C191" s="4"/>
-    </row>
-    <row r="192" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="192" customFormat="false" ht="50.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C192" s="4"/>
-    </row>
-    <row r="193" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>531</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C193" s="4"/>
-    </row>
-    <row r="194" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>534</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C194" s="4"/>
-    </row>
-    <row r="195" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>537</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="107.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C195" s="4"/>
-    </row>
-    <row r="196" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>540</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="91.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>537</v>
+        <v>124</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C196" s="4"/>
-    </row>
-    <row r="197" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>542</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C197" s="4"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>545</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C198" s="4"/>
-    </row>
-    <row r="199" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>548</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C199" s="4"/>
-    </row>
-    <row r="200" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>550</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C200" s="4"/>
-    </row>
-    <row r="201" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="208.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C201" s="4"/>
-    </row>
-    <row r="202" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="46.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C202" s="4"/>
-    </row>
-    <row r="203" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>559</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="145.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C203" s="4"/>
-    </row>
-    <row r="204" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>562</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="96.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C204" s="4"/>
+        <v>565</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C205" s="4"/>
+        <v>568</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C206" s="4"/>
+        <v>571</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C207" s="4"/>
+        <v>574</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C208" s="4"/>
+        <v>576</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C209" s="4"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>579</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C210" s="4"/>
+        <v>582</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C211" s="4"/>
+        <v>585</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C212" s="4"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>588</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C213" s="4"/>
-    </row>
-    <row r="214" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6"/>
+        <v>591</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="B214" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C214" s="4"/>
+        <v>593</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="C215" s="4"/>
     </row>
-    <row r="216" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="C216" s="4"/>
-    </row>
-    <row r="217" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>598</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C217" s="4"/>
-    </row>
-    <row r="218" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>601</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C218" s="4"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C219" s="4"/>
+        <v>607</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C220" s="4"/>
-    </row>
-    <row r="221" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>610</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C221" s="4"/>
-    </row>
-    <row r="222" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C222" s="4"/>
-    </row>
-    <row r="223" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>616</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C223" s="4"/>
-    </row>
-    <row r="224" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>618</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="C224" s="4"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="9" t="s">
-        <v>594</v>
+        <v>620</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="33.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="6" t="s">
+        <v>622</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C225" s="4"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>623</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C226" s="4"/>
-    </row>
-    <row r="227" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>626</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C227" s="4"/>
-    </row>
-    <row r="228" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>628</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C228" s="4"/>
-    </row>
-    <row r="229" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>630</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C229" s="4"/>
-    </row>
-    <row r="230" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>633</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="C230" s="4"/>
-    </row>
-    <row r="231" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>635</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C231" s="4"/>
-    </row>
-    <row r="232" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>638</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="C232" s="4"/>
-    </row>
-    <row r="233" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>641</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C233" s="4"/>
-    </row>
-    <row r="234" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>643</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="99.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C234" s="4"/>
-    </row>
-    <row r="235" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>646</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="113.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C235" s="4"/>
-    </row>
-    <row r="236" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>648</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="C254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="10"/>
+      <c r="A261" s="8"/>
       <c r="B261" s="6"/>
       <c r="C261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="C271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="C273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="C274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="C275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="C276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="C277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
       <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="180.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>724</v>
+        <v>758</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>727</v>
+        <v>761</v>
       </c>
       <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="C293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>731</v>
+        <v>765</v>
       </c>
       <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="C295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
       <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="C298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>745</v>
+        <v>779</v>
       </c>
       <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>746</v>
+        <v>780</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>747</v>
+        <v>781</v>
       </c>
       <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>750</v>
+        <v>784</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
       <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>752</v>
+        <v>786</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>754</v>
+        <v>788</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>755</v>
+        <v>789</v>
       </c>
       <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>758</v>
+        <v>792</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>760</v>
+        <v>794</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>761</v>
+        <v>795</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>762</v>
+        <v>796</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>765</v>
+        <v>799</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>775</v>
+        <v>809</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>776</v>
+        <v>810</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>777</v>
+        <v>811</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>778</v>
+        <v>812</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>780</v>
+        <v>814</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>778</v>
+        <v>812</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>787</v>
+        <v>821</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>791</v>
+        <v>825</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>792</v>
+        <v>826</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>808</v>
+        <v>842</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="224.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>814</v>
+        <v>848</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>815</v>
+        <v>849</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>816</v>
+        <v>850</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="228.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>818</v>
+        <v>852</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>822</v>
+        <v>856</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>823</v>
+        <v>857</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>824</v>
+        <v>858</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>825</v>
+        <v>859</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>826</v>
+        <v>860</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>827</v>
+        <v>861</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>828</v>
+        <v>862</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>832</v>
+        <v>866</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>834</v>
+        <v>868</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>835</v>
+        <v>869</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>836</v>
+        <v>870</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>838</v>
+        <v>872</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>839</v>
+        <v>873</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>840</v>
+        <v>874</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>841</v>
+        <v>875</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>842</v>
+        <v>876</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>844</v>
+        <v>878</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>847</v>
+        <v>881</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>851</v>
+        <v>885</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="198" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>857</v>
+        <v>891</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>860</v>
+        <v>894</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>861</v>
+        <v>895</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>862</v>
+        <v>896</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>863</v>
+        <v>897</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>864</v>
+        <v>898</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>865</v>
+        <v>899</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>866</v>
+        <v>900</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>867</v>
+        <v>901</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>868</v>
+        <v>902</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>869</v>
+        <v>903</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>870</v>
+        <v>904</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>872</v>
+        <v>906</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>873</v>
+        <v>907</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>874</v>
+        <v>908</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>875</v>
+        <v>909</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>876</v>
+        <v>910</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>877</v>
+        <v>911</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>875</v>
+        <v>909</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>880</v>
+        <v>914</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>880</v>
+        <v>914</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>888</v>
+        <v>922</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>889</v>
+        <v>923</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>890</v>
-      </c>
-    </row>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -8256,7 +8482,7 @@
   </sheetPr>
   <dimension ref="A2:C42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8267,225 +8493,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>891</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>893</v>
+      <c r="B3" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="10" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>895</v>
+      <c r="B4" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="968">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -2802,25 +2802,9 @@
     <t xml:space="preserve">HAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- HAL (Hypertext Application Language): Respresentação para escrever recursos de uma api usando hypermedia
+    <t xml:space="preserve">- HAL (Hypertext Application Language): Respresentação para escrever recursos de uma api usando hypermedia
 É o formato mais utilizado hoje em HATEOAS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Formato _links: { “self”: “https/..”, “estados”: “https://…”}</t>
-    </r>
+- Formato _links: { “self”: “https/..”, “estados”: “https://…”}</t>
   </si>
   <si>
     <t xml:space="preserve">Outras Representações</t>
@@ -2915,28 +2899,12 @@
     <t xml:space="preserve">@Relation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Altera a raiz do Json para um nome personalizado na resposta de requisição
+    <t xml:space="preserve">- Altera a raiz do Json para um nome personalizado na resposta de requisição
 @Relation(collectionRelation = "cidades")
 ANTES:
 { “_embeded”: { “cidadeModelList”: [ { … } ] }}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DEPOIS:
+DEPOIS:
 { “_embeded”: { “cidades”: [ { … } ] }}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">RepresentationModelAssemblerSupport</t>
@@ -2954,6 +2922,18 @@
     <t xml:space="preserve">19.11</t>
   </si>
   <si>
+    <t xml:space="preserve">removeLinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de remover links que não são necessários ou que não representam o recurso:
+  CollectionModel&lt;UsuarioModel&gt; usuariosModel = usuarioModelAssembler
+	            .toCollectionModel(restaurante.getResponsaveis())
+	            .removeLinks();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.13</t>
+  </si>
+  <si>
     <t xml:space="preserve">PagedModel</t>
   </si>
   <si>
@@ -2962,10 +2942,50 @@
 PagedModel&lt;CozinhaModel&gt; cozinhasPagedModel = pagedResourcesAssembler.toModel(cozinhasPage, cozinhaModelAssembler);</t>
   </si>
   <si>
+    <t xml:space="preserve">19.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paginação com Ordenação com
+RepresentationModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para trabalhar com paginação dentro de HATEOAS e manter a ordenação para as páginas seguintes nas próximas requisições
+Devemos criar uma classse Wrapper e fazer a ordenação dinâmica porém de forma manual com uma classe
+Então devemos criar uma classe PageWrapper para fazer essa ordenação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Links com Template Variables</t>
   </si>
   <si>
-    <t xml:space="preserve">- São as variaveis que são passadas como parâmetros em uma requisição com url</t>
+    <t xml:space="preserve">'- São as variaveis que são passadas como parâmetros em uma requisição com url
+EXEMPLO:
+“href” “http://api.algafood.local:8080/pedidos{?page,size,sort}”
+'- São as variaveis que são passadas como parâmetros em uma requisição com url
+EXEMPLO:
+“href” “http://api.algafood.local:8080/pedidos{?page,size,sort}”
+VARIABLES:
+TemplateVariables filtroVariables = new TemplateVariables(
+_x0001__x0001_new TemplateVariable("page", VariableType.REQUEST_PARAM));
+String pedidosUrl = linkTo(PedidoController.class).toUri().toString();
+pedidoModel.add(new Link(UriTemplate.of(pedidosUrl), rel));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links para Transições de Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para transições de status não é possível adicionar um link referenciando pois o retorno do método é void:
+public void confirmar(@PathVariable String codigoPedido) {…}
+Para que seja possível a criação do link devemos alterar o retorno para ResponseEntity&lt;Void&gt;
+public ResponseEntity&lt;Void&gt; confirmar(@PathVariable String codigoPedido) {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.20</t>
   </si>
   <si>
     <t xml:space="preserve">JsonView vs CollectionModel</t>
@@ -2975,29 +2995,44 @@
 - É necessário criar um Model para representar a resposta</t>
   </si>
   <si>
+    <t xml:space="preserve">19.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Root Entry Point</t>
   </si>
   <si>
     <t xml:space="preserve">- Em uma API com HATEAOS não podemos ter requisições salvas para passar para o cliente
 - O próprio cliente deve conseguir fazer requisições sem precisar conhecer os caminhos da nossa API esse é o princípio de Discoverability.
-- Para isso precisamos definir um Entry Point, sendo o nosso Home da aplicação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compressão de Resposta HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Muitas vezes ao adicionar uma série de links o tamanho da resposta altera significativamente
+- Para isso precisamos definir um Entry Point, sendo o nosso Home da aplicação
+@RequestMapping(path = "/v1", produces = MediaType.APPLICATION_JSON_VALUE)
+public class RootEntryPointController {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compressão de Resposta HTTP
+Gzip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Muitas vezes ao adicionar uma série de links o tamanho da resposta aumenta significativamente
 - Para diminuir o tamanho das reposta podemos utilizar o Gzip, no application.properties acrescente:
 server.compression.enabled=true
 ATENÇÃO: Fazendo essa alteração temos um ganho de resposta no tráfego da rede, porém temos também um custo de processamento para efetuar a compressão.</t>
   </si>
   <si>
+    <t xml:space="preserve">19.38</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinksModelOpenApi</t>
   </si>
   <si>
     <t xml:space="preserve">- Após acrescentar links API precisamos ajustar nossa documentação
 - Para isso criaremos uma classe LinksOpenApi e substituiremos no SpringFox:
 .directModelSubstitute(Links.class, LinksModelOpenApi.class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.39</t>
   </si>
   <si>
     <t xml:space="preserve">Alternate Type Rules</t>
@@ -3009,7 +3044,27 @@
 - Usamos o alternateTypeRules no SpringFox:
 .alternateTypeRules(AlternateTypeRules.newRule(
 typeResolver.resolve(CollectionModel.class, ProdutoModel.class),
-ProdutosModelOpenApi.class))</t>
+ProdutosModelOpenApi.class))
+ANTES O OBJETO DE RETORNO NA DOCUMENTAÇÃO:
+CollectionModel&lt;CidadeModel&gt;
+DEPOIS:
+CidadesModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrocompatibilidade
+Vs
+Quebra de Compatibilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrocompatibilidade é a forma de continuar servindo sua API atual atentendo novos clientes e clientes antigo mesmo após modificações na API
+Quebra de Compatibilidade é quando somente os novos clientes são atendido com as atualizações, forçando todos a interagir com as novas versões
+OBS.: Prefira sempre EVITAR quebrar a compatibilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1</t>
   </si>
   <si>
     <t xml:space="preserve">Exclusão de Campos</t>
@@ -3022,6 +3077,9 @@
 - Isso fará com que sua API não quebre</t>
   </si>
   <si>
+    <t xml:space="preserve">20.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alteração de tipo</t>
   </si>
   <si>
@@ -3031,6 +3089,25 @@
 - Anotamos com @ApiModelProperty(….value=”Depreciada. Use propriedade taxaFretetexto)</t>
   </si>
   <si>
+    <t xml:space="preserve">20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciação Gradativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A fim de continuar com a compatibilidade, mantendo a retrocompatibilidade com antigos clientes
+Sempre adiciono a nova alteração, mas mantendo também ao mesmo tempo a forma antiga
+- Documente que a opção antiga está depreciada
+- Por fim defina uma obrigatoriedade mais flexivel tornando o parâmetro opcional
+ANTES:
+{ status: CONFIRMADO, taxaFrete: 10.00} 
+DEPOIS:
+{ status: CONFIRMADO, taxaFrete: 10.00, taxaFreteTexto: “10.00”} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alteração de URL</t>
   </si>
   <si>
@@ -3038,11 +3115,20 @@
 @RequestMapping(value = {"/cozinhas", “/gastronomias”)}</t>
   </si>
   <si>
-    <t xml:space="preserve">Versionamento</t>
+    <t xml:space="preserve">20.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versionamento por URI</t>
   </si>
   <si>
     <t xml:space="preserve">- Numeração de Versão de API, com dois controllers v1 e v2
-/v1/cozinhas e /v2/cozinhas</t>
+/v1/cozinhas e /v2/cozinhas
+@RestController
+@RequestMapping(path = "/v1/cidades")
+public class CidadeController {...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7</t>
   </si>
   <si>
     <t xml:space="preserve">MediaType Customizado</t>
@@ -3062,6 +3148,9 @@
 @GetMapping(produces = AlgaMediaTypes.V2_APPLICATION_JSON_VALUE)</t>
   </si>
   <si>
+    <t xml:space="preserve">20.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Definir MediaType Padrão</t>
   </si>
   <si>
@@ -3072,17 +3161,16 @@
 configurer.defaultContentType(AlgaMediaTypes.V2_APPLICATION_JSON); 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">Versionamento por URI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Basta ajustar o path do controladador para:
-@RequestMapping(path = "/v1/cidades")</t>
+    <t xml:space="preserve">20.12</t>
   </si>
   <si>
     <t xml:space="preserve">Documentações Separadas</t>
   </si>
   <si>
     <t xml:space="preserve">- Com springFox podemos separar as documentações por versões criando apiInfoV2 e apiDocketV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.16</t>
   </si>
   <si>
     <t xml:space="preserve">Depreciando uma API</t>
@@ -3096,11 +3184,16 @@
 - Envie e-mails, Use Redes Sociais</t>
   </si>
   <si>
+    <t xml:space="preserve">20.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">ApiDeprecationHandler</t>
   </si>
   <si>
     <t xml:space="preserve">- Uma Classe que é disparada antes de cada método
-- Implementa HandlerInterceptor
+- Implementa HandlerInterceptorAdapter
+@Component
+public class ApiDeprecationHandler implements HandlerInterceptor {…}
 - Adiciona um cabeçalho para respostas de métodos por path:
 if (request.getRequestURI().startsWith("/v1/")) { 
 response.addHeader("X-AlgaFood-Deprecated",
@@ -3115,12 +3208,32 @@
     <t xml:space="preserve">Desligando API</t>
   </si>
   <si>
-    <t xml:space="preserve">- Para deligar uma API use o interceptor com a senguinte condição:
+    <t xml:space="preserve">- Para deligar uma API use o interceptor com a seguinte condição:
+@Override
+public boolean preHandle(HttpServletRequest request, HttpServletResponse response, Object handler)
+throws Exception {
 		if (request.getRequestURI().startsWith("/v1/")) { 
 response.setStatus(HttpStatus.GONE.value()); 
 return false;}
  - GONE irá devolver um status 410 e return false interrompe o funcionamento da API
-- Após isso remova a Documentação no Docker do OpenApi ou comente o Registro @Bean dela</t>
+- Após isso remova a Documentação no Docker do OpenApi ou comente o Registro @Bean dela
+@Bean
+public Docket apiDocketV1() {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLF4J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SLF4J é uma biblioteca que abstrai o código de diversos frameworks de Logging
+Funciona como uma fachada para integrar com o LogBack
+Nossa aplicação não conversa diretamente com o log Back e sim com o SLF4J
+Isso desacopla o framework de log e se quisermos substitui-lo por outro futuramente é possível</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1</t>
   </si>
   <si>
     <t xml:space="preserve">Logback</t>
@@ -3130,7 +3243,7 @@
 - Sucessos do SL4J
 - Criamos uma instacia do tipo:
 	private static final Logger logger = LoggerFactory.getLogger(CozinhaController.class); 
-Ou anotamos a Classe com @Slf4j</t>
+Ou anotamos a Classe com @Slf4j que simplifica e deixa o código mais limpo</t>
   </si>
   <si>
     <t xml:space="preserve">PlaceHolders</t>
@@ -3144,7 +3257,11 @@
   </si>
   <si>
     <t xml:space="preserve">- Armazenamento de logs em um servidor
-- Serviço de gerenciamento de Logs na Nuvem</t>
+- Serviço de gerenciamento de Logs na Nuvem
+- O plano Free são 200mb por dia e 6GB por mês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3</t>
   </si>
   <si>
     <t xml:space="preserve">Appenders</t>
@@ -3157,6 +3274,9 @@
 - Ao realizar as configurações o log padrão do spring é substituido, para manter os logs do spring adicione a tag “include” seguida das configurações padrão do spring:
 &lt;include resource="org/springframework/boot/logging/logback/base.xml" /&gt;
 - Esse arquivo encontra-se dentro de Maven dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4</t>
   </si>
   <si>
     <t xml:space="preserve">Configuração Assíncrona</t>
@@ -3180,6 +3300,9 @@
 - Para isso usamos a tag:
 &lt;springProfile name="production"&gt;
 Tudo que estiver dentro da tag será executado apenas naquele ambiente específico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5</t>
   </si>
   <si>
     <t xml:space="preserve">HTTP Basic Authentication</t>
@@ -4317,6 +4440,19 @@
     <t xml:space="preserve">25.27</t>
   </si>
   <si>
+    <t xml:space="preserve">SpringDoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Projeto construído em cima da API Oficial do Swagger para o Java
+- Segue a especificação do OpenApi3 e gera documentação de forma automática
+- Swagger não suporta Spring, ele suporta apenas o Java EE (Jakarta EE)
+Então combinando o SpringDoc + Swagger é possível gerar as documentações seguindo OpenApi3
+- SpringFox segue sem atualização podendo perder a compatibilidade, então a alternativa é utilizar SpringDoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERRO</t>
   </si>
   <si>
@@ -4339,7 +4475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4389,11 +4525,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4487,8 +4618,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4685,8 +4816,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A233" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B234" activeCellId="0" sqref="B234"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A359" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B362" activeCellId="0" sqref="B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7275,1188 +7406,1441 @@
         <v>649</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="60.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
         <v>650</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C236" s="4"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C237" s="4"/>
-    </row>
-    <row r="238" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>654</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="46.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C238" s="4"/>
-    </row>
-    <row r="239" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>657</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="171.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C239" s="4"/>
-    </row>
-    <row r="240" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C240" s="4"/>
-    </row>
-    <row r="241" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>663</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C241" s="4"/>
-    </row>
-    <row r="242" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>666</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="C242" s="4"/>
-    </row>
-    <row r="243" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>669</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="53" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C243" s="4"/>
-    </row>
-    <row r="244" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C244" s="4"/>
-    </row>
-    <row r="245" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>675</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="C245" s="4"/>
-    </row>
-    <row r="246" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>678</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C246" s="4"/>
-    </row>
-    <row r="247" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>681</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C247" s="4"/>
-    </row>
-    <row r="248" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>684</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="C248" s="4"/>
-    </row>
-    <row r="249" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>687</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="C249" s="4"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>690</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="C250" s="4"/>
+        <v>693</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C251" s="4"/>
-    </row>
-    <row r="252" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>696</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C252" s="4"/>
-    </row>
-    <row r="253" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>699</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="C253" s="4"/>
-    </row>
-    <row r="254" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>702</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C254" s="4"/>
-    </row>
-    <row r="255" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>705</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C255" s="4"/>
-    </row>
-    <row r="256" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>708</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C256" s="4"/>
-    </row>
-    <row r="257" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>711</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C257" s="4"/>
-    </row>
-    <row r="258" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>713</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="59.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C258" s="4"/>
-    </row>
-    <row r="259" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>716</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C259" s="4"/>
+        <v>719</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C260" s="4"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="8"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="4"/>
-    </row>
-    <row r="262" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>721</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="96.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="C262" s="4"/>
-    </row>
-    <row r="263" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>726</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C263" s="4"/>
-    </row>
-    <row r="264" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>729</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C264" s="4"/>
-    </row>
-    <row r="265" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>731</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="C265" s="4"/>
     </row>
-    <row r="266" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="C266" s="4"/>
     </row>
-    <row r="267" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="C267" s="4"/>
     </row>
-    <row r="268" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="C268" s="4"/>
     </row>
-    <row r="269" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="C269" s="4"/>
     </row>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
       <c r="C270" s="4"/>
     </row>
-    <row r="271" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="C271" s="4"/>
     </row>
-    <row r="272" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>721</v>
+        <v>748</v>
       </c>
       <c r="C272" s="4"/>
     </row>
-    <row r="273" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="C275" s="4"/>
     </row>
-    <row r="276" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="C276" s="4"/>
     </row>
-    <row r="277" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="C277" s="4"/>
     </row>
-    <row r="278" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="C278" s="4"/>
     </row>
-    <row r="279" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="C279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="C280" s="4"/>
     </row>
-    <row r="281" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="C281" s="4"/>
     </row>
-    <row r="282" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="C283" s="4"/>
     </row>
-    <row r="284" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="C284" s="4"/>
     </row>
-    <row r="285" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="C285" s="4"/>
     </row>
-    <row r="286" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="C286" s="4"/>
     </row>
-    <row r="287" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="C287" s="4"/>
     </row>
-    <row r="288" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="C288" s="4"/>
     </row>
-    <row r="289" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
       <c r="C289" s="4"/>
     </row>
-    <row r="290" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="C290" s="4"/>
     </row>
-    <row r="291" customFormat="false" ht="180.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="C291" s="4"/>
     </row>
-    <row r="292" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="C292" s="4"/>
     </row>
-    <row r="293" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="C293" s="4"/>
     </row>
-    <row r="294" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="180.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="C296" s="4"/>
     </row>
-    <row r="297" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="C297" s="4"/>
     </row>
-    <row r="298" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="C298" s="4"/>
     </row>
-    <row r="299" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="C299" s="4"/>
     </row>
-    <row r="300" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="C300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="C301" s="4"/>
     </row>
-    <row r="302" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="C302" s="4"/>
     </row>
-    <row r="303" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
       <c r="C303" s="4"/>
     </row>
-    <row r="304" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="C304" s="4"/>
     </row>
-    <row r="305" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="C305" s="4"/>
     </row>
-    <row r="306" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="C306" s="4"/>
     </row>
-    <row r="307" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="C307" s="4"/>
     </row>
-    <row r="308" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="C308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>822</v>
+      </c>
+      <c r="C309" s="4"/>
+    </row>
+    <row r="310" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>824</v>
+      </c>
+      <c r="C310" s="4"/>
+    </row>
+    <row r="311" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>826</v>
+      </c>
+      <c r="C311" s="4"/>
+    </row>
+    <row r="312" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>828</v>
+      </c>
+      <c r="C312" s="4"/>
+    </row>
+    <row r="313" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>813</v>
+        <v>838</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="224.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>848</v>
+        <v>873</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="228.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="224.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="228.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>870</v>
+        <v>895</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>871</v>
+        <v>896</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="198" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>889</v>
+        <v>914</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>892</v>
+        <v>917</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>893</v>
+        <v>918</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>896</v>
+        <v>921</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>899</v>
+        <v>923</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="198" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>917</v>
+        <v>942</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>918</v>
+        <v>943</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
-        <v>920</v>
+        <v>945</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>921</v>
+        <v>946</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>922</v>
+        <v>947</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>923</v>
+        <v>948</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A360" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="6"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+    </row>
+    <row r="363" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="6"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+    </row>
+    <row r="364" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="6"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+    </row>
+    <row r="365" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="6"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+    </row>
+    <row r="366" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="6"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="6"/>
+    </row>
+    <row r="367" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="6"/>
+      <c r="B367" s="6"/>
+      <c r="C367" s="6"/>
+    </row>
+    <row r="368" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="6"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
+    </row>
+    <row r="369" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="6"/>
+      <c r="B369" s="6"/>
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="6"/>
+      <c r="B370" s="6"/>
+      <c r="C370" s="6"/>
+    </row>
+    <row r="371" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="6"/>
+      <c r="B371" s="6"/>
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="6"/>
+      <c r="B372" s="6"/>
+      <c r="C372" s="6"/>
+    </row>
+    <row r="373" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="6"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+    </row>
+    <row r="375" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="6"/>
+      <c r="B375" s="6"/>
+      <c r="C375" s="6"/>
+    </row>
+    <row r="376" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="6"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="6"/>
+    </row>
+    <row r="377" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="6"/>
+      <c r="B377" s="6"/>
+      <c r="C377" s="6"/>
+    </row>
+    <row r="378" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="6"/>
+      <c r="B378" s="6"/>
+      <c r="C378" s="6"/>
+    </row>
+    <row r="379" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="6"/>
+      <c r="B379" s="6"/>
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="6"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="6"/>
+    </row>
+    <row r="381" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="6"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+    </row>
+    <row r="382" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+    </row>
+    <row r="383" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="6"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+    </row>
+    <row r="384" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="6"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="6"/>
+    </row>
+    <row r="385" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="6"/>
+      <c r="B385" s="6"/>
+      <c r="C385" s="6"/>
+    </row>
+    <row r="386" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="6"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="6"/>
+    </row>
+    <row r="387" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="6"/>
+      <c r="B387" s="6"/>
+      <c r="C387" s="6"/>
+    </row>
+    <row r="388" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+    </row>
+    <row r="389" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="6"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+    </row>
+    <row r="390" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="6"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="6"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -8482,7 +8866,7 @@
   </sheetPr>
   <dimension ref="A2:C42"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8494,7 +8878,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>925</v>
+        <v>963</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -8506,10 +8890,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>926</v>
+        <v>964</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>927</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8517,10 +8901,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>929</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="974">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -4451,6 +4451,27 @@
   </si>
   <si>
     <t xml:space="preserve">26.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removendo SpringFox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SpringDoc não funciona em conjunto com SpringFox
+Para remover as dependências do SpringFox devemos remover do pom.xml o spring-fox-bean-validator e springfox-swagger-ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionando SpringDoc no Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicione as seguintes dependências ao projeto:
+Springdoc-openapi-ui, springdoc-openapi-hateoas e springdoc-openapi-security
+Todos na versao 1.6.9 com Spring na versão 2.7.1 e java 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -4585,7 +4606,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4616,10 +4637,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4817,7 +4834,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A359" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B362" activeCellId="0" sqref="B362"/>
+      <selection pane="topLeft" activeCell="B364" activeCellId="0" sqref="B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8692,19 +8709,31 @@
       <c r="B361" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="C361" s="8" t="s">
+      <c r="C361" s="6" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="6"/>
-      <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
-    </row>
-    <row r="363" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="6"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
+      <c r="A362" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="6"/>
@@ -8877,225 +8906,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>963</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>965</v>
+      <c r="B3" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>966</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>967</v>
+      <c r="B4" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="988">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -4468,10 +4468,96 @@
   <si>
     <t xml:space="preserve">Adicione as seguintes dependências ao projeto:
 Springdoc-openapi-ui, springdoc-openapi-hateoas e springdoc-openapi-security
-Todos na versao 1.6.9 com Spring na versão 2.7.1 e java 17</t>
+Todos na versao 1.6.9 com Spring na versão 2.7.1 e java 17
+Com isso é possível acessar a documentacao em swagger-ui/index.html</t>
   </si>
   <si>
     <t xml:space="preserve">26.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bean OpenApi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Bean do OpenApi estão as configurações de inicialização do swagger
+Estão as configurações que podemos customizar:
+@Configuration
+public class SpringDocConfig {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitando presença de Controllers na Documentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faz com que seja possível limitar quais os pacotes serão escaneados para apresentação da documentação
+Em application.properties insira a configuração:
+springdoc.packages-to-scan=com.algaworks.algafood.api
+Também podemos limitar a descoberta por paths:
+springdoc.path-to-match=/v1/**,/v2/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bean GroupedOpenApi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Utilizado para fazer separações na documentação entre versionamentos de controladores
+- Criamos um Bean para agrupar todos os controllers de uma versão:
+@Bean
+public GroupedOpenApi v1Api() {
+return GroupedOpenApi.builder()
+.group("v1")
+.pathsToMatch("/v1/**")
+.build();
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança na Documentação
+Botão Authorize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para realizar autenticação na documentação para envio de requisições usamos a anotação @SecurityScheme
+@Configuration
+@SecurityScheme(name = "security_auth", type = SecuritySchemeType.OAUTH2)@Configuration
+@SecurityScheme(
+name = "security_auth",
+type = SecuritySchemeType.OAUTH2,
+flows =  @OAuthFlows(authorizationCode = @OAuthFlow(
+authorizationUrl = "${springdoc.oAuthFlow.authorizationUrl}",
+tokenUrl = "${springdoc.oAuthFlow.tokenUrl}",
+scopes = {
+@OAuthScope(name = "READ", description = "read scope"),
+@OAuthScope(name = "WRITE", description = "write scope"),
+}
+)))
+Public class SpringDocConfig {…}
+- Com isso um botão de Authorize aparecerá ao canto da tela para autenticar seu usuário para requisições
+- Crie as chaves no application.properties e configura a autenticação
+springdoc.oAuthFlow.authorizationUrl=http://localhost:9000/oauth/authorize
+springdoc.oAuthFlow.tokenUrl=http://localhost:9000/oauth/token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparando Autorização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Definir o client para preenchimento automático:
+springdoc.swagger-ui.oauth.client-id=algafood-web
+springdoc.swagger-ui.oauth.client-secret=web123
+E utilizaça o do PKCE:
+springdoc.swagger-ui.oauth.use-pkce-with-authorization-code-grant=true
+- Em oauth_client_details adicione o redirecionamento e permissões do usuário
+Na coluna ‘scope’ deve conter: 
+  'READ,WRITE', 'password,authorization_code', 'http://localhost:9000,http://localhost:9000/swagger-ui/oauth2-redirect.html', null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adiciona no Controllers a Anotação de Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para autorização do fluxo que implementamos é necessário adicionar uma anotação sobre os controladores com o nome da security que criamos
+@SecurityRequirement(name="security_auth")
+public interface CidadeControllerOpenApi {…}</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -4833,8 +4919,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A359" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B364" activeCellId="0" sqref="B364"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B370" activeCellId="0" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8724,7 +8810,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="61.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>966</v>
       </c>
@@ -8735,35 +8821,71 @@
         <v>968</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="6"/>
-      <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
-    </row>
-    <row r="365" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
-    </row>
-    <row r="366" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="6"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
-    </row>
-    <row r="367" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="6"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
-    </row>
-    <row r="368" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="6"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
-    </row>
-    <row r="369" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="6"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
+    <row r="364" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="242.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="131.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="6"/>
@@ -8860,16 +8982,8 @@
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-    </row>
-    <row r="390" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="6"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -8907,7 +9021,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>969</v>
+        <v>983</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -8919,10 +9033,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>970</v>
+        <v>984</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>971</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8930,10 +9044,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>972</v>
+        <v>986</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>973</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1013">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -4558,6 +4558,109 @@
     <t xml:space="preserve">Para autorização do fluxo que implementamos é necessário adicionar uma anotação sobre os controladores com o nome da security que criamos
 @SecurityRequirement(name="security_auth")
 public interface CidadeControllerOpenApi {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorizando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao clicar no botão ao canto da tela em documentação é possível observar que tudo está preenchido e configurado
+Selecione todos os escopos e clique em autorizar
+Preencha com as credenciais de seu usuário joao.ger@algafood.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de TAGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servem para agrupar alguns recursos semelhantes definindo nome e descrição
+@Tag(name = "Cidades", description = "Gerencia as Cidades")
+public interface CidadeControllerOpenApi {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Operações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descreve uma aoperação de um endpoint na documentação:
+	@Operation(summary = "Cadastra uma cidade", description = "Cadastro de uma cidade, necessita de um estado e um nome válido")
+	CidadeModel adicionar(CidadeInput cidadeInput);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Parâmetros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define os parâmetros nos recursos attravés da anotação @Parameter e também @Requestbody do swagger
+Também é possível definir um exemplo que autocompletará na documentação:
+CidadeModel buscar(@Parameter(description = "ID de uma cidade", example = "1", required = true) Long cidadeId);
+	CidadeModel adicionar(@RequestBody(description = "Representação de uma nova cidade", required = true) CidadeInput cidadeInput);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Modelos de Representação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Podemos descrever os Modelos de Representação, seus campos e classes
+- Essa configuração é refletida tanto requisição quanto nos modelos representados abaixo na documentação
+@NotBlank
+@Schema(example = "Uberlândia")
+private String nome;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Validação de Modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para definir as validações de modelo o springDocs consegue aproveitar as anotações já definidas como @NotBlank, @NotNull
+- Mas podemos definir na própria anotação caso necessário com required = true
+- Porém é preferível continuar utilizando as anotações do Javax
+@Schema(example = "Uberlândia", required = true)
+private String nome;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definindo Códigos de Respostas 
+De Forma Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessário a criação de um Bean OpenAPICustomizer
+Essa customização faz um iteração sobre os paths da nossa aplicação e adiciona ApiResponse Globeis nele de acordo com seus status
+                        ApiResponse apiResponseNaoEncontrado = new ApiResponse().description("Recurso não encontrado");
+                        responses.addApiResponse("406", apiResponseNaoEncontrado);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo StatusCode 
+Para Respostas Específicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na anotação de @Operation basta passar o código e descrição
+	@Operation(summary = "Busca uma cidade por Id", responses = {
+			@ApiResponse(responseCode = "200"),
+			@ApiResponse(responseCode = "400", description = "ID da cidade inválido",
+					content = @Content(schema = @Schema))})
+	CidadeModel buscar(@Parameter(description = "ID de uma cidade", example = "1", required = true) Long cidadeId);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo StatusCode
+De Acordo com Método HTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.13</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -4919,8 +5022,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B370" activeCellId="0" sqref="B370"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C379" activeCellId="0" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8865,7 +8968,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="131.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>979</v>
       </c>
@@ -8887,50 +8990,102 @@
         <v>978</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="6"/>
-      <c r="B370" s="6"/>
-      <c r="C370" s="6"/>
-    </row>
-    <row r="371" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6"/>
-      <c r="B371" s="6"/>
-      <c r="C371" s="6"/>
-    </row>
-    <row r="372" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="6"/>
-      <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
-    </row>
-    <row r="373" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="6"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
-    </row>
-    <row r="374" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="6"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
-    </row>
-    <row r="375" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="6"/>
-      <c r="B375" s="6"/>
-      <c r="C375" s="6"/>
-    </row>
-    <row r="376" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="6"/>
-      <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
-    </row>
-    <row r="377" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="6"/>
-      <c r="B377" s="6"/>
-      <c r="C377" s="6"/>
+    <row r="370" customFormat="false" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="74.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="75.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="6"/>
+      <c r="A378" s="6" t="s">
+        <v>1006</v>
+      </c>
       <c r="B378" s="6"/>
-      <c r="C378" s="6"/>
+      <c r="C378" s="6" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="6"/>
@@ -9021,7 +9176,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>983</v>
+        <v>1008</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -9033,10 +9188,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>985</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9044,10 +9199,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>986</v>
+        <v>1011</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>987</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1017">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -4660,7 +4660,33 @@
 De Acordo com Método HTTP</t>
   </si>
   <si>
+    <t xml:space="preserve">Podemos customizar as respostas de acordo com os metodos, 
+Com isso utilizamos o mesmo openApiCustomizer mas iteramos sobre os paths e filtramos pelos metodos:
+switch (httpMethod) {
+case GET:
+	responses.addApiResponse("404", new ApiResponse().description("Recurso não encontrado"));
+	break;
+case POST:
+responses.addApiResponse("400", new ApiResponse().description("Requisição inválida"));
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Modelo do Problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basta seguir o mesmo exemplo dos modelos e configurar no openApi Docs:
+@Schema(name = "Problema")
+public class Problem {…}
+Com isso teremos que registrar os schemas em openApi e depois referenciar em operations
+openApi...components(new Components().schemas(
+gerarSchemas()));
+@Operation(...@Content(schema = @Schema(ref = "Problema")))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.14</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -4795,7 +4821,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4826,6 +4852,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -5023,7 +5053,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C379" activeCellId="0" sqref="C379"/>
+      <selection pane="topLeft" activeCell="B378" activeCellId="0" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9078,19 +9108,27 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B378" s="6"/>
+      <c r="B378" s="8" t="s">
+        <v>1007</v>
+      </c>
       <c r="C378" s="6" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="6"/>
-      <c r="B379" s="6"/>
-      <c r="C379" s="6"/>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="6"/>
@@ -9175,225 +9213,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1010</v>
+      <c r="B3" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1012</v>
+      <c r="B4" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="1020">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -4672,6 +4672,21 @@
   </si>
   <si>
     <t xml:space="preserve">26.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referenciando uma Respose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Também podemos cira um mapa e fazer uma referência a ele:
+        apiResponseMap.put(internalServerErrorResponse, new ApiResponse()
+.description("Erro interno no servidor").content(content));
+…
+case DELETE:
+responses.addApiResponse("500", new ApiResponse().$ref(internalServerErrorResponse));
+ break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.15</t>
   </si>
   <si>
     <t xml:space="preserve">Descrevendo Modelo do Problema</t>
@@ -5052,8 +5067,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B378" activeCellId="0" sqref="B378"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A377" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B380" activeCellId="0" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9119,21 +9134,27 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="B379" s="6" t="s">
+      <c r="B379" s="8" t="s">
         <v>1010</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="6"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
+    <row r="380" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="6"/>
@@ -9175,7 +9196,11 @@
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="6"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -9214,7 +9239,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -9226,10 +9251,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,10 +9262,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1023">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -4686,7 +4686,7 @@
  break;</t>
   </si>
   <si>
-    <t xml:space="preserve">26.15</t>
+    <t xml:space="preserve">26.16</t>
   </si>
   <si>
     <t xml:space="preserve">Descrevendo Modelo do Problema</t>
@@ -4702,6 +4702,25 @@
   </si>
   <si>
     <t xml:space="preserve">26.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrigindo Documentação com
+PageableParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para representar parâmetros do tipo Pageable é necessário declarar vários parâmetros (page, size, sort)
+- Para melhorarmos a visibilidade e organização do código vamos criar uma anotação personalizada chamada PageableParameter
+- PageableParameter conterá todas as especificações e exemplos centralizados em uma única aotação:
+@Parameter(
+in = ParameterIn.QUERY,
+name = "sort",
+description = "Critério de ordenação: propriedade(asc|desc).",
+examples = { @ExampleObject("nome,desc") ...}
+)
+public @interface PageableParameter {...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.17</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5067,8 +5086,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A377" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B380" activeCellId="0" sqref="B380"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B385" activeCellId="0" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9156,10 +9175,16 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
+    <row r="381" customFormat="false" ht="128.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="6"/>
@@ -9239,7 +9264,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -9251,10 +9276,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9262,10 +9287,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1098">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -1276,6 +1276,9 @@
     <t xml:space="preserve">ResourceUtils.getContentFromResource("/json/correto/cozinha-chinesa.json")</t>
   </si>
   <si>
+    <t xml:space="preserve">10.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">RestAssured</t>
   </si>
   <si>
@@ -1286,9 +1289,6 @@
     	&lt;artifactId&gt;rest-assured&lt;/artifactId&gt;
     	&lt;scope&gt;test&lt;/scope&gt;
     &lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8</t>
   </si>
   <si>
     <t xml:space="preserve">Utilizando RestAssured</t>
@@ -3312,11 +3312,17 @@
 Authorization: Basic am9hbxzoxMjM=</t>
   </si>
   <si>
+    <t xml:space="preserve">22.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spring Security</t>
   </si>
   <si>
     <t xml:space="preserve">- Apenas adicionando o Starter do Spring na nossa palicação já temos um formulário de login e senha
 - As próximas requisições serão autenticadas e precisarão do cabeçalho Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2</t>
   </si>
   <si>
     <t xml:space="preserve">Usuário e Senha Básicos</t>
@@ -3339,13 +3345,18 @@
     <t xml:space="preserve">WebSecurityConfig</t>
   </si>
   <si>
-    <t xml:space="preserve">- Classe de configuração WebSecurityque pode customizar as configurações de segurança
+    <t xml:space="preserve">- Classe de configuração WebSecurity que pode customizar as configurações de segurança
 - Pode definir quais endpoints serão autenticados ou não
 - Podemos definir estado da API como STATELESS para não guardarmos Cookies
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-Site Request Forgery</t>
+@EnableWebSecurity
+public class WebSecurityConfig extends WebSecurityConfigurerAdapter {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-Site Request Forgery
+CSRF</t>
   </si>
   <si>
     <t xml:space="preserve">- Conhecido como CSRF
@@ -3365,10 +3376,14 @@
 - Toda senha precisa ser criptografada por isso criaremos o methodo de encriptação passwordEncoder()</t>
   </si>
   <si>
+    <t xml:space="preserve">22.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">OAuth2</t>
   </si>
   <si>
-    <t xml:space="preserve">- É um protocolo, é uma especificação
+    <t xml:space="preserve">'- Framework(Conjunto de regras) de segurança que utiliza http
+- É um protocolo, uma especificação
 - Mais usada para proteger APIs
 - Não trafega usuário e senha e sim Token de autorização
 - Servidor de Acesso retorna token em string e um cabeçalho precisa ser passado na requisição da API
@@ -3378,6 +3393,9 @@
 - Permite que APIs terceiras recebam acesso limitados a nossa aplicação usando protocolo HTTP</t>
   </si>
   <si>
+    <t xml:space="preserve">22.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roles OAuth2</t>
   </si>
   <si>
@@ -3390,21 +3408,31 @@
     <t xml:space="preserve">Fluxo de Acesso</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource Owner através do Client aciona o Authorization Server para garantir acesso ao Resource Server</t>
+    <t xml:space="preserve">- Resource Owner: Dono do Produto
+- Authorization Server: Porteiro, controlador do Acesso
+- Client: Aplicação que deseja acessar o Recurso ou seja acessar a API
+- Resource Server: API que contém os recursos
+Resource Owner através do Client aciona o Authorization Server para garantir acesso ao Resource Server
+O Cliente quer acessar o Resource Server em nome do Resource Owner e o Authorization Server que permite essa concessão
+O Client não quer o usuário e senha do Resource Owner, ele só solicita o acesso</t>
   </si>
   <si>
     <t xml:space="preserve">Resource Server</t>
   </si>
   <si>
     <t xml:space="preserve">- Podemos usar Spring Secuirity ou OAuth Server
-- OAuth Server está sendo depreciado e será migrado para Spring Security
+-  Spring Security OAuth  foi DEPRECIADO use apenas o  Spring Secuirity
 - Para que nossa aplicação passe a funcionar como um Resource Server é necessário uma dependência no pom.xml
 spring-boot-starter-oauth2-resource-server
 - Necessário customizar as configurações em ResourceServerConfig e especificar URI de checagem de token em application.properties
 - Após essa configuração é necessário passar no cabeçalho Authorization: Bearer + token (Bearer significa Titular)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxo: Password Credentials Grant</t>
+    <t xml:space="preserve">22.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo: Resource Owner
+Password Credentials Grant</t>
   </si>
   <si>
     <t xml:space="preserve">- Garante um token a partir de um usuário e senha, também conhecido como Password Credentials
@@ -3414,6 +3442,9 @@
 OBS: Fluxo não aconselhado para ser usado, a não ser que não tenha outra solução</t>
   </si>
   <si>
+    <t xml:space="preserve">22.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authorization Server Configurer Adapter</t>
   </si>
   <si>
@@ -3423,21 +3454,159 @@
 - Authorization Server produz o token para o Client e também valida o token quando o Resource Server o recebe.</t>
   </si>
   <si>
+    <t xml:space="preserve">22.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Server Externo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AuthorizationServerConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Extende AuthorizationServerConfigurerAdapter possui as definições necessária para a configuração do Servidor,
+Carrega a anotação @EnableAuthorizationServer e o método configure com os detalhes dos clients (memória ou banco de dados), 
+Podemos definir o fluxo (password, credentials, token) e scopes (read, write)
+Autenticacao para comunicacao com o server (no caso de querer consultar token security.checkTokenAccess("isAuthenticated()"))
+Podemos deixar como security.checkTokenAccess("permitAll()").tokenKeyAccess("permitAll()").allowFormAuthenticationForClients() pois é sóconsulta de token
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WebSecurityConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: extende WebSecurityConfigurerAdapter e carrega a anotation @EnableWebSecurity possui PasswordEncode para criptografar as senhas e AuthenticationManager para gerenciar os usuários(Usado apenas no fluxo de “Password”)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CorsConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: habilita o cors para que seja possível o fazer e receber requisições no authorization Server
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PkceAuthorizationCodeTokenGranter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Somente para caso for utilizar o fluxo PKCE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">JwtCustomClaimsTokenEnhancer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Para adicionar campos customizados no token JWT</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Requisição de Token</t>
   </si>
   <si>
     <t xml:space="preserve">- Requisição para /oauth/token
 - Authentication: Basic Client Credentials
-- Body: x-www-form com username, password e grant_type
+- Body: x-www-form com username, password e grant_type (username: jose, password: 123, grant_type: password)
 - Recebemos um token opaco: que é um token onde não sabemos as informações dele</t>
   </si>
   <si>
+    <t xml:space="preserve">Opaque Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um token opaco é quando temos acesso ao token porém não conseguimos visualizar seu conteúdo
+Geralmente são representados em um formato UUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">OAuth2 Introspection</t>
   </si>
   <si>
     <t xml:space="preserve">- Define o que deve ser passado na consulta e recebimento do Token do Authorization Server
-- A checkagem de token acontece na rota /oauth/check_token
+- A checkagem de token acontece na rota /oauth/check_token e indica se o token está ativo ou foi revogado
 - Configuração é definida por AuthorizationServerSecurityConfigurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Server Interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faz a checagem do token oauth2 no Resource Server
+Para isso definimos uma classe ResourceServerConfig extendendo WebSecurityAdapter
+@EnableWebSecurity
+public class ResourceServerConfig extends WebSecurityConfigurerAdapter {…}
+Com a configuração de instronspection-uri, client id e secret em application properties:
+spring.security.oauth2.resourceserver.opaquetoken.introspection-uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.11</t>
   </si>
   <si>
     <t xml:space="preserve">Refresh Token</t>
@@ -3452,14 +3621,21 @@
 - Podemos invalidar um refresh token assim que usarmos uma vez com  .reuseRefreshTokens(false);</t>
   </si>
   <si>
+    <t xml:space="preserve">22.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fluxo: Client Credentials Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">- Quando uma aplicação gera token em nome dele própria e não em nome de algum usuário
+    <t xml:space="preserve">- Quando uma aplicação gera token em nome dela própria e não em nome de algum usuário
+- Normalmente uma aplicação backend acessando outra aplicação
 - Permite gerar um access token apenas com as credenciais do client
 - Usa no gant type: client_credentials
 - Não permite usar refresh_token
 - Para configura-lo basta criar um novo client em AuthorizationServerConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.15</t>
   </si>
   <si>
     <t xml:space="preserve">Fluxo: Authorization Code Grant</t>
@@ -3474,38 +3650,54 @@
 - Para chamar a API é necessário informar no cabeçalho o code recebido, o grant_type como authorization_code e redirect_uri sendo a url definida http://aplicacao-cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">22.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fluxo: Implicit Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">- Semelhante ao Authorization Code porém simplificado (LEGADO: Esse fluxo não deve ser usado)
-- Ao invés de retornar um código já retorna o token na URL
+    <t xml:space="preserve">- Semelhante ao Authorization Code porém simplificado (LEGADO: Esse fluxo não deve ser usado, segurança fraca)
+- Ao invés de retornar um código já retorna o token na URL (Não emite refresh token)
+Utiliza authorizedGrantTypes(“implicit”)
 http://auth.algafood.local:8081/oauth/authorize?response_type=token&amp;client_id=webadmin&amp;state=abc&amp;redirect_uri=http://aplicacao-cliente
 - Implicit não emite refresh token</t>
   </si>
   <si>
+    <t xml:space="preserve">22.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authorization Code + PKCE</t>
   </si>
   <si>
     <t xml:space="preserve">- Proof Key for Code Exchange (Chave de Prova para Troca de Código)
+- É uma extensão do OAuth2
 - Resolve fluxo de clientes públicos, onde não é possível manter a confidencialidade das credenciais (client_id e client_secret de fácil acesso)
+IMPORTANTE: não necessita que client_id e secret sejam expostos no código, pois utiliza um certificado
 - Token só será fornecido após validação do Code Challenge em SHA-256 e Bae64 Url
-1° - Client gera Verifier e Code Challange, então Autorization Server mantém o código para validação futura
-2° - Solicita a aprovação passando o code_challange e vefifier
-- No momento de solicitar o acesso token é passado o code, grant_type e redirect_uri passando o verifyer para validação do code_challenge
+1° - Client gera Verifier e Code Challange(SHA-256), então Autorization Server mantém o código para validação futura
+2° - Solicita a aprovação passando o code_challange e verifier
+- No momento de solicitar o acesso token é passado o code, grant_type e redirect_uri passando o verifier para validação do code_challenge
+(Code chalenge só será utilizado nesse passo para autenticar com o Authorization Server)
 Para implementá-lo usamos o método tokenGranter
 - O tokenGranter instancia o Authorization Code com PKCE
 Exemplo de Url de Authenticação:
 http://auth.algafood.local:8081/oauth/authorize?response_type=code&amp;client_id=foodanalytics&amp;state=abc&amp;redirect_uri=http://aplicacao-cliente&amp;code_challenge=teste123&amp;code_challenge_method=plain
 3° - Depois de Autenticado e aprovado, faremos uma nova requisição porém agora passando o code_challenge no cabeçalho do code_verifier e então recebemos um token
 4º – Seguimos com a chamada à aplicação
-Evita ataques de força bruta pois tem somente uma chance para acertar o code_challenge, caso errar o code_cerifier será invalidado.</t>
+OBS.: Evita ataques de força bruta pois tem somente UMA chance para acertar o code_challenge, caso errar o code_cerifier será invalidado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.22</t>
   </si>
   <si>
     <t xml:space="preserve">Clientes Público x Confidencial</t>
   </si>
   <si>
-    <t xml:space="preserve">- Público é aquele que tem o client_id exposto, mesmo que compilado como no caso dos mobile, é possível fazer uma engenharia reversa e resgatar esse código
+    <t xml:space="preserve">- Público é aquele que tem o client_id exposto, mesmo que compilado como no caso dos mobile ou web(SPA), é possível fazer uma engenharia reversa e resgatar esse código
 - Confidencial: Comunicação com o Authorization é feita no Servidor e não no Browser como usuário final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.27</t>
   </si>
   <si>
     <t xml:space="preserve">Clientes Confiáveis x Não Confiáveis</t>
@@ -3533,6 +3725,24 @@
 - Configurado a partir do AuthorizationServerEndpointsConfigure</t>
   </si>
   <si>
+    <t xml:space="preserve">23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedisToken Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Armazenamento de token no store do Redis
+- Adicionar no Authorization Server a dependência starter no spring: spring-boot-starter-data-redis
+- Configurar properties com host, port e password
+- Configurar endpoint server para armazenamento no redis na classe AuthorizationServerConfig:
+@Override public void configure(AuthorizationServerEndpointsConfigurer endpoints) throws Exception {…}
+endpoints...tokenStore(new RedisTokenStore(redisConnectionFactory))
+	.tokenGranter(tokenGranter(endpoints));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statefull vs Stateless</t>
   </si>
   <si>
@@ -3542,12 +3752,15 @@
  e não precisar armazenar informações no servidor. (Referindo-se ao estado da Aplicação e não dos Recursos)</t>
   </si>
   <si>
+    <t xml:space="preserve">23.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application State vs Resource State</t>
   </si>
   <si>
     <t xml:space="preserve">- Estado da Aplicação e Estado dos Recursos
 - Estado dos Recursos são relacionados aos domínios do negócio (Cozinhas, Restaurantes e Etc)
-- Estado da aplicação é o mesmo que o estado da Sessão do Usuário, (Cliente é força a fazer várias requisições)</t>
+- Estado da aplicação é o mesmo que o estado da Sessão do Usuário (Cliente é força a fazer várias requisições)</t>
   </si>
   <si>
     <t xml:space="preserve">Statefull Authentication vs Stateless Authentication</t>
@@ -3560,40 +3773,70 @@
 * Ultiliza Transparent Token, tem informações do usuário contidas no token
 * Resolve as desvantagens do Statefull
 * Sessão do Usuário armazenada no lado do cliente
-* Servidor não sabe qauis tokens emitiu, apenas consegue validá-los
+* Servidor não sabe quais tokens emitiu, apenas consegue validá-los
 * Token só revoga após a expiração do tempo definido </t>
   </si>
   <si>
     <t xml:space="preserve">Trasparent Token</t>
   </si>
   <si>
-    <t xml:space="preserve">- É um token composto por Header, payload e assinatura
-- Possui o formato de uma string Encodada em base 64
+    <t xml:space="preserve">- Um transparente token refere-se a um token de autenticação que é gerado, validado e transmitido sem necessidade de intervenção do usuário, permitindo acesso contínuo e seguro a recursos protegidos.
+- NÃO PRECISA ARMAZENAR AS INFORMAÇÕES EM SERVIDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Json Web Token
+JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- JWT é um tipo de token transparente com formato json padrão
+- Transporta dados de uma forma compacta e segura
+- Possui uma string criptografada em Base64 e assinado com um HASH criptografico
+- Possui 3 partes: Header, Payload, e Assinatura
 - Para decodificar o token podemos usar o site:
 http://jwt.io
 - O Header é um objeto json que possui informações como tipo do token e tipos de criptografia usada
 - O Payload possui informações (CLAIM) de autorização e autenticação com o Servidor
 - Assinatura: informações de criptografia
 - O tamanho da senha precisa ser 32 bit.
+- IMPORTANTE: Só quem possui a chave consegue criptografar e descriptografar o token, essa chave não é fornecida na requisição mas ambos os lados conhecem
+- Dependência: spring-security-jwt
 - Para visualizar problemas com Token habilite o log level DEBUG:
-logging.level.org.springframework=DEBUG
-- NÃO PRECISA ARMAZENAR AS INFORMAÇÕES EM SERVIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criptografia Simétrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Usa uma chave compartilhada por que emite e receber uma mensagem (SHMA).
-- Authorization Server compartilha cave com Resource Server.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criptografia Assimétrica</t>
+logging.level.org.springframework=DEBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criptografia Simétrica
+SHA256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Usa uma chave compartilhada por quem emite e receber uma mensagem (SHMA).
+- Ou Seja, ambos os lados possuem a chave e ela não é trafegada na requisição
+- Authorization Server compartilha cave com Resource Server.
+- NÃO É NECESSÁRIO ARMAZENAR NENHUM TOKEN
+@Bean
+public JwtAccessTokenConverter jwtAccessTokenConverter() {
+	var jwtAccessTokenConverter = new JwtAccessTokenConverter();
+	jwtAccessTokenConverter.setKeyPair("CHAVE_SIMETRICA");
+	return jwtAccessTokenConverter;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criptografia Assimétrica
+RS256</t>
   </si>
   <si>
     <t xml:space="preserve">- Utiliza um par de chaves, sendo uma privada e a outra pública (RS256)
-- Emissor possui a chave privada, Autorization deve possui uma chave e não compartilhá-la com ninguém
+- Emissor possui a chave privada, Autorization deve possuir uma chave e não compartilhá-la com ninguém
 - Chave privada é que assina o JWT.
-- Receptor usa chave pública, Resource Server só valida a assinatura, é aberta, se interceptar não tem problema.</t>
+- Receptor usa chave pública, Resource Server SÓ valida a assinatura, é aberta, se interceptar não tem problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7</t>
   </si>
   <si>
     <t xml:space="preserve">KeyTool</t>
@@ -3603,12 +3846,58 @@
 - Já está contida no JDK
 - Cria e Gerencia arquivos JKS (Repositório para Armazenar um Conjunto de Chaves Criptograficas em Formato Binário)
 Criando Chaves:
-keytool -genkeypair -alias algafood -keyalg RSA -keypass 123456 -keystore algafood.jks -storepass 123456
+keytool -genkeypair -alias algafood -keyalg RSA -keypass CHAVE_PRIVADA -keystore algafood.jks -storepass SENHA_DO_ARQUIVO
 Keypass: senha do par de chaves
 Storepass: Senha do Arquivo JKS
 Keyalg: Algoritmo usado
 Listar Entradas:
 keytool -list -keystore algafood.jks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar Auth Server
+ para assinar com JKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- O ideal é ter um par de chaves JKS para cada ambiente DEV e PROD
+- JKS será usado para assinar o token
+- Dentro de um arquivoo JKS podem conter vários pares de chaves, que são definidos por um alias
+- Alteramos o JwtAccessTokenConverter para utilizar o arquivo JKS:
+...jwtAccessTokenConverter() {	
+	var jksResource = new ClassPathResource(jwtKeyStoreProperties.getPath());
+	var keyStorePass = jwtKeyStoreProperties.getPassword();
+	var keyPairAlias = jwtKeyStoreProperties.getKeypairAlias();
+	var keyStoreKeyFactory = new KeyStoreKeyFactory(jksResource, keyStorePass.toCharArray());
+	var keyPair = keyStoreKeyFactory.getKeyPair(keyPairAlias);
+	jwtAccessTokenConverter.setKeyPair(keyPair);
+	return jwtAccessTokenConverter;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar Resource Server 
+Para validar token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A partir do JKS extraimos um certifica .PEM
+- Esse certificado contém a chave publica para validação da assinatura do JWT
+- Esse arquivo possui o formato texto criptografado
+Para validarmos no Resorce Server devemos configurar para que ao receber a requisição seja interceptado e extraída essas informações:
+- Configuramos nosso properties apontando o local da chave pública:
+#spring.security.oauth2.resourceserver.jwt.public-key-location=classpath:keys/algafood-pkey.pem
+- Na classe ResourceServerConfig vamos configurar o metodo configure:
+... configure(HttpSecurity http) throws Exception {
+http...oauth2ResourceServer().jwt()
+.jwtAuthenticationConverter(jwtAuthenticationConverter());
+}
+- A função jwtAuthenticationConverter devemos cria-la de forma que possamos descriptografar o token e extrair as permissões necessárias dele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.11</t>
   </si>
   <si>
     <t xml:space="preserve">Certificado .pem</t>
@@ -3646,23 +3935,104 @@
     <t xml:space="preserve">Aprovação Granular</t>
   </si>
   <si>
-    <t xml:space="preserve">- Com as alterações a aprovação de acesso no login da nossa aplicação passa a ser mais encapsulada e generalizada
-- Caso queira um aprovação Granular de certos recursos utilize um TokenApprovalStore no Authorization Server Config</t>
+    <t xml:space="preserve">- A aprovação granular permite que seja definidos escopoes no momento da aprovação, read ou write 
+- Com as alterações a aprovação de acesso no login da nossa aplicação passa a ser mais encapsulada e generalizada
+- Caso queira um aprovação Granular de certos recursos utilize um TokenApprovalStore no Authorization Server Config
+- A ordem como é cofigurada tem relevância ou seja gere o token primeiro e em seguida adicione um Approval Token:
+.tokenEnhancer(enhancerChain)
+	.approvalStore(approvalStore(endpoints.getTokenStore()))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12</t>
   </si>
   <si>
     <t xml:space="preserve">UserDetailsService</t>
   </si>
   <si>
-    <t xml:space="preserve">- Serviço para exposição de Usuários do Banco com o propósito de usá-los para autenticação do Resource</t>
+    <t xml:space="preserve">'- Serviço para exposição de Usuários do Banco com o propósito de usá-los para autenticação do Resource
+- Para configurar a utilização de usuários do banco de dados na autenticação necessitamos ajustar nosso Authorization Server:
+- Primeiro as dependências do JPA, MySQL e Lombook
+- Depois Repositórios, Entidades e JpaUserDetailsService
+- Em JpaUserDetailService é necessário implementar o método loadUserByUsername para buscar o usuário que vamos autenticar
+- Lembrando que a senha deve estar encriptografada para ser utilizada, podemos usar o Password Encoder
+- Definir as configurações do Server
+@Override
+...configure(AuthorizationServerEndpointsConfigurer endpoints) throws Exception {
+endpoints
+.authenticationManager(authenticationManager)
+.userDetailsService(userDetailsService)
+.authorizationCodeServices(new JdbcAuthorizationCodeServices(this.dataSource)…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.14</t>
   </si>
   <si>
     <t xml:space="preserve">Claim JWT</t>
   </si>
   <si>
-    <t xml:space="preserve">- Claim são os tributos do json JWT
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Claim são os tributos do json JWT
 - Podemos adicionar novos cliams no nosso token
-- Para isso criamos uma classe JwtCustomClaimsTokenEnhance
-- Podemos trafegar informações do Usuário, Nome Completo, e-mail, id</t>
+- Para isso criamos uma classe </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">JwtCustomClaimsTokenEnhancer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Podemos trafegar informações do Usuário, Nome Completo, e-mail, id</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">23.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enhancerChain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Uma cadeia de claims que são oincrementadas ao token
+- Usamos o JwtCustomToken para adicionar as propriedades customizadas e o jwtAccessToken para adicionar informações do acesso
+var enhanceChain = new TokenEnhancerChain();
+enhanceChain.setTokenEnhancers(
+Arrays.asList(new JwtCustomClaimsTokenEnhancer(), jwtAccessTokenConverter()));
+- Depois ajustamos o token no configure
+endpoins....tokenEnhancer(enhancerChain)...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações de Usuário Logado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Podemos obter as informações do usuário logado através do token que recebemos na requisição
+- Através do jwtCustomClaims definimos email, nome e id do usuário
+- Podemos então atribuir um pedido ao usuário logados, restringir seus acessos a determinados endpoint
+- Tudo isso através das informações obtidas pelo token
+Exemplo:
+novoPedido.getCliente().setId(algaSecurity.getUsuarioId());
+public Long getUsuarioId(){
+	Jwt jwt = (Jwt) getAuthentication().getPrincipal();
+Return jwt.getClaim("usuario_id");}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.17</t>
   </si>
   <si>
     <t xml:space="preserve">Permissoes</t>
@@ -3671,7 +4041,26 @@
     <t xml:space="preserve">- Para acrescentar as permissões dos usuários usaremos a classe AuthUser com a seguinte definição:
 Collection&lt;? extends GrantedAuthority&gt; autorities
 - E em JpaUserDetailService usaremos SimpleGrantedAuthority para definir as permissões.
-- É necessário extrair as permissões do token JWT usando jwtAuthenticationConverter.</t>
+- É necessário extrair as permissões do token JWT usando jwtAuthenticationConverter.
+usuario.getGrupos().stream()
+.flatMap(grupo -&gt; grupo.getPermissoes().stream())
+			.map(permissao -&gt; new SimpleGrantedAuthority(permissao.getNome().toUpperCase()))
+.collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jwtAuthenticationConverter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Devemos converter cada String recebida com os nomes de permissões em um objeto de Permissões
+- Para isso usamos o jwtAuthenticationConverter() e setamos nas configurações do http:
+http....oauth2ResourceServer().jwt()
+				.jwtAuthenticationConverter(jwtAuthenticationConverter());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.20</t>
   </si>
   <si>
     <t xml:space="preserve">Method Security</t>
@@ -3686,6 +4075,33 @@
 @CheckSecurity.Cozinhas.PodeEditar</t>
   </si>
   <si>
+    <t xml:space="preserve">23.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaAnotações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Funcionam como expressões dentro de uma anotação
+- Uma Meta Anotação carrega propriedades de uma ou mais anotação que se resolvem através de um metodo
+Exemplo:
+@CheckSecurity.Cozinhas.PodeConsultar
+@GetMapping(value = "/{cozinhaId}")
+public CozinhaModel buscar(@PathVariable Long cozinhaId) {…}
+- Temos a meta anotação @CheckSecurity.Cozinhas.PodeConsultar que faz a verificação das permissões e defini se podemos ou não ulitizar aquele metodo do controlador
+public @interface CheckSecurity {…} com 
+@PreAuthorize("@algaSecurity.podeConsultarCozinhas()")
+        @Retention(RUNTIME)
+        @Target(METHOD)
+        public @interface PodeConsultar { }
+Aqui é chamado um metodo que retorna um valoo booleano dizendo se tem ou não aquela permissão:
+@algaSecurity.podeConsultarCozinhas()
+public boolean podeConsultarCozinhas() {
+	    return isAutenticado() &amp;&amp; temEscopoLeitura();}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scope Security</t>
   </si>
   <si>
@@ -3695,14 +4111,22 @@
 @PreAuthorize("hasAuthority('SCOPE_WRITE') and hasAuthority('EDITAR_COZINHAS')")</t>
   </si>
   <si>
+    <t xml:space="preserve">23.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">@PostAuthorize</t>
   </si>
   <si>
     <t xml:space="preserve">- Realiza uma verificação após o método ser chamado
 - Deve ser usado para casos onde não gere efeitos colaterais
 - Podemos usar variaveis implicitas pois o método já foi executado e retornou alguma informação
+- IMPORTANTE: Como fazemos a consulta do pedido podemos checar se o retorno desse pedido pertence a ele, 
+é útil porque só realiza a query apenas uma vez e aproveita o retorno para fazer uma outra verificação
 - Um exemplo de variavel implicita é o returnObject que é o retorno do methodo
 @PostAuthorize("hasAuthority('CONSULTAR_PEDIDOS') or @algaSecurity.getUsuarioId() == returnObject.cliente.id")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Autenticação por Banco de Dados</t>
@@ -3711,9 +4135,15 @@
     <t xml:space="preserve">- Talvez seja necessário a criação de uma tablea para armazenar as aplicações que farão a solicitação de Token
 - Para isso setamos a configuração do Authorization Server para buscar os dados de acesso
 - Em ClientDetailsServiceConfigurer configuraremos os clients como jdbc
+@Override
+public void configure(ClientDetailsServiceConfigurer clients) throws Exception {
+clients.jdbc(dataSource);}
 - Para debugar possíveis erros utilizar:
 logging.level.org.springframework=DEBUG
 - Também é necessário a criação da tabela oauth_client_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Tabela OAUTH_CLIENT_DETAILS</t>
@@ -3730,44 +4160,149 @@
 Authorities: define authorities padrão para o toke ‘EDITAR_COZINHAS,EDITAR_RESTAURANTES’ </t>
   </si>
   <si>
+    <t xml:space="preserve">23.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juntando o Authorization Server 
+dentro do Resource Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Possui vantagens como economia de custos em instancias de aplcação em nuvem
+- Para escalabilidade de serviço
+- Adicione as dependências de segurança no projeto e traga as classes do Authorization Server para Resource Server
+- WebSecurity,AuthUser, CorsConfig, e as Classes do JWT
+- Arquivo jks e suas propriedades definidas em application.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.41</t>
+  </si>
+  <si>
     <t xml:space="preserve">SecurityScheme</t>
   </si>
   <si>
-    <t xml:space="preserve">- Para que seja opossível executar testes em nossa API através da documentação é necessário o securityScheme
+    <t xml:space="preserve">- Para que seja possível executar testes em nossa API através da documentação é necessário o securityScheme
 - Configurado no SpringFoxConfig ele tem como objetivo especificar o metodo de segurança usado na API
 - Ao configura-lo um botão de Authorize será exibido na documentação.</t>
   </si>
   <si>
+    <t xml:space="preserve">23.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">Customização de Tela de Login</t>
   </si>
   <si>
-    <t xml:space="preserve">'- Podemos Customizar a tela de Login usada para autenticação da nossa API:
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ThymeLeaf é uma templete Engine do Java para criar páginas dinâmicas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Podemos Customizar a tela de Login usada para autenticação da nossa API:
 http://api.algafood.local:9000/login
 - Precisamos adicionar a dependecia do Thymeleaf
-_x0001_&lt;dependency&gt;
-&lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-&lt;artifactId&gt;spring-boot-starter-thymeleaf&lt;/artifactId&gt;
-&lt;/dependency&gt;
-- ThymeLeaf é uma templete Engine do Java para criar páginas dinâmicas</t>
+spring-boot-starter-thymeleaf
+- Definimos o path do login em ResourceServerConfig
+...configure(HttpSecurity http) throws Exception {
+http.formLogin().loginPage("/login")... }
+- Criar um controlador para receber a requisição no path definido
+@Controller
+public class SecurityController {
+@GetMapping("/login")
+public String login() {return "pages/login";}}
+- Colocar os arquivos de paginas em resources/templates/pages/login.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">23.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customização de 
+Pagina de Aprovação OAuth2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Pagina que define escopo de aprovação sendo READ e/ou WRITE
+- Para customiza-la insira os arquivos na pasta resources/template/pages
+- Capture a requisição para redirecionar o acesso:
+	@GetMapping("/oauth/confirm_access")
+public String approval() {return "pages/approval";}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.44</t>
   </si>
   <si>
     <t xml:space="preserve">Proteção de Arquivos de Keys</t>
   </si>
   <si>
-    <t xml:space="preserve">- Para Securança da nossa aplicação tempos chaves de Acesso JKS e o Certificado PEM
-- Caso queira subir para produção essa chaves não devem ser expostas por motivos de Segurança
+    <t xml:space="preserve">- Para Segurança da nossa aplicação temos chaves de Acesso JKS e o Certificado PEM
+- Caso queira subir para produção essa chaves NÃO devem ser expostas por motivos de Segurança
 - Para isso devemos substituir por JWKS (Json Web Key Set)</t>
   </si>
   <si>
+    <t xml:space="preserve">23.45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Json Web Key Security</t>
   </si>
   <si>
     <t xml:space="preserve">- Conjunto de Chaves contendo as chaves públicas usadas para verificar os JWTs emitidos pelo Authorization Server e Assinados pelo SHA256
-- Criaremos um endpoint que irá gerar um conjunto de chaves para acesso públicas para usarmos
-- Para isso no AuthorizationServerConfig criaremos um método que para resgatar a chave pública JWKSet e expomos com @Bean
+- Criaremos um endpoint que irá gerar um conjunto de chaves para acesso públicas para usarmos e
+deletamos o arquivo PEM (chave publica) da nossa pasta
+- No AuthorizationServerConfig criaremos um método que para resgatar a chave pública JWKSet e expomos com @Bean
+@Bean public JWKSet jwkSet() {…}
+private KeyPair keyPair() {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endpoint JKS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 - O Endpoint precisará tem como URI o valor “.well-known/jwks.json”
 - Para expor o Endpoint criaremos um controlador JwKSetController expondo a URI citada e também acrescentar no application properties:
-spring.security.oauth2.resourceserver.jwt.jwk-set-uri=http://localhost:9000/.well-known/jwks.json</t>
+spring.security.oauth2.resourceserver.jwt.jwk-set-uri=http://localhost:9000/.well-known/jwks.json
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+@RestController
+public class JwkSetController {
+@Autowired
+private JWKSet jwkSet;
+@GetMapping("/.well-known/jwks.json")
+public Map&lt;String, Object&gt; keys(){
+return this.jwkSet.toJSONObject();
+}}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Externalizar o JKS</t>
@@ -3776,10 +4311,21 @@
     <t xml:space="preserve">- Implementar um Protocolo para carregar o Resource em Base 64 no application.properties
 - comando para retornar o jks em base64
 cat algafood.jks | base64 (No Linux) ou por algum site que converta em base64
-- Ao converter o arquivo para base¨4 e salvar no aplication.properties precisamos de uma classe que resolva essa codificação
+- Ao converter o arquivo para base64 e salvar no aplication.properties precisamos de uma classe que resolva essa codificação
+algafood.jwt.keystore.jks-location=base64:MIIKqAIBAzCCClIGCSqGSIb3DQEHA…
 - Criaremos a classe Base64ProtocolResolver para ler o arquivo.
+public class Base64ProtocolResolver implements ProtocolResolver,ApplicationListener&lt;ApplicationContextInitializedEvent&gt;{...}
+-Para fazer a leitura:
+var keyStoreKeyFactory = new KeyStoreKeyFactory(jwtKeyStoreProperties.getJksLocation(), keyStorePass.toCharArray());
 - Precisamos instanciar um listener para subir com o contexto do Spring implementando tambem ApplicationListener
-- E por fim adicionamos antes de iniciar a aplicação no ApplicationSpring.</t>
+Com isso o Spring saberá resolver o Base64 em properites
+- E por fim adicionamos antes de iniciar a aplicação no ApplicationSpring.
+var app = new SpringApplication(AlgafoodApiApplication.class);
+app.addListeners(new Base64ProtocolResolver());
+app.run(args);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Docker</t>
@@ -4723,6 +5269,17 @@
     <t xml:space="preserve">26.17</t>
   </si>
   <si>
+    <t xml:space="preserve">Spring Authorizer Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Nova Solução Spring para Authorization Server segundo o padrão OAuth2.1
+- Novo projeto do Spring Framework que substitui o Spring Security Oauth que foi descontinuado
+- Spring Security Oauth foi dividido em dois projetos: Spring Security (Resource Server) e Spring Authorization Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERRO</t>
   </si>
   <si>
@@ -4745,7 +5302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4795,6 +5352,11 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4888,7 +5450,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5084,10 +5646,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B385" activeCellId="0" sqref="B385"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A394" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B398" activeCellId="0" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6254,17 +6816,19 @@
       <c r="B106" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6275,7 +6839,7 @@
         <v>295</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8002,1232 +8566,1486 @@
       <c r="B265" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="C265" s="4"/>
+      <c r="C265" s="4" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C266" s="4"/>
+        <v>737</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B267" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="C267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="C268" s="4"/>
-    </row>
-    <row r="269" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>742</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C269" s="4"/>
+        <v>744</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C270" s="4"/>
+        <v>747</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="C271" s="4"/>
-    </row>
-    <row r="272" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>749</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C272" s="4"/>
+        <v>752</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C273" s="4"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>755</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="95.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C274" s="4"/>
-    </row>
-    <row r="275" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>757</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="74.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C275" s="4"/>
-    </row>
-    <row r="276" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>759</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="60.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="C276" s="4"/>
-    </row>
-    <row r="277" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>762</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="51.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="C277" s="4"/>
-    </row>
-    <row r="278" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>765</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="167.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C278" s="4"/>
-    </row>
-    <row r="279" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>767</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="C279" s="4"/>
-    </row>
-    <row r="280" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>771</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C280" s="4"/>
-    </row>
-    <row r="281" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>773</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C281" s="4"/>
-    </row>
-    <row r="282" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>775</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="86.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="C282" s="4"/>
-    </row>
-    <row r="283" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>778</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="86.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C283" s="4"/>
-    </row>
-    <row r="284" customFormat="false" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>781</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="74.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C284" s="4"/>
-    </row>
-    <row r="285" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>784</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="C285" s="4"/>
-    </row>
-    <row r="286" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>787</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C286" s="4"/>
-    </row>
-    <row r="287" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>790</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="292.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C287" s="4"/>
-    </row>
-    <row r="288" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>793</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C288" s="4"/>
-    </row>
-    <row r="289" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>796</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C289" s="4"/>
-    </row>
-    <row r="290" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>799</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="C290" s="4"/>
-    </row>
-    <row r="291" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>801</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="55.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="C291" s="4"/>
-    </row>
-    <row r="292" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>803</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="C292" s="4"/>
-    </row>
-    <row r="293" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>806</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C293" s="4"/>
-    </row>
-    <row r="294" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>809</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C294" s="4"/>
-    </row>
-    <row r="295" customFormat="false" ht="180.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>812</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C295" s="4"/>
-    </row>
-    <row r="296" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>814</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="C296" s="4"/>
-    </row>
-    <row r="297" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>816</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="202.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="C297" s="4"/>
-    </row>
-    <row r="298" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>818</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="130.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="C298" s="4"/>
-    </row>
-    <row r="299" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>821</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="56.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="C299" s="4"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>824</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="C300" s="4"/>
-    </row>
-    <row r="301" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>827</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="210.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="C301" s="4"/>
-    </row>
-    <row r="302" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>830</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="200.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="C302" s="4"/>
-    </row>
-    <row r="303" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>833</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="135.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C303" s="4"/>
-    </row>
-    <row r="304" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>836</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="C304" s="4"/>
-    </row>
-    <row r="305" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>838</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="45.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="C305" s="4"/>
-    </row>
-    <row r="306" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>840</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C306" s="4"/>
-    </row>
-    <row r="307" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>842</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="180.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="C307" s="4"/>
-    </row>
-    <row r="308" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>845</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="C308" s="4"/>
+        <v>848</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="C309" s="4"/>
-    </row>
-    <row r="310" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>851</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="124.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="C310" s="4"/>
-    </row>
-    <row r="311" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>853</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="112.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="C311" s="4"/>
-    </row>
-    <row r="312" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>856</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="C312" s="4"/>
-    </row>
-    <row r="313" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>859</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="257.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="106.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="118.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>842</v>
+        <v>876</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="77.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>851</v>
+        <v>886</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="78.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>854</v>
+        <v>889</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="45.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="108.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>859</v>
+        <v>894</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="178.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>863</v>
+        <v>896</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>897</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="228.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>866</v>
+        <v>899</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>868</v>
+        <v>901</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>869</v>
+        <v>902</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>871</v>
+        <v>904</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>873</v>
+        <v>907</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>874</v>
+        <v>908</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>875</v>
+        <v>910</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>876</v>
+        <v>911</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="224.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>882</v>
+        <v>915</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="228.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>889</v>
+        <v>922</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>892</v>
+        <v>925</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>893</v>
+        <v>926</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>902</v>
+        <v>935</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>903</v>
+        <v>937</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>904</v>
+        <v>938</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>905</v>
+        <v>940</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>908</v>
+        <v>943</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>909</v>
+        <v>944</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>917</v>
+        <v>950</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="224.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>922</v>
+        <v>955</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>923</v>
+        <v>956</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="198" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="228.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>924</v>
+        <v>958</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>925</v>
+        <v>959</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>927</v>
+        <v>961</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>928</v>
+        <v>962</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>931</v>
+        <v>965</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>934</v>
+        <v>968</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>936</v>
+        <v>970</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>937</v>
+        <v>971</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>939</v>
+        <v>973</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>947</v>
+        <v>980</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>948</v>
+        <v>981</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>950</v>
+        <v>983</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>951</v>
+        <v>984</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>952</v>
+        <v>986</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>953</v>
+        <v>987</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>956</v>
+        <v>990</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>957</v>
+        <v>992</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>958</v>
+        <v>993</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>995</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="198" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="61.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>997</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1000</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1003</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>971</v>
+        <v>1005</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1006</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>973</v>
+        <v>1008</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="242.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1009</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>976</v>
+        <v>1011</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>977</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1012</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>979</v>
+        <v>1014</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1015</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>981</v>
+        <v>1017</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>982</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1018</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>983</v>
+        <v>1019</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1020</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>985</v>
+        <v>1022</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>986</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1023</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>988</v>
+        <v>1024</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1025</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>991</v>
+        <v>1027</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="74.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1028</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>994</v>
+        <v>1029</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="75.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1030</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>997</v>
+        <v>1032</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>998</v>
+        <v>1033</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="61.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>1003</v>
+        <v>1038</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>1004</v>
+        <v>1039</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>1007</v>
+        <v>1041</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>1042</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>1010</v>
+        <v>1043</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>1044</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="128.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="242.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="6"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-    </row>
-    <row r="383" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
-    </row>
-    <row r="384" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-    </row>
-    <row r="385" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
-    </row>
-    <row r="386" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="6"/>
-      <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
-    </row>
-    <row r="387" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="6"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
-    </row>
-    <row r="388" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-    </row>
-    <row r="389" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="74.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="75.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="128.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="6"/>
+      <c r="B397" s="6"/>
+      <c r="C397" s="6"/>
+    </row>
+    <row r="398" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="6"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="6"/>
+    </row>
+    <row r="399" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="6"/>
+      <c r="B399" s="6"/>
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="6"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="6"/>
+      <c r="B401" s="6"/>
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="6"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="6"/>
+    </row>
+    <row r="403" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="6"/>
+      <c r="B403" s="6"/>
+      <c r="C403" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -9264,7 +10082,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>1018</v>
+        <v>1093</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -9276,10 +10094,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1019</v>
+        <v>1094</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1020</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9287,10 +10105,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1021</v>
+        <v>1096</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1022</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1101">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -1276,6 +1276,9 @@
     <t xml:space="preserve">ResourceUtils.getContentFromResource("/json/correto/cozinha-chinesa.json")</t>
   </si>
   <si>
+    <t xml:space="preserve">10.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">RestAssured</t>
   </si>
   <si>
@@ -1286,9 +1289,6 @@
     	&lt;artifactId&gt;rest-assured&lt;/artifactId&gt;
     	&lt;scope&gt;test&lt;/scope&gt;
     &lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8</t>
   </si>
   <si>
     <t xml:space="preserve">Utilizando RestAssured</t>
@@ -3312,11 +3312,17 @@
 Authorization: Basic am9hbxzoxMjM=</t>
   </si>
   <si>
+    <t xml:space="preserve">22.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spring Security</t>
   </si>
   <si>
     <t xml:space="preserve">- Apenas adicionando o Starter do Spring na nossa palicação já temos um formulário de login e senha
 - As próximas requisições serão autenticadas e precisarão do cabeçalho Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2</t>
   </si>
   <si>
     <t xml:space="preserve">Usuário e Senha Básicos</t>
@@ -3339,13 +3345,18 @@
     <t xml:space="preserve">WebSecurityConfig</t>
   </si>
   <si>
-    <t xml:space="preserve">- Classe de configuração WebSecurityque pode customizar as configurações de segurança
+    <t xml:space="preserve">- Classe de configuração WebSecurity que pode customizar as configurações de segurança
 - Pode definir quais endpoints serão autenticados ou não
 - Podemos definir estado da API como STATELESS para não guardarmos Cookies
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-Site Request Forgery</t>
+@EnableWebSecurity
+public class WebSecurityConfig extends WebSecurityConfigurerAdapter {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-Site Request Forgery
+CSRF</t>
   </si>
   <si>
     <t xml:space="preserve">- Conhecido como CSRF
@@ -3365,10 +3376,14 @@
 - Toda senha precisa ser criptografada por isso criaremos o methodo de encriptação passwordEncoder()</t>
   </si>
   <si>
+    <t xml:space="preserve">22.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">OAuth2</t>
   </si>
   <si>
-    <t xml:space="preserve">- É um protocolo, é uma especificação
+    <t xml:space="preserve">'- Framework(Conjunto de regras) de segurança que utiliza http
+- É um protocolo, uma especificação
 - Mais usada para proteger APIs
 - Não trafega usuário e senha e sim Token de autorização
 - Servidor de Acesso retorna token em string e um cabeçalho precisa ser passado na requisição da API
@@ -3378,6 +3393,9 @@
 - Permite que APIs terceiras recebam acesso limitados a nossa aplicação usando protocolo HTTP</t>
   </si>
   <si>
+    <t xml:space="preserve">22.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roles OAuth2</t>
   </si>
   <si>
@@ -3390,21 +3408,31 @@
     <t xml:space="preserve">Fluxo de Acesso</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource Owner através do Client aciona o Authorization Server para garantir acesso ao Resource Server</t>
+    <t xml:space="preserve">- Resource Owner: Dono do Produto
+- Authorization Server: Porteiro, controlador do Acesso
+- Client: Aplicação que deseja acessar o Recurso ou seja acessar a API
+- Resource Server: API que contém os recursos
+Resource Owner através do Client aciona o Authorization Server para garantir acesso ao Resource Server
+O Cliente quer acessar o Resource Server em nome do Resource Owner e o Authorization Server que permite essa concessão
+O Client não quer o usuário e senha do Resource Owner, ele só solicita o acesso</t>
   </si>
   <si>
     <t xml:space="preserve">Resource Server</t>
   </si>
   <si>
     <t xml:space="preserve">- Podemos usar Spring Secuirity ou OAuth Server
-- OAuth Server está sendo depreciado e será migrado para Spring Security
+-  Spring Security OAuth  foi DEPRECIADO use apenas o  Spring Secuirity
 - Para que nossa aplicação passe a funcionar como um Resource Server é necessário uma dependência no pom.xml
 spring-boot-starter-oauth2-resource-server
 - Necessário customizar as configurações em ResourceServerConfig e especificar URI de checagem de token em application.properties
 - Após essa configuração é necessário passar no cabeçalho Authorization: Bearer + token (Bearer significa Titular)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxo: Password Credentials Grant</t>
+    <t xml:space="preserve">22.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo: Resource Owner
+Password Credentials Grant</t>
   </si>
   <si>
     <t xml:space="preserve">- Garante um token a partir de um usuário e senha, também conhecido como Password Credentials
@@ -3414,6 +3442,9 @@
 OBS: Fluxo não aconselhado para ser usado, a não ser que não tenha outra solução</t>
   </si>
   <si>
+    <t xml:space="preserve">22.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authorization Server Configurer Adapter</t>
   </si>
   <si>
@@ -3423,21 +3454,159 @@
 - Authorization Server produz o token para o Client e também valida o token quando o Resource Server o recebe.</t>
   </si>
   <si>
+    <t xml:space="preserve">22.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Server Externo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AuthorizationServerConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Extende AuthorizationServerConfigurerAdapter possui as definições necessária para a configuração do Servidor,
+Carrega a anotação @EnableAuthorizationServer e o método configure com os detalhes dos clients (memória ou banco de dados), 
+Podemos definir o fluxo (password, credentials, token) e scopes (read, write)
+Autenticacao para comunicacao com o server (no caso de querer consultar token security.checkTokenAccess("isAuthenticated()"))
+Podemos deixar como security.checkTokenAccess("permitAll()").tokenKeyAccess("permitAll()").allowFormAuthenticationForClients() pois é sóconsulta de token
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WebSecurityConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: extende WebSecurityConfigurerAdapter e carrega a anotation @EnableWebSecurity possui PasswordEncode para criptografar as senhas e AuthenticationManager para gerenciar os usuários(Usado apenas no fluxo de “Password”)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CorsConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: habilita o cors para que seja possível o fazer e receber requisições no authorization Server
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PkceAuthorizationCodeTokenGranter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Somente para caso for utilizar o fluxo PKCE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">JwtCustomClaimsTokenEnhancer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Para adicionar campos customizados no token JWT</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Requisição de Token</t>
   </si>
   <si>
     <t xml:space="preserve">- Requisição para /oauth/token
 - Authentication: Basic Client Credentials
-- Body: x-www-form com username, password e grant_type
+- Body: x-www-form com username, password e grant_type (username: jose, password: 123, grant_type: password)
 - Recebemos um token opaco: que é um token onde não sabemos as informações dele</t>
   </si>
   <si>
+    <t xml:space="preserve">Opaque Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um token opaco é quando temos acesso ao token porém não conseguimos visualizar seu conteúdo
+Geralmente são representados em um formato UUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">OAuth2 Introspection</t>
   </si>
   <si>
     <t xml:space="preserve">- Define o que deve ser passado na consulta e recebimento do Token do Authorization Server
-- A checkagem de token acontece na rota /oauth/check_token
+- A checkagem de token acontece na rota /oauth/check_token e indica se o token está ativo ou foi revogado
 - Configuração é definida por AuthorizationServerSecurityConfigurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Server Interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faz a checagem do token oauth2 no Resource Server
+Para isso definimos uma classe ResourceServerConfig extendendo WebSecurityAdapter
+@EnableWebSecurity
+public class ResourceServerConfig extends WebSecurityConfigurerAdapter {…}
+Com a configuração de instronspection-uri, client id e secret em application properties:
+spring.security.oauth2.resourceserver.opaquetoken.introspection-uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.11</t>
   </si>
   <si>
     <t xml:space="preserve">Refresh Token</t>
@@ -3452,14 +3621,21 @@
 - Podemos invalidar um refresh token assim que usarmos uma vez com  .reuseRefreshTokens(false);</t>
   </si>
   <si>
+    <t xml:space="preserve">22.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fluxo: Client Credentials Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">- Quando uma aplicação gera token em nome dele própria e não em nome de algum usuário
+    <t xml:space="preserve">- Quando uma aplicação gera token em nome dela própria e não em nome de algum usuário
+- Normalmente uma aplicação backend acessando outra aplicação
 - Permite gerar um access token apenas com as credenciais do client
 - Usa no gant type: client_credentials
 - Não permite usar refresh_token
 - Para configura-lo basta criar um novo client em AuthorizationServerConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.15</t>
   </si>
   <si>
     <t xml:space="preserve">Fluxo: Authorization Code Grant</t>
@@ -3474,38 +3650,54 @@
 - Para chamar a API é necessário informar no cabeçalho o code recebido, o grant_type como authorization_code e redirect_uri sendo a url definida http://aplicacao-cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">22.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fluxo: Implicit Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">- Semelhante ao Authorization Code porém simplificado (LEGADO: Esse fluxo não deve ser usado)
-- Ao invés de retornar um código já retorna o token na URL
+    <t xml:space="preserve">- Semelhante ao Authorization Code porém simplificado (LEGADO: Esse fluxo não deve ser usado, segurança fraca)
+- Ao invés de retornar um código já retorna o token na URL (Não emite refresh token)
+Utiliza authorizedGrantTypes(“implicit”)
 http://auth.algafood.local:8081/oauth/authorize?response_type=token&amp;client_id=webadmin&amp;state=abc&amp;redirect_uri=http://aplicacao-cliente
 - Implicit não emite refresh token</t>
   </si>
   <si>
+    <t xml:space="preserve">22.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authorization Code + PKCE</t>
   </si>
   <si>
     <t xml:space="preserve">- Proof Key for Code Exchange (Chave de Prova para Troca de Código)
+- É uma extensão do OAuth2
 - Resolve fluxo de clientes públicos, onde não é possível manter a confidencialidade das credenciais (client_id e client_secret de fácil acesso)
+IMPORTANTE: não necessita que client_id e secret sejam expostos no código, pois utiliza um certificado
 - Token só será fornecido após validação do Code Challenge em SHA-256 e Bae64 Url
-1° - Client gera Verifier e Code Challange, então Autorization Server mantém o código para validação futura
-2° - Solicita a aprovação passando o code_challange e vefifier
-- No momento de solicitar o acesso token é passado o code, grant_type e redirect_uri passando o verifyer para validação do code_challenge
+1° - Client gera Verifier e Code Challange(SHA-256), então Autorization Server mantém o código para validação futura
+2° - Solicita a aprovação passando o code_challange e verifier
+- No momento de solicitar o acesso token é passado o code, grant_type e redirect_uri passando o verifier para validação do code_challenge
+(Code chalenge só será utilizado nesse passo para autenticar com o Authorization Server)
 Para implementá-lo usamos o método tokenGranter
 - O tokenGranter instancia o Authorization Code com PKCE
 Exemplo de Url de Authenticação:
 http://auth.algafood.local:8081/oauth/authorize?response_type=code&amp;client_id=foodanalytics&amp;state=abc&amp;redirect_uri=http://aplicacao-cliente&amp;code_challenge=teste123&amp;code_challenge_method=plain
 3° - Depois de Autenticado e aprovado, faremos uma nova requisição porém agora passando o code_challenge no cabeçalho do code_verifier e então recebemos um token
 4º – Seguimos com a chamada à aplicação
-Evita ataques de força bruta pois tem somente uma chance para acertar o code_challenge, caso errar o code_cerifier será invalidado.</t>
+OBS.: Evita ataques de força bruta pois tem somente UMA chance para acertar o code_challenge, caso errar o code_cerifier será invalidado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.22</t>
   </si>
   <si>
     <t xml:space="preserve">Clientes Público x Confidencial</t>
   </si>
   <si>
-    <t xml:space="preserve">- Público é aquele que tem o client_id exposto, mesmo que compilado como no caso dos mobile, é possível fazer uma engenharia reversa e resgatar esse código
+    <t xml:space="preserve">- Público é aquele que tem o client_id exposto, mesmo que compilado como no caso dos mobile ou web(SPA), é possível fazer uma engenharia reversa e resgatar esse código
 - Confidencial: Comunicação com o Authorization é feita no Servidor e não no Browser como usuário final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.27</t>
   </si>
   <si>
     <t xml:space="preserve">Clientes Confiáveis x Não Confiáveis</t>
@@ -3533,6 +3725,24 @@
 - Configurado a partir do AuthorizationServerEndpointsConfigure</t>
   </si>
   <si>
+    <t xml:space="preserve">23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedisToken Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Armazenamento de token no store do Redis
+- Adicionar no Authorization Server a dependência starter no spring: spring-boot-starter-data-redis
+- Configurar properties com host, port e password
+- Configurar endpoint server para armazenamento no redis na classe AuthorizationServerConfig:
+@Override public void configure(AuthorizationServerEndpointsConfigurer endpoints) throws Exception {…}
+endpoints...tokenStore(new RedisTokenStore(redisConnectionFactory))
+	.tokenGranter(tokenGranter(endpoints));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statefull vs Stateless</t>
   </si>
   <si>
@@ -3542,12 +3752,15 @@
  e não precisar armazenar informações no servidor. (Referindo-se ao estado da Aplicação e não dos Recursos)</t>
   </si>
   <si>
+    <t xml:space="preserve">23.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application State vs Resource State</t>
   </si>
   <si>
     <t xml:space="preserve">- Estado da Aplicação e Estado dos Recursos
 - Estado dos Recursos são relacionados aos domínios do negócio (Cozinhas, Restaurantes e Etc)
-- Estado da aplicação é o mesmo que o estado da Sessão do Usuário, (Cliente é força a fazer várias requisições)</t>
+- Estado da aplicação é o mesmo que o estado da Sessão do Usuário (Cliente é força a fazer várias requisições)</t>
   </si>
   <si>
     <t xml:space="preserve">Statefull Authentication vs Stateless Authentication</t>
@@ -3560,40 +3773,70 @@
 * Ultiliza Transparent Token, tem informações do usuário contidas no token
 * Resolve as desvantagens do Statefull
 * Sessão do Usuário armazenada no lado do cliente
-* Servidor não sabe qauis tokens emitiu, apenas consegue validá-los
+* Servidor não sabe quais tokens emitiu, apenas consegue validá-los
 * Token só revoga após a expiração do tempo definido </t>
   </si>
   <si>
     <t xml:space="preserve">Trasparent Token</t>
   </si>
   <si>
-    <t xml:space="preserve">- É um token composto por Header, payload e assinatura
-- Possui o formato de uma string Encodada em base 64
+    <t xml:space="preserve">- Um transparente token refere-se a um token de autenticação que é gerado, validado e transmitido sem necessidade de intervenção do usuário, permitindo acesso contínuo e seguro a recursos protegidos.
+- NÃO PRECISA ARMAZENAR AS INFORMAÇÕES EM SERVIDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Json Web Token
+JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- JWT é um tipo de token transparente com formato json padrão
+- Transporta dados de uma forma compacta e segura
+- Possui uma string criptografada em Base64 e assinado com um HASH criptografico
+- Possui 3 partes: Header, Payload, e Assinatura
 - Para decodificar o token podemos usar o site:
 http://jwt.io
 - O Header é um objeto json que possui informações como tipo do token e tipos de criptografia usada
 - O Payload possui informações (CLAIM) de autorização e autenticação com o Servidor
 - Assinatura: informações de criptografia
 - O tamanho da senha precisa ser 32 bit.
+- IMPORTANTE: Só quem possui a chave consegue criptografar e descriptografar o token, essa chave não é fornecida na requisição mas ambos os lados conhecem
+- Dependência: spring-security-jwt
 - Para visualizar problemas com Token habilite o log level DEBUG:
-logging.level.org.springframework=DEBUG
-- NÃO PRECISA ARMAZENAR AS INFORMAÇÕES EM SERVIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criptografia Simétrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Usa uma chave compartilhada por que emite e receber uma mensagem (SHMA).
-- Authorization Server compartilha cave com Resource Server.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criptografia Assimétrica</t>
+logging.level.org.springframework=DEBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criptografia Simétrica
+SHA256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Usa uma chave compartilhada por quem emite e receber uma mensagem (SHMA).
+- Ou Seja, ambos os lados possuem a chave e ela não é trafegada na requisição
+- Authorization Server compartilha cave com Resource Server.
+- NÃO É NECESSÁRIO ARMAZENAR NENHUM TOKEN
+@Bean
+public JwtAccessTokenConverter jwtAccessTokenConverter() {
+	var jwtAccessTokenConverter = new JwtAccessTokenConverter();
+	jwtAccessTokenConverter.setKeyPair("CHAVE_SIMETRICA");
+	return jwtAccessTokenConverter;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criptografia Assimétrica
+RS256</t>
   </si>
   <si>
     <t xml:space="preserve">- Utiliza um par de chaves, sendo uma privada e a outra pública (RS256)
-- Emissor possui a chave privada, Autorization deve possui uma chave e não compartilhá-la com ninguém
+- Emissor possui a chave privada, Autorization deve possuir uma chave e não compartilhá-la com ninguém
 - Chave privada é que assina o JWT.
-- Receptor usa chave pública, Resource Server só valida a assinatura, é aberta, se interceptar não tem problema.</t>
+- Receptor usa chave pública, Resource Server SÓ valida a assinatura, é aberta, se interceptar não tem problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7</t>
   </si>
   <si>
     <t xml:space="preserve">KeyTool</t>
@@ -3603,12 +3846,58 @@
 - Já está contida no JDK
 - Cria e Gerencia arquivos JKS (Repositório para Armazenar um Conjunto de Chaves Criptograficas em Formato Binário)
 Criando Chaves:
-keytool -genkeypair -alias algafood -keyalg RSA -keypass 123456 -keystore algafood.jks -storepass 123456
+keytool -genkeypair -alias algafood -keyalg RSA -keypass CHAVE_PRIVADA -keystore algafood.jks -storepass SENHA_DO_ARQUIVO
 Keypass: senha do par de chaves
 Storepass: Senha do Arquivo JKS
 Keyalg: Algoritmo usado
 Listar Entradas:
 keytool -list -keystore algafood.jks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar Auth Server
+ para assinar com JKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- O ideal é ter um par de chaves JKS para cada ambiente DEV e PROD
+- JKS será usado para assinar o token
+- Dentro de um arquivoo JKS podem conter vários pares de chaves, que são definidos por um alias
+- Alteramos o JwtAccessTokenConverter para utilizar o arquivo JKS:
+...jwtAccessTokenConverter() {	
+	var jksResource = new ClassPathResource(jwtKeyStoreProperties.getPath());
+	var keyStorePass = jwtKeyStoreProperties.getPassword();
+	var keyPairAlias = jwtKeyStoreProperties.getKeypairAlias();
+	var keyStoreKeyFactory = new KeyStoreKeyFactory(jksResource, keyStorePass.toCharArray());
+	var keyPair = keyStoreKeyFactory.getKeyPair(keyPairAlias);
+	jwtAccessTokenConverter.setKeyPair(keyPair);
+	return jwtAccessTokenConverter;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar Resource Server 
+Para validar token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A partir do JKS extraimos um certifica .PEM
+- Esse certificado contém a chave publica para validação da assinatura do JWT
+- Esse arquivo possui o formato texto criptografado
+Para validarmos no Resorce Server devemos configurar para que ao receber a requisição seja interceptado e extraída essas informações:
+- Configuramos nosso properties apontando o local da chave pública:
+#spring.security.oauth2.resourceserver.jwt.public-key-location=classpath:keys/algafood-pkey.pem
+- Na classe ResourceServerConfig vamos configurar o metodo configure:
+... configure(HttpSecurity http) throws Exception {
+http...oauth2ResourceServer().jwt()
+.jwtAuthenticationConverter(jwtAuthenticationConverter());
+}
+- A função jwtAuthenticationConverter devemos cria-la de forma que possamos descriptografar o token e extrair as permissões necessárias dele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.11</t>
   </si>
   <si>
     <t xml:space="preserve">Certificado .pem</t>
@@ -3646,23 +3935,104 @@
     <t xml:space="preserve">Aprovação Granular</t>
   </si>
   <si>
-    <t xml:space="preserve">- Com as alterações a aprovação de acesso no login da nossa aplicação passa a ser mais encapsulada e generalizada
-- Caso queira um aprovação Granular de certos recursos utilize um TokenApprovalStore no Authorization Server Config</t>
+    <t xml:space="preserve">- A aprovação granular permite que seja definidos escopoes no momento da aprovação, read ou write 
+- Com as alterações a aprovação de acesso no login da nossa aplicação passa a ser mais encapsulada e generalizada
+- Caso queira um aprovação Granular de certos recursos utilize um TokenApprovalStore no Authorization Server Config
+- A ordem como é cofigurada tem relevância ou seja gere o token primeiro e em seguida adicione um Approval Token:
+.tokenEnhancer(enhancerChain)
+	.approvalStore(approvalStore(endpoints.getTokenStore()))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12</t>
   </si>
   <si>
     <t xml:space="preserve">UserDetailsService</t>
   </si>
   <si>
-    <t xml:space="preserve">- Serviço para exposição de Usuários do Banco com o propósito de usá-los para autenticação do Resource</t>
+    <t xml:space="preserve">'- Serviço para exposição de Usuários do Banco com o propósito de usá-los para autenticação do Resource
+- Para configurar a utilização de usuários do banco de dados na autenticação necessitamos ajustar nosso Authorization Server:
+- Primeiro as dependências do JPA, MySQL e Lombook
+- Depois Repositórios, Entidades e JpaUserDetailsService
+- Em JpaUserDetailService é necessário implementar o método loadUserByUsername para buscar o usuário que vamos autenticar
+- Lembrando que a senha deve estar encriptografada para ser utilizada, podemos usar o Password Encoder
+- Definir as configurações do Server
+@Override
+...configure(AuthorizationServerEndpointsConfigurer endpoints) throws Exception {
+endpoints
+.authenticationManager(authenticationManager)
+.userDetailsService(userDetailsService)
+.authorizationCodeServices(new JdbcAuthorizationCodeServices(this.dataSource)…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.14</t>
   </si>
   <si>
     <t xml:space="preserve">Claim JWT</t>
   </si>
   <si>
-    <t xml:space="preserve">- Claim são os tributos do json JWT
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Claim são os tributos do json JWT
 - Podemos adicionar novos cliams no nosso token
-- Para isso criamos uma classe JwtCustomClaimsTokenEnhance
-- Podemos trafegar informações do Usuário, Nome Completo, e-mail, id</t>
+- Para isso criamos uma classe </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">JwtCustomClaimsTokenEnhancer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Podemos trafegar informações do Usuário, Nome Completo, e-mail, id</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">23.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enhancerChain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Uma cadeia de claims que são oincrementadas ao token
+- Usamos o JwtCustomToken para adicionar as propriedades customizadas e o jwtAccessToken para adicionar informações do acesso
+var enhanceChain = new TokenEnhancerChain();
+enhanceChain.setTokenEnhancers(
+Arrays.asList(new JwtCustomClaimsTokenEnhancer(), jwtAccessTokenConverter()));
+- Depois ajustamos o token no configure
+endpoins....tokenEnhancer(enhancerChain)...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações de Usuário Logado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Podemos obter as informações do usuário logado através do token que recebemos na requisição
+- Através do jwtCustomClaims definimos email, nome e id do usuário
+- Podemos então atribuir um pedido ao usuário logados, restringir seus acessos a determinados endpoint
+- Tudo isso através das informações obtidas pelo token
+Exemplo:
+novoPedido.getCliente().setId(algaSecurity.getUsuarioId());
+public Long getUsuarioId(){
+	Jwt jwt = (Jwt) getAuthentication().getPrincipal();
+Return jwt.getClaim("usuario_id");}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.17</t>
   </si>
   <si>
     <t xml:space="preserve">Permissoes</t>
@@ -3671,7 +4041,26 @@
     <t xml:space="preserve">- Para acrescentar as permissões dos usuários usaremos a classe AuthUser com a seguinte definição:
 Collection&lt;? extends GrantedAuthority&gt; autorities
 - E em JpaUserDetailService usaremos SimpleGrantedAuthority para definir as permissões.
-- É necessário extrair as permissões do token JWT usando jwtAuthenticationConverter.</t>
+- É necessário extrair as permissões do token JWT usando jwtAuthenticationConverter.
+usuario.getGrupos().stream()
+.flatMap(grupo -&gt; grupo.getPermissoes().stream())
+			.map(permissao -&gt; new SimpleGrantedAuthority(permissao.getNome().toUpperCase()))
+.collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jwtAuthenticationConverter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Devemos converter cada String recebida com os nomes de permissões em um objeto de Permissões
+- Para isso usamos o jwtAuthenticationConverter() e setamos nas configurações do http:
+http....oauth2ResourceServer().jwt()
+				.jwtAuthenticationConverter(jwtAuthenticationConverter());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.20</t>
   </si>
   <si>
     <t xml:space="preserve">Method Security</t>
@@ -3686,6 +4075,33 @@
 @CheckSecurity.Cozinhas.PodeEditar</t>
   </si>
   <si>
+    <t xml:space="preserve">23.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaAnotações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Funcionam como expressões dentro de uma anotação
+- Uma Meta Anotação carrega propriedades de uma ou mais anotação que se resolvem através de um metodo
+Exemplo:
+@CheckSecurity.Cozinhas.PodeConsultar
+@GetMapping(value = "/{cozinhaId}")
+public CozinhaModel buscar(@PathVariable Long cozinhaId) {…}
+- Temos a meta anotação @CheckSecurity.Cozinhas.PodeConsultar que faz a verificação das permissões e defini se podemos ou não ulitizar aquele metodo do controlador
+public @interface CheckSecurity {…} com 
+@PreAuthorize("@algaSecurity.podeConsultarCozinhas()")
+        @Retention(RUNTIME)
+        @Target(METHOD)
+        public @interface PodeConsultar { }
+Aqui é chamado um metodo que retorna um valoo booleano dizendo se tem ou não aquela permissão:
+@algaSecurity.podeConsultarCozinhas()
+public boolean podeConsultarCozinhas() {
+	    return isAutenticado() &amp;&amp; temEscopoLeitura();}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scope Security</t>
   </si>
   <si>
@@ -3695,14 +4111,22 @@
 @PreAuthorize("hasAuthority('SCOPE_WRITE') and hasAuthority('EDITAR_COZINHAS')")</t>
   </si>
   <si>
+    <t xml:space="preserve">23.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">@PostAuthorize</t>
   </si>
   <si>
     <t xml:space="preserve">- Realiza uma verificação após o método ser chamado
 - Deve ser usado para casos onde não gere efeitos colaterais
 - Podemos usar variaveis implicitas pois o método já foi executado e retornou alguma informação
+- IMPORTANTE: Como fazemos a consulta do pedido podemos checar se o retorno desse pedido pertence a ele, 
+é útil porque só realiza a query apenas uma vez e aproveita o retorno para fazer uma outra verificação
 - Um exemplo de variavel implicita é o returnObject que é o retorno do methodo
 @PostAuthorize("hasAuthority('CONSULTAR_PEDIDOS') or @algaSecurity.getUsuarioId() == returnObject.cliente.id")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Autenticação por Banco de Dados</t>
@@ -3711,9 +4135,15 @@
     <t xml:space="preserve">- Talvez seja necessário a criação de uma tablea para armazenar as aplicações que farão a solicitação de Token
 - Para isso setamos a configuração do Authorization Server para buscar os dados de acesso
 - Em ClientDetailsServiceConfigurer configuraremos os clients como jdbc
+@Override
+public void configure(ClientDetailsServiceConfigurer clients) throws Exception {
+clients.jdbc(dataSource);}
 - Para debugar possíveis erros utilizar:
 logging.level.org.springframework=DEBUG
 - Também é necessário a criação da tabela oauth_client_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Tabela OAUTH_CLIENT_DETAILS</t>
@@ -3730,44 +4160,107 @@
 Authorities: define authorities padrão para o toke ‘EDITAR_COZINHAS,EDITAR_RESTAURANTES’ </t>
   </si>
   <si>
+    <t xml:space="preserve">23.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juntando o Authorization Server 
+dentro do Resource Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Possui vantagens como economia de custos em instancias de aplcação em nuvem
+- Para escalabilidade de serviço
+- Adicione as dependências de segurança no projeto e traga as classes do Authorization Server para Resource Server
+- WebSecurity,AuthUser, CorsConfig, e as Classes do JWT
+- Arquivo jks e suas propriedades definidas em application.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.41</t>
+  </si>
+  <si>
     <t xml:space="preserve">SecurityScheme</t>
   </si>
   <si>
-    <t xml:space="preserve">- Para que seja opossível executar testes em nossa API através da documentação é necessário o securityScheme
+    <t xml:space="preserve">- Para que seja possível executar testes em nossa API através da documentação é necessário o securityScheme
 - Configurado no SpringFoxConfig ele tem como objetivo especificar o metodo de segurança usado na API
 - Ao configura-lo um botão de Authorize será exibido na documentação.</t>
   </si>
   <si>
+    <t xml:space="preserve">23.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">Customização de Tela de Login</t>
   </si>
   <si>
-    <t xml:space="preserve">'- Podemos Customizar a tela de Login usada para autenticação da nossa API:
+    <t xml:space="preserve">'- ThymeLeaf é uma templete Engine do Java para criar páginas dinâmicas
+- Podemos Customizar a tela de Login usada para autenticação da nossa API:
 http://api.algafood.local:9000/login
 - Precisamos adicionar a dependecia do Thymeleaf
-_x0001_&lt;dependency&gt;
-&lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-&lt;artifactId&gt;spring-boot-starter-thymeleaf&lt;/artifactId&gt;
-&lt;/dependency&gt;
-- ThymeLeaf é uma templete Engine do Java para criar páginas dinâmicas</t>
+spring-boot-starter-thymeleaf
+- Definimos o path do login em ResourceServerConfig
+...configure(HttpSecurity http) throws Exception {
+http.formLogin().loginPage("/login")... }
+- Criar um controlador para receber a requisição no path definido
+@Controller
+public class SecurityController {
+@GetMapping("/login")
+public String login() {return "pages/login";}}
+- Colocar os arquivos de paginas em resources/templates/pages/login.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customização de 
+Pagina de Aprovação OAuth2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Pagina que define escopo de aprovação sendo READ e/ou WRITE
+- Para customiza-la insira os arquivos na pasta resources/template/pages
+- Capture a requisição para redirecionar o acesso:
+	@GetMapping("/oauth/confirm_access")
+public String approval() {return "pages/approval";}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.44</t>
   </si>
   <si>
     <t xml:space="preserve">Proteção de Arquivos de Keys</t>
   </si>
   <si>
-    <t xml:space="preserve">- Para Securança da nossa aplicação tempos chaves de Acesso JKS e o Certificado PEM
-- Caso queira subir para produção essa chaves não devem ser expostas por motivos de Segurança
+    <t xml:space="preserve">- Para Segurança da nossa aplicação temos chaves de Acesso JKS e o Certificado PEM
+- Caso queira subir para produção essa chaves NÃO devem ser expostas por motivos de Segurança
 - Para isso devemos substituir por JWKS (Json Web Key Set)</t>
   </si>
   <si>
+    <t xml:space="preserve">23.45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Json Web Key Security</t>
   </si>
   <si>
     <t xml:space="preserve">- Conjunto de Chaves contendo as chaves públicas usadas para verificar os JWTs emitidos pelo Authorization Server e Assinados pelo SHA256
-- Criaremos um endpoint que irá gerar um conjunto de chaves para acesso públicas para usarmos
-- Para isso no AuthorizationServerConfig criaremos um método que para resgatar a chave pública JWKSet e expomos com @Bean
+- Criaremos um endpoint que irá gerar um conjunto de chaves para acesso públicas para usarmos e
+deletamos o arquivo PEM (chave publica) da nossa pasta
+- No AuthorizationServerConfig criaremos um método que para resgatar a chave pública JWKSet e expomos com @Bean
+@Bean public JWKSet jwkSet() {…}
+private KeyPair keyPair() {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endpoint JKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 - O Endpoint precisará tem como URI o valor “.well-known/jwks.json”
 - Para expor o Endpoint criaremos um controlador JwKSetController expondo a URI citada e também acrescentar no application properties:
-spring.security.oauth2.resourceserver.jwt.jwk-set-uri=http://localhost:9000/.well-known/jwks.json</t>
+spring.security.oauth2.resourceserver.jwt.jwk-set-uri=http://localhost:9000/.well-known/jwks.json
+@RestController
+public class JwkSetController {
+@Autowired
+private JWKSet jwkSet;
+@GetMapping("/.well-known/jwks.json")
+public Map&lt;String, Object&gt; keys(){
+return this.jwkSet.toJSONObject();
+}}</t>
   </si>
   <si>
     <t xml:space="preserve">Externalizar o JKS</t>
@@ -3776,10 +4269,21 @@
     <t xml:space="preserve">- Implementar um Protocolo para carregar o Resource em Base 64 no application.properties
 - comando para retornar o jks em base64
 cat algafood.jks | base64 (No Linux) ou por algum site que converta em base64
-- Ao converter o arquivo para base¨4 e salvar no aplication.properties precisamos de uma classe que resolva essa codificação
+- Ao converter o arquivo para base64 e salvar no aplication.properties precisamos de uma classe que resolva essa codificação
+algafood.jwt.keystore.jks-location=base64:MIIKqAIBAzCCClIGCSqGSIb3DQEHA…
 - Criaremos a classe Base64ProtocolResolver para ler o arquivo.
+public class Base64ProtocolResolver implements ProtocolResolver,ApplicationListener&lt;ApplicationContextInitializedEvent&gt;{...}
+-Para fazer a leitura:
+var keyStoreKeyFactory = new KeyStoreKeyFactory(jwtKeyStoreProperties.getJksLocation(), keyStorePass.toCharArray());
 - Precisamos instanciar um listener para subir com o contexto do Spring implementando tambem ApplicationListener
-- E por fim adicionamos antes de iniciar a aplicação no ApplicationSpring.</t>
+Com isso o Spring saberá resolver o Base64 em properites
+- E por fim adicionamos antes de iniciar a aplicação no ApplicationSpring.
+var app = new SpringApplication(AlgafoodApiApplication.class);
+app.addListeners(new Base64ProtocolResolver());
+app.run(args);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Docker</t>
@@ -4451,6 +4955,302 @@
   </si>
   <si>
     <t xml:space="preserve">26.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removendo SpringFox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SpringDoc não funciona em conjunto com SpringFox
+Para remover as dependências do SpringFox devemos remover do pom.xml o spring-fox-bean-validator e springfox-swagger-ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionando SpringDoc no Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicione as seguintes dependências ao projeto:
+Springdoc-openapi-ui, springdoc-openapi-hateoas e springdoc-openapi-security
+Todos na versao 1.6.9 com Spring na versão 2.7.1 e java 17
+Com isso é possível acessar a documentacao em swagger-ui/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bean OpenApi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Bean do OpenApi estão as configurações de inicialização do swagger
+Estão as configurações que podemos customizar:
+@Configuration
+public class SpringDocConfig {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitando presença de Controllers na Documentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faz com que seja possível limitar quais os pacotes serão escaneados para apresentação da documentação
+Em application.properties insira a configuração:
+springdoc.packages-to-scan=com.algaworks.algafood.api
+Também podemos limitar a descoberta por paths:
+springdoc.path-to-match=/v1/**,/v2/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bean GroupedOpenApi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Utilizado para fazer separações na documentação entre versionamentos de controladores
+- Criamos um Bean para agrupar todos os controllers de uma versão:
+@Bean
+public GroupedOpenApi v1Api() {
+return GroupedOpenApi.builder()
+.group("v1")
+.pathsToMatch("/v1/**")
+.build();
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança na Documentação
+Botão Authorize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para realizar autenticação na documentação para envio de requisições usamos a anotação @SecurityScheme
+@Configuration
+@SecurityScheme(name = "security_auth", type = SecuritySchemeType.OAUTH2)@Configuration
+@SecurityScheme(
+name = "security_auth",
+type = SecuritySchemeType.OAUTH2,
+flows =  @OAuthFlows(authorizationCode = @OAuthFlow(
+authorizationUrl = "${springdoc.oAuthFlow.authorizationUrl}",
+tokenUrl = "${springdoc.oAuthFlow.tokenUrl}",
+scopes = {
+@OAuthScope(name = "READ", description = "read scope"),
+@OAuthScope(name = "WRITE", description = "write scope"),
+}
+)))
+Public class SpringDocConfig {…}
+- Com isso um botão de Authorize aparecerá ao canto da tela para autenticar seu usuário para requisições
+- Crie as chaves no application.properties e configura a autenticação
+springdoc.oAuthFlow.authorizationUrl=http://localhost:9000/oauth/authorize
+springdoc.oAuthFlow.tokenUrl=http://localhost:9000/oauth/token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparando Autorização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Definir o client para preenchimento automático:
+springdoc.swagger-ui.oauth.client-id=algafood-web
+springdoc.swagger-ui.oauth.client-secret=web123
+E utilizaça o do PKCE:
+springdoc.swagger-ui.oauth.use-pkce-with-authorization-code-grant=true
+- Em oauth_client_details adicione o redirecionamento e permissões do usuário
+Na coluna ‘scope’ deve conter: 
+  'READ,WRITE', 'password,authorization_code', 'http://localhost:9000,http://localhost:9000/swagger-ui/oauth2-redirect.html', null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adiciona no Controllers a Anotação de Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para autorização do fluxo que implementamos é necessário adicionar uma anotação sobre os controladores com o nome da security que criamos
+@SecurityRequirement(name="security_auth")
+public interface CidadeControllerOpenApi {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorizando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao clicar no botão ao canto da tela em documentação é possível observar que tudo está preenchido e configurado
+Selecione todos os escopos e clique em autorizar
+Preencha com as credenciais de seu usuário joao.ger@algafood.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de TAGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servem para agrupar alguns recursos semelhantes definindo nome e descrição
+@Tag(name = "Cidades", description = "Gerencia as Cidades")
+public interface CidadeControllerOpenApi {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Operações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descreve uma aoperação de um endpoint na documentação:
+	@Operation(summary = "Cadastra uma cidade", description = "Cadastro de uma cidade, necessita de um estado e um nome válido")
+	CidadeModel adicionar(CidadeInput cidadeInput);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Parâmetros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define os parâmetros nos recursos attravés da anotação @Parameter e também @Requestbody do swagger
+Também é possível definir um exemplo que autocompletará na documentação:
+CidadeModel buscar(@Parameter(description = "ID de uma cidade", example = "1", required = true) Long cidadeId);
+	CidadeModel adicionar(@RequestBody(description = "Representação de uma nova cidade", required = true) CidadeInput cidadeInput);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Modelos de Representação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Podemos descrever os Modelos de Representação, seus campos e classes
+- Essa configuração é refletida tanto requisição quanto nos modelos representados abaixo na documentação
+@NotBlank
+@Schema(example = "Uberlândia")
+private String nome;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Validação de Modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para definir as validações de modelo o springDocs consegue aproveitar as anotações já definidas como @NotBlank, @NotNull
+- Mas podemos definir na própria anotação caso necessário com required = true
+- Porém é preferível continuar utilizando as anotações do Javax
+@Schema(example = "Uberlândia", required = true)
+private String nome;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definindo Códigos de Respostas 
+De Forma Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessário a criação de um Bean OpenAPICustomizer
+Essa customização faz um iteração sobre os paths da nossa aplicação e adiciona ApiResponse Globeis nele de acordo com seus status
+                        ApiResponse apiResponseNaoEncontrado = new ApiResponse().description("Recurso não encontrado");
+                        responses.addApiResponse("406", apiResponseNaoEncontrado);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo StatusCode 
+Para Respostas Específicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na anotação de @Operation basta passar o código e descrição
+	@Operation(summary = "Busca uma cidade por Id", responses = {
+			@ApiResponse(responseCode = "200"),
+			@ApiResponse(responseCode = "400", description = "ID da cidade inválido",
+					content = @Content(schema = @Schema))})
+	CidadeModel buscar(@Parameter(description = "ID de uma cidade", example = "1", required = true) Long cidadeId);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo StatusCode
+De Acordo com Método HTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podemos customizar as respostas de acordo com os metodos, 
+Com isso utilizamos o mesmo openApiCustomizer mas iteramos sobre os paths e filtramos pelos metodos:
+switch (httpMethod) {
+case GET:
+	responses.addApiResponse("404", new ApiResponse().description("Recurso não encontrado"));
+	break;
+case POST:
+responses.addApiResponse("400", new ApiResponse().description("Requisição inválida"));
+…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referenciando uma Respose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Também podemos cira um mapa e fazer uma referência a ele:
+        apiResponseMap.put(internalServerErrorResponse, new ApiResponse()
+.description("Erro interno no servidor").content(content));
+…
+case DELETE:
+responses.addApiResponse("500", new ApiResponse().$ref(internalServerErrorResponse));
+ break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrevendo Modelo do Problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basta seguir o mesmo exemplo dos modelos e configurar no openApi Docs:
+@Schema(name = "Problema")
+public class Problem {…}
+Com isso teremos que registrar os schemas em openApi e depois referenciar em operations
+openApi...components(new Components().schemas(
+gerarSchemas()));
+@Operation(...@Content(schema = @Schema(ref = "Problema")))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrigindo Documentação com
+PageableParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para representar parâmetros do tipo Pageable é necessário declarar vários parâmetros (page, size, sort)
+- Para melhorarmos a visibilidade e organização do código vamos criar uma anotação personalizada chamada PageableParameter
+- PageableParameter conterá todas as especificações e exemplos centralizados em uma única aotação:
+@Parameter(
+in = ParameterIn.QUERY,
+name = "sort",
+description = "Critério de ordenação: propriedade(asc|desc).",
+examples = { @ExampleObject("nome,desc") ...}
+)
+public @interface PageableParameter {...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Authorizer Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Nova Solução Spring para Authorization Server segundo o padrão OAuth2.1
+- Novo projeto do Spring Framework que substitui o Spring Security Oauth que foi descontinuado
+- Spring Security Oauth foi dividido em dois projetos: Spring Security (Resource Server) e Spring Authorization Server
+- O spring authorization server já possui as dependencias do JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustando o Projecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- O AuthorizationServerConfig será completamente refatorado
+-  JwkSetController será removido
+- JwtCustomClaimsTokenEnhancer será reescrita
+- PkceAuthorizationCodeTokenGranter será removida
+- Security Controller será removido
+- Em ResourceServerConfig o WebSecurityConfigurerAdapter foi decpreciado e precisará ser refatorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -4585,7 +5385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4616,10 +5416,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4814,10 +5610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A359" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B362" activeCellId="0" sqref="B362"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A394" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B396" activeCellId="0" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5984,17 +6780,19 @@
       <c r="B106" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6005,7 +6803,7 @@
         <v>295</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7732,1116 +8530,1492 @@
       <c r="B265" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="C265" s="4"/>
+      <c r="C265" s="4" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C266" s="4"/>
+        <v>737</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B267" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="C267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="C268" s="4"/>
-    </row>
-    <row r="269" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>742</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C269" s="4"/>
+        <v>744</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C270" s="4"/>
+        <v>747</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="C271" s="4"/>
-    </row>
-    <row r="272" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>749</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C272" s="4"/>
+        <v>752</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C273" s="4"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>755</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="95.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C274" s="4"/>
-    </row>
-    <row r="275" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>757</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="74.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C275" s="4"/>
-    </row>
-    <row r="276" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>759</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="60.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="C276" s="4"/>
-    </row>
-    <row r="277" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>762</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="51.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="C277" s="4"/>
-    </row>
-    <row r="278" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>765</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="167.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C278" s="4"/>
-    </row>
-    <row r="279" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>767</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="C279" s="4"/>
-    </row>
-    <row r="280" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>771</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C280" s="4"/>
-    </row>
-    <row r="281" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>773</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C281" s="4"/>
-    </row>
-    <row r="282" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>775</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="86.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="C282" s="4"/>
-    </row>
-    <row r="283" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>778</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="86.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C283" s="4"/>
-    </row>
-    <row r="284" customFormat="false" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>781</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="74.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C284" s="4"/>
-    </row>
-    <row r="285" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>784</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="C285" s="4"/>
-    </row>
-    <row r="286" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>787</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C286" s="4"/>
-    </row>
-    <row r="287" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>790</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="292.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C287" s="4"/>
-    </row>
-    <row r="288" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>793</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C288" s="4"/>
-    </row>
-    <row r="289" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>796</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C289" s="4"/>
-    </row>
-    <row r="290" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>799</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="C290" s="4"/>
-    </row>
-    <row r="291" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>801</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="55.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="C291" s="4"/>
-    </row>
-    <row r="292" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>803</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="C292" s="4"/>
-    </row>
-    <row r="293" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>806</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C293" s="4"/>
-    </row>
-    <row r="294" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>809</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C294" s="4"/>
-    </row>
-    <row r="295" customFormat="false" ht="180.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>812</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C295" s="4"/>
-    </row>
-    <row r="296" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>814</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="C296" s="4"/>
-    </row>
-    <row r="297" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>816</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="202.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="C297" s="4"/>
-    </row>
-    <row r="298" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>818</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="130.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="C298" s="4"/>
-    </row>
-    <row r="299" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>821</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="56.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="C299" s="4"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>824</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="C300" s="4"/>
-    </row>
-    <row r="301" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>827</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="210.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="C301" s="4"/>
-    </row>
-    <row r="302" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>830</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="200.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="C302" s="4"/>
-    </row>
-    <row r="303" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>833</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="135.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C303" s="4"/>
-    </row>
-    <row r="304" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>836</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="C304" s="4"/>
-    </row>
-    <row r="305" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>838</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="45.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="C305" s="4"/>
-    </row>
-    <row r="306" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>840</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C306" s="4"/>
-    </row>
-    <row r="307" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>842</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="180.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="C307" s="4"/>
-    </row>
-    <row r="308" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>845</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="C308" s="4"/>
+        <v>848</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="C309" s="4"/>
-    </row>
-    <row r="310" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>851</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="124.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="C310" s="4"/>
-    </row>
-    <row r="311" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>853</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="112.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="C311" s="4"/>
-    </row>
-    <row r="312" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>856</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="C312" s="4"/>
-    </row>
-    <row r="313" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>859</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="257.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="106.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="118.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>842</v>
+        <v>876</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="77.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>851</v>
+        <v>886</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="78.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>854</v>
+        <v>889</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="45.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="108.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>859</v>
+        <v>894</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="178.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>862</v>
+        <v>896</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>863</v>
+        <v>897</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="228.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>866</v>
+        <v>899</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>868</v>
+        <v>901</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>869</v>
+        <v>902</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>871</v>
+        <v>904</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>873</v>
+        <v>907</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>874</v>
+        <v>908</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>875</v>
+        <v>910</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>876</v>
+        <v>911</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="224.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>882</v>
+        <v>915</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="228.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>889</v>
+        <v>922</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>892</v>
+        <v>925</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>893</v>
+        <v>926</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>902</v>
+        <v>935</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>903</v>
+        <v>937</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>904</v>
+        <v>938</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="234.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>905</v>
+        <v>940</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>908</v>
+        <v>943</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>909</v>
+        <v>944</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>917</v>
+        <v>950</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="224.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>922</v>
+        <v>955</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>923</v>
+        <v>956</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="198" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="228.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>924</v>
+        <v>958</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>925</v>
+        <v>959</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>927</v>
+        <v>961</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>928</v>
+        <v>962</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>931</v>
+        <v>965</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>934</v>
+        <v>968</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>936</v>
+        <v>970</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>937</v>
+        <v>971</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>939</v>
+        <v>973</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>947</v>
+        <v>980</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>948</v>
+        <v>981</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>950</v>
+        <v>983</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>951</v>
+        <v>984</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>952</v>
+        <v>986</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>953</v>
+        <v>987</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>956</v>
+        <v>990</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>957</v>
+        <v>992</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>958</v>
+        <v>993</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="C361" s="8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="6"/>
-      <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
-    </row>
-    <row r="363" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="6"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
-    </row>
-    <row r="364" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="6"/>
-      <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
-    </row>
-    <row r="365" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
-    </row>
-    <row r="366" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="6"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
-    </row>
-    <row r="367" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="6"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
-    </row>
-    <row r="368" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="6"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
-    </row>
-    <row r="369" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="6"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
-    </row>
-    <row r="370" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="6"/>
-      <c r="B370" s="6"/>
-      <c r="C370" s="6"/>
-    </row>
-    <row r="371" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6"/>
-      <c r="B371" s="6"/>
-      <c r="C371" s="6"/>
-    </row>
-    <row r="372" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="6"/>
-      <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
-    </row>
-    <row r="373" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="6"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
-    </row>
-    <row r="374" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="6"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
-    </row>
-    <row r="375" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="6"/>
-      <c r="B375" s="6"/>
-      <c r="C375" s="6"/>
+        <v>995</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="198" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="6"/>
-      <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
-    </row>
-    <row r="377" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="6"/>
-      <c r="B377" s="6"/>
-      <c r="C377" s="6"/>
-    </row>
-    <row r="378" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="6"/>
-      <c r="B378" s="6"/>
-      <c r="C378" s="6"/>
-    </row>
-    <row r="379" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="6"/>
-      <c r="B379" s="6"/>
-      <c r="C379" s="6"/>
-    </row>
-    <row r="380" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="6"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
-    </row>
-    <row r="381" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-    </row>
-    <row r="382" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="6"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-    </row>
-    <row r="383" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
-    </row>
-    <row r="384" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-    </row>
-    <row r="385" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
-    </row>
-    <row r="386" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="6"/>
-      <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
-    </row>
-    <row r="387" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="6"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
-    </row>
-    <row r="388" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-    </row>
-    <row r="389" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-    </row>
-    <row r="390" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="6"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A376" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="61.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="242.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="121.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="74.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="75.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="128.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="6"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="6"/>
+    </row>
+    <row r="399" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="6"/>
+      <c r="B399" s="6"/>
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="6"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="6"/>
+      <c r="B401" s="6"/>
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="6"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="6"/>
+    </row>
+    <row r="403" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="6"/>
+      <c r="B403" s="6"/>
+      <c r="C403" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -8877,225 +10051,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>963</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>965</v>
+      <c r="B3" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>966</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>967</v>
+      <c r="B4" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1110">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5251,6 +5251,54 @@
   </si>
   <si>
     <t xml:space="preserve">27.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuração do Token Opaco
+Client Credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Adicionar dependencia spring-security-oauth2-authorization-server
+- Criar classe AuthorizationServerConfig e anotar com @Configuration
+- Definir os @Beans de segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Bean de Segurança
+SecurityFilterChain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Bean responsável por definir a configurações http, desabilitando csrf, habilitando login e etc.
+@Bean
+    @Order(Ordered.HIGHEST_PRECEDENCE)
+    public SecurityFilterChain securityFilterChain(HttpSecurity http) throws Exception {…}
+- A anotação @Order faz com que seja possível executar em ordem os Bean que são dois um para Authorizathion Server e outro para o Resource Server
+- O Bean do Authorization Server precisa ser executado primeiro para garantir a segurança </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Bean de Segurança
+ProviderSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Bean responsável por escrever quem será o authrization server que assinará os tokens
+- Criar uma classe de properties que obterá os valores de url e configurações do assinador de tokens AlgaFoodSecurityProperties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Bean de Armazenamento de Clientes
+RegisteredClientRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Bean responsável por guardar os clients do authorization server
+@Bean
+RegisteredClientRepository registeredClientRepository(PasswordEncoder passwordEncoder) {…}
+- Possui implementações tanto INMEMORY quanto JDBC (também podemos personalizar com Redis, etc)
+- .withId é id do banco de dados
+- clientId é o id do cliente, o nome dele
+- clientSecret é a senha criptografada
+- authMetod é o metodo de autenticação ppodendo ser BASIC ou JWT
+- grantType é o tipo de fluxo AUTH_CODE, JWT, CLIENT_CREDENTIALS
+- tokenFormat é o formato do Token REFERENCE é o opaco e SELF_CONTAINED é o Jwt</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5612,8 +5660,8 @@
   </sheetPr>
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A394" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B396" activeCellId="0" sqref="B396"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B402" activeCellId="0" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9986,25 +10034,49 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="6"/>
-      <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
-    </row>
-    <row r="399" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="6"/>
-      <c r="B399" s="6"/>
-      <c r="C399" s="6"/>
-    </row>
-    <row r="400" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="6"/>
-      <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
-    </row>
-    <row r="401" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="6"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
+    <row r="398" customFormat="false" ht="50.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="80.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="45.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="134.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="6"/>
@@ -10052,7 +10124,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -10064,10 +10136,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1098</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10075,10 +10147,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1124">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5265,7 +5265,7 @@
     <t xml:space="preserve">27.3</t>
   </si>
   <si>
-    <t xml:space="preserve">@Bean de Segurança
+    <t xml:space="preserve">Bean de Segurança
 SecurityFilterChain</t>
   </si>
   <si>
@@ -5277,7 +5277,7 @@
 - O Bean do Authorization Server precisa ser executado primeiro para garantir a segurança </t>
   </si>
   <si>
-    <t xml:space="preserve">@Bean de Segurança
+    <t xml:space="preserve">Bean de Segurança
 ProviderSettings</t>
   </si>
   <si>
@@ -5285,7 +5285,7 @@
 - Criar uma classe de properties que obterá os valores de url e configurações do assinador de tokens AlgaFoodSecurityProperties</t>
   </si>
   <si>
-    <t xml:space="preserve">@Bean de Armazenamento de Clientes
+    <t xml:space="preserve">Bean de Armazenamento de Clientes
 RegisteredClientRepository</t>
   </si>
   <si>
@@ -5299,6 +5299,73 @@
 - authMetod é o metodo de autenticação ppodendo ser BASIC ou JWT
 - grantType é o tipo de fluxo AUTH_CODE, JWT, CLIENT_CREDENTIALS
 - tokenFormat é o formato do Token REFERENCE é o opaco e SELF_CONTAINED é o Jwt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testando Geração de Token
+Client Credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Devemos fazer um POST em api.algafood.local:9000/oauth2/token passando como form no body:
+grant_type: client_credentials, scope: READ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script para preencher
+Access Token no PostMan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Criamos as variáveis de ambiente no postman ACCESS_TOKEN e REFRESH_TOKEN
+- Para preenchermos automaticamente as variáveis do Postman após uma requisição podemos usar um script:
+var jsonData = pm.response.json();
+pm.environment.set("ACCESS_TOKEN", jsonData.access_token);
+- Com isso podemos usar nas requisições um forma no body:
+token: {{ACCESS_TOKEN}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspecionando o Token Opaco
+Instrospect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para visualizarmos as propriedades do token, podemos fazer um POST no endpoint /oauth2/instrospect
+- Para a requisição é necessário a autenticação e o token como form do body (token: {{ACCESS_TOKEN}}
+- Com isso teremos as informações de escopo, cliente, provider e expiração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource Server Refatorado
+Token Opaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Criamos nossa classe ResourceServerConfig com securitySilverChain
+- Essa classe não necessita mais estender outras
+@EnableGlobalMethodSecurity(prePostEnabled = true)
+@EnableWebSecurity
+public class ResourceServerConfig {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bean de Configuração
+SiverFilterChain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Bean responsável pelas configurações das requisições cors, crsf ouath2 etc
+ @Bean
+    public SecurityFilterChain resourceServerFilterChain(HttpSecurity http) throws Exception {…}
+- Configurar o application properties:
+spring.security.oauth2.resourceserver.opaque-token.introspection-uri=http://localhost:8080/oauth2/introspect
+spring.security.oauth2.resourceserver.opaque-token.client-id=algafood-backend
+spring.security.oauth2.resourceserver.opaque-token.client-secret=backend123
+- Para fazer requisições basta adicionar o Bearer Token em uma requisição no postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armazenando Autorizações no
+Banco de Dados</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5433,7 +5500,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5464,6 +5531,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -5658,10 +5729,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F403"/>
+  <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B402" activeCellId="0" sqref="B402"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A403" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A408" activeCellId="0" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10079,14 +10150,131 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="6"/>
-      <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
-    </row>
-    <row r="403" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="6"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
+      <c r="A402" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="89.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="124.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A407" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B407" s="6"/>
+      <c r="C407" s="8"/>
+    </row>
+    <row r="408" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="6"/>
+      <c r="B408" s="6"/>
+      <c r="C408" s="8"/>
+    </row>
+    <row r="409" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="6"/>
+      <c r="B409" s="6"/>
+      <c r="C409" s="8"/>
+    </row>
+    <row r="410" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="6"/>
+      <c r="B410" s="6"/>
+      <c r="C410" s="8"/>
+    </row>
+    <row r="411" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="6"/>
+      <c r="B411" s="6"/>
+      <c r="C411" s="8"/>
+    </row>
+    <row r="412" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="6"/>
+      <c r="B412" s="6"/>
+      <c r="C412" s="8"/>
+    </row>
+    <row r="413" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="6"/>
+      <c r="B413" s="6"/>
+      <c r="C413" s="8"/>
+    </row>
+    <row r="414" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="6"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="8"/>
+    </row>
+    <row r="415" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="6"/>
+      <c r="B415" s="6"/>
+      <c r="C415" s="8"/>
+    </row>
+    <row r="416" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="6"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="8"/>
+    </row>
+    <row r="417" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="6"/>
+      <c r="B417" s="6"/>
+      <c r="C417" s="8"/>
+    </row>
+    <row r="418" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="6"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="8"/>
+    </row>
+    <row r="419" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="6"/>
+      <c r="B419" s="6"/>
+      <c r="C419" s="8"/>
+    </row>
+    <row r="420" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="6"/>
+      <c r="B420" s="6"/>
+      <c r="C420" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10123,225 +10311,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1107</v>
+      <c r="B3" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1109</v>
+      <c r="B4" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1131">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5364,8 +5364,37 @@
 - Para fazer requisições basta adicionar o Bearer Token em uma requisição no postman</t>
   </si>
   <si>
-    <t xml:space="preserve">Armazenando Autorizações no
-Banco de Dados</t>
+    <t xml:space="preserve">Bean de Armazenamento de
+Autorizações no Banco de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Podemos armazenar os tokens no banco de dados para não perdermos o estado da aplicação ao reiniciar
+- Precisamos criar uma tabela para armazenamento das informações do token (a tabela “oauth2_authorization”)
+- No AuthrizationServerConfig adicione o Bean de configuração do JDBC
+@Bean
+ public OAuth2AuthorizationService oauth2AuthorizationService(
+JdbcOperations jdbcOperations, RegisteredClientRepository registeredClientRepository) {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revogando um Access Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para revogar o token podemos fazer um POST em /oauth2/revoke
+- Devemos passar o form com o token no body (token: {{ACCESS_TOKEN}})
+- Esse endpoint invalidará o token setando “true” na flag metadata.token.invalidated da coluna access_token_metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuração de Token
+JWT no Authorization Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5500,7 +5529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5531,10 +5560,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -5731,8 +5756,8 @@
   </sheetPr>
   <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A403" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A408" activeCellId="0" sqref="A408"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A410" activeCellId="0" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10178,7 +10203,7 @@
       <c r="B404" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="C404" s="8" t="s">
+      <c r="C404" s="6" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -10189,7 +10214,7 @@
       <c r="B405" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="C405" s="8" t="s">
+      <c r="C405" s="6" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -10200,81 +10225,95 @@
       <c r="B406" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="C406" s="8" t="s">
+      <c r="C406" s="6" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="88.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="B407" s="6"/>
-      <c r="C407" s="8"/>
-    </row>
-    <row r="408" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="6"/>
-      <c r="B408" s="6"/>
-      <c r="C408" s="8"/>
-    </row>
-    <row r="409" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="6"/>
+      <c r="B407" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="49.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="53.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="6" t="s">
+        <v>1124</v>
+      </c>
       <c r="B409" s="6"/>
-      <c r="C409" s="8"/>
+      <c r="C409" s="6" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
-      <c r="C410" s="8"/>
+      <c r="C410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
-      <c r="C411" s="8"/>
+      <c r="C411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
-      <c r="C412" s="8"/>
+      <c r="C412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
-      <c r="C413" s="8"/>
+      <c r="C413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
-      <c r="C414" s="8"/>
+      <c r="C414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
-      <c r="C415" s="8"/>
+      <c r="C415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
-      <c r="C416" s="8"/>
+      <c r="C416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
-      <c r="C417" s="8"/>
+      <c r="C417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
-      <c r="C418" s="8"/>
+      <c r="C418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
-      <c r="C419" s="8"/>
+      <c r="C419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
-      <c r="C420" s="8"/>
+      <c r="C420" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10311,225 +10350,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1121</v>
+      <c r="B3" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1123</v>
+      <c r="B4" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1138">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5394,7 +5394,40 @@
 JWT no Authorization Server</t>
   </si>
   <si>
+    <t xml:space="preserve">'- O token JWT é transparente ou seja guarda informações da requisição em seu payload
+- Em RegisteredClient devemos alterar o tipo do token para OAuth2TokenFormat.SELF_CONTAINED que será nosso token transparente
+- Após essa configuração é necessário adicionar alguns beans</t>
+  </si>
+  <si>
     <t xml:space="preserve">27.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bean de Assinatura do JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Bean do tipo JWK Set com par de chaves públicas e privadas
+- Adicione o Bean no AuthorizationServerConfig
+@Bean
+    public JWKSource&lt;SecurityContext&gt; jwkSource(JwtKeyStoreProperties jwtKeyStoreProperties) {…}
+- Esse Bean será responsável por configurar todas as funcionalidades que dependem da chave publica e privada para criação do token
+- Leitura do JKS como Resource base64 do application properties, disponibilização da chava para uso
+- Podemos consultar a chave pública no endpoint /oauth2/jwks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurando o ResourceServer
+Com Token JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Precisamos configurar para que o Resource Server ao receber o token Jwt verifique a sua assinatura via chave pública via endpoint jwks
+- No metodo resourceServerFilterChain altere o http...oauth2ResourceServer().jwt();
+- No application properties defina qual será a url do authorization-server para chave publica
+spring.security.oauth2.resourceserver.jwt.jwk-set-uri=http://localhost:9000/oauth2/jwks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5756,8 +5789,8 @@
   </sheetPr>
   <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A410" activeCellId="0" sqref="A410"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B414" activeCellId="0" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10255,23 +10288,39 @@
       <c r="A409" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="B409" s="6"/>
+      <c r="B409" s="6" t="s">
+        <v>1125</v>
+      </c>
       <c r="C409" s="6" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="6"/>
-      <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
-    </row>
-    <row r="411" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="6"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="6"/>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="110.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="66.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="6"/>
+      <c r="A412" s="6" t="s">
+        <v>1132</v>
+      </c>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
@@ -10351,7 +10400,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -10363,10 +10412,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10374,10 +10423,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1145">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5427,7 +5427,42 @@
     <t xml:space="preserve">27.10</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
+    <t xml:space="preserve">Fluxo Authorization Code
+Com PKCE e SHA256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Primeiro devemos habilitar a tela de login em filterChain no AuthorizationServerConfig e ResourceServerConfig
+http.formLogin(Customizer.withDefaults()).build();
+- Faça a declaração dos outros RegisteredClients no AuthServerConfig com AuthMethod CLIENT_SECRET_BASIC, grantType AUTHORIZATION_CODE
+E com redirectUri para localhost:9000/authorized
+- Por fim adicionar na lista de clients InMemoryRegisteredClientRepository(Arrays.asList(algafoodbackend, algafoodweb));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testando o Fluxo
+Auth Code + PKCE + SHA256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vamos construir a url no postman no path /oauth2/authorize e passando os parâmetros:
+* response_type = code (Para fluxo Auth Code)
+* client_id = algafood-web
+* state = AbCXyZ (Estado gerado pelo front)
+* redirect_uri= 127.0.0.1:9000/authorized
+* scope=READ WRITE
+* code_challenge=BqZff7HQezJuHzCsBKl1Gq5bG3NoLcG3istqwIc-kJ0 (Pode ser simulado no site Online /pkce-generator/)
+* code_challenge_method=S256
+- Com isso teremos o authorization code e conseguimos solicitar o token no path /oauth2/token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementando o Refresh Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.13</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5789,8 +5824,8 @@
   </sheetPr>
   <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B414" activeCellId="0" sqref="B414"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A410" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A415" activeCellId="0" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10317,22 +10352,36 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="B412" s="6"/>
-      <c r="C412" s="6"/>
-    </row>
-    <row r="413" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="6"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
+      <c r="B412" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="119.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="6"/>
+      <c r="A414" s="6" t="s">
+        <v>1138</v>
+      </c>
       <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
+      <c r="C414" s="6" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="415" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="6"/>
@@ -10400,7 +10449,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -10412,10 +10461,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10423,10 +10472,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1148">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5462,7 +5462,25 @@
     <t xml:space="preserve">Implementando o Refresh Token</t>
   </si>
   <si>
+    <t xml:space="preserve">- Para a utilização do Refresh Token devemos adicionar o parâmetro no RegisteredClient
+.authorizationGrantType(AuthorizationGrantType.REFRESH_TOKEN)
+- Podemos configura o tempo de expiração e seu reuso
+.refreshTokenTimeToLive(Duration.ofDays(1))
+.reuseRefreshTokens(false)</t>
+  </si>
+  <si>
     <t xml:space="preserve">27.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script para preencher 
+Refresh Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para o refresh token podemos utilizar o seguinte script:
+var jsonData = pm.response.json();
+pm.environment.set("ACCESS_TOKEN", jsonData.access_token);
+pm.environment.set("REFRESH_TOKEN", jsonData.refresh_token);
+- Utilizamos o path /oauth2/token com o grant_type refresh_token seguido do próprio refresh_token como form mno body</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5824,8 +5842,8 @@
   </sheetPr>
   <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A410" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A415" activeCellId="0" sqref="A415"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A413" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B416" activeCellId="0" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10374,19 +10392,27 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="B414" s="6"/>
+      <c r="B414" s="6" t="s">
+        <v>1139</v>
+      </c>
       <c r="C414" s="6" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="6"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="6"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="75.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="6"/>
@@ -10449,7 +10475,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -10461,10 +10487,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10472,10 +10498,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1151">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5481,6 +5481,18 @@
 pm.environment.set("ACCESS_TOKEN", jsonData.access_token);
 pm.environment.set("REFRESH_TOKEN", jsonData.refresh_token);
 - Utilizamos o path /oauth2/token com o grant_type refresh_token seguido do próprio refresh_token como form mno body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customização do Auth User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Para customizar as permissões do usuário usando Claims precisamos criar um @Bean de TokenCustomizer
+- No AuthorizationServerConfig crie o bean de customização
+@Bean
+    public OAuth2TokenCustomizer&lt;JwtEncodingContext&gt; jwtCustomizer(UsuarioRepository usuarioRepository) {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.14</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -10414,10 +10426,16 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="6"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
+    <row r="416" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="417" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="6"/>
@@ -10475,7 +10493,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -10487,10 +10505,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10498,10 +10516,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1154">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5493,6 +5493,19 @@
   </si>
   <si>
     <t xml:space="preserve">27.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lendo as Claims Customizadas no 
+Resource Server Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Para fazer a leitura do jwt customizados precisamos criar um JwtAuthenticationConverter no ResourceServerConfig
+private JwtAuthenticationConverter jwtAuthenticationConverter() {…}
+- No SecurityFilterChain podemos definir nosso converter:
+.oauth2ResourceServer().jwt().jwtAuthenticationConverter(jwtAuthenticationConverter());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.15</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5855,7 +5868,7 @@
   <dimension ref="A1:F420"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A413" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B416" activeCellId="0" sqref="B416"/>
+      <selection pane="topLeft" activeCell="B418" activeCellId="0" sqref="B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10437,10 +10450,16 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
+    <row r="417" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="6"/>
@@ -10493,7 +10512,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -10505,10 +10524,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10516,10 +10535,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1157">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5506,6 +5506,32 @@
   </si>
   <si>
     <t xml:space="preserve">27.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armazenamento em Banco
+Clients OAuth2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Para que isso seja possivel é necessário a criação da tabela oauth2_registered_client
+- Em authorizationServerConfig em vez de utilizar InMemory devemos utilizar um JdbcRegisteredClientRepository
+- E cadastrar os clientes conforme os campos
+OBS.: Podemos subir nossa aplicação a primeira vez e cadastrar os clientes que já temos (Não se esqueça de remover depois):
+RegisteredClient foodanalytics = RegisteredClient.withId("3")
+.clientId("foodanalytics")
+.clientSecret(passwordEncoder.encode("web123"))
+.clientAuthenticationMethod(ClientAuthenticationMethod.CLIENT_SECRET_BASIC)
+.authorizationGrantType(AuthorizationGrantType.AUTHORIZATION_CODE)
+ .scope("READ").scope("WRITE").tokenSettings(TokenSettings.builder()
+                        .accessTokenFormat(OAuth2TokenFormat.SELF_CONTAINED)
+.accessTokenTimeToLive(Duration.ofMinutes(30)).build())
+.redirectUri("http://127.0.0.1:8082")
+.clientSettings(ClientSettings.builder()
+.requireAuthorizationConsent(false).build()).build();
+        JdbcRegisteredClientRepository repository = new JdbcRegisteredClientRepository(jdbcOperations);
+        Repository.save(foodanalytics);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.16</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5867,8 +5893,8 @@
   </sheetPr>
   <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A413" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B418" activeCellId="0" sqref="B418"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A417" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B425" activeCellId="0" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10461,10 +10487,16 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="6"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
+    <row r="418" customFormat="false" ht="237.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="6"/>
@@ -10512,7 +10544,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -10524,10 +10556,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10535,10 +10567,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1163">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5532,6 +5532,32 @@
   </si>
   <si>
     <t xml:space="preserve">27.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customizando a tela de Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Para customizar a pagina de login basta adicionarmos um comando no filterChain apontando para a tela de login no ResourceServer e no AuthorizationServer
+http.formLogin(customizer -&gt; customizer.loginPage("/oauth/login")).build();
+- Necessário a criação de um WebMvcConfig para fazer a requisição em /login vincular ao local uma pagina
+@Configuration
+public class WebMvcConfig implements WebMvcConfigurer {
+@Override
+public void addViewControllers( ViewControllerRegistry registry) {
+registry.addViewController("/login").setViewName("pages/login");
+registry.setOrder(Ordered.HIGHEST_PRECEDENCE);}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customizando a tela de consentimento do OAuth2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- No Authorization Service devemos adicionar um Bean para customização de consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.18</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5666,7 +5692,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5697,6 +5723,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -5891,10 +5925,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F420"/>
+  <dimension ref="A1:F425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A417" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B425" activeCellId="0" sqref="B425"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A418" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B420" activeCellId="0" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10498,15 +10532,52 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="6"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
-    </row>
-    <row r="420" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="6"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="6"/>
+    <row r="419" customFormat="false" ht="137.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="9"/>
+    </row>
+    <row r="422" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="8"/>
+      <c r="B422" s="8"/>
+      <c r="C422" s="9"/>
+    </row>
+    <row r="423" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="8"/>
+      <c r="B423" s="8"/>
+      <c r="C423" s="9"/>
+    </row>
+    <row r="424" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="8"/>
+      <c r="B424" s="8"/>
+      <c r="C424" s="9"/>
+    </row>
+    <row r="425" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="8"/>
+      <c r="B425" s="8"/>
+      <c r="C425" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10543,225 +10614,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1154</v>
+      <c r="B3" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="11" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1156</v>
+      <c r="B4" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -5554,7 +5554,16 @@
     <t xml:space="preserve">Customizando a tela de consentimento do OAuth2</t>
   </si>
   <si>
-    <t xml:space="preserve">- No Authorization Service devemos adicionar um Bean para customização de consent</t>
+    <t xml:space="preserve">'- No Authorization Service devemos adicionar um Bean para customização de consent
+@Bean
+public OAuth2AuthorizationConsentService consentService() {…}
+- No FilterChain precisamos customizar as configurações e não utilizar a applyDefaultSecurity(http)
+- Após isso é necessário a criação de um controller para encaminhar as requisições então criaremo um AuthorizationConsetController
+- Para armazenar as consessões no banco de dados devemos ajustar o ConsentService
+@Bean
+public OAuth2AuthorizationConsentService consentService(
+JdbcOperations jdbcOperations,RegisteredClientRepository clientRepository) {…}
+- E criar a tabela oauth2_authorization_consent  com db migration</t>
   </si>
   <si>
     <t xml:space="preserve">27.18</t>
@@ -5927,8 +5936,8 @@
   </sheetPr>
   <dimension ref="A1:F425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A418" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B420" activeCellId="0" sqref="B420"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B427" activeCellId="0" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10543,7 +10552,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="156.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>1155</v>
       </c>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1166">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5567,6 +5567,23 @@
   </si>
   <si>
     <t xml:space="preserve">27.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criando página de clientes consentidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Essa customização disponível NÃO é compatível com redis ou inmemory, somente com a persistência no JDBC
+- criar query com clients consentidos
+- criar interface para o repository OAuth2AuthorizationQueryService
+- criar serviço JdbcOAuth2AuthorizationQueryService
+- criar controller para disponilizar clients com path /oauth2/authorized-clients
+- criar uma pagina authorized-clients.html
+- criar um bean para iniciar o service:
+@Bean
+public OAuth2AuthorizationQueryService auth2AuthorizationQueryService(JdbcOperations jdbcOperations) {…}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.20</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5701,7 +5718,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5734,11 +5751,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5937,7 +5950,7 @@
   <dimension ref="A1:F425"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B427" activeCellId="0" sqref="B427"/>
+      <selection pane="topLeft" activeCell="B421" activeCellId="0" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10563,30 +10576,36 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="8"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="9"/>
+    <row r="421" customFormat="false" ht="110.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="422" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="9"/>
+      <c r="A422" s="6"/>
+      <c r="B422" s="6"/>
+      <c r="C422" s="8"/>
     </row>
     <row r="423" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="8"/>
-      <c r="B423" s="8"/>
-      <c r="C423" s="9"/>
+      <c r="A423" s="6"/>
+      <c r="B423" s="6"/>
+      <c r="C423" s="8"/>
     </row>
     <row r="424" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="9"/>
+      <c r="A424" s="6"/>
+      <c r="B424" s="6"/>
+      <c r="C424" s="8"/>
     </row>
     <row r="425" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A425" s="8"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="9"/>
+      <c r="A425" s="6"/>
+      <c r="B425" s="6"/>
+      <c r="C425" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10623,225 +10642,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>1160</v>
+      <c r="B3" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="10" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1162</v>
+      <c r="B4" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1169">
   <si>
     <t xml:space="preserve">Especialista Spring Rest</t>
   </si>
@@ -5584,6 +5584,20 @@
   </si>
   <si>
     <t xml:space="preserve">27.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revogando 
+Consentimentos e autorizações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Criar query para listar as autorizações de um cliente especifico
+- Adicionar uma nova busca na interface de consent clients
+- Implementar esse novo metodo no Service
+- Ajustar o bean no authorizationServcerConfig
+- Criar um post no Controller para o revoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.21</t>
   </si>
   <si>
     <t xml:space="preserve">ERRO</t>
@@ -5949,8 +5963,8 @@
   </sheetPr>
   <dimension ref="A1:F425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B421" activeCellId="0" sqref="B421"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A417" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B423" activeCellId="0" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10587,10 +10601,16 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="6"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="8"/>
+    <row r="422" customFormat="false" ht="66.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="6"/>
@@ -10643,7 +10663,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -10655,10 +10675,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10666,10 +10686,10 @@
         <v>404</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/docs/especialista-spring-rest.xlsx
+++ b/src/main/resources/docs/especialista-spring-rest.xlsx
@@ -5732,7 +5732,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5765,8 +5765,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -5961,10 +5965,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F425"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A417" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B423" activeCellId="0" sqref="B423"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A420" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F424" activeCellId="0" sqref="F424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10597,7 +10601,7 @@
       <c r="B421" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="C421" s="8" t="s">
+      <c r="C421" s="6" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -10608,25 +10612,55 @@
       <c r="B422" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="C422" s="8" t="s">
+      <c r="C422" s="6" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
-      <c r="C423" s="8"/>
+      <c r="C423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
-      <c r="C424" s="8"/>
+      <c r="C424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
-      <c r="C425" s="8"/>
-    </row>
+      <c r="C425" s="6"/>
+    </row>
+    <row r="426" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="8"/>
+      <c r="B426" s="8"/>
+      <c r="C426" s="9"/>
+    </row>
+    <row r="427" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="8"/>
+      <c r="B427" s="8"/>
+      <c r="C427" s="9"/>
+    </row>
+    <row r="428" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="8"/>
+      <c r="B428" s="8"/>
+      <c r="C428" s="9"/>
+    </row>
+    <row r="429" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
+      <c r="C429" s="9"/>
+    </row>
+    <row r="430" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="8"/>
+      <c r="B430" s="8"/>
+      <c r="C430" s="9"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -10662,225 +10696,225 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="11" t="n">
         <v>404</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
